--- a/Excel_CIS.xlsx
+++ b/Excel_CIS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="569">
   <si>
     <t>Part Number</t>
   </si>
@@ -1698,7 +1698,7 @@
     <t>USBC-16pin</t>
   </si>
   <si>
-    <t>usb-c-smd_type-c-6pin-2md-073</t>
+    <t>type-c-16p</t>
   </si>
   <si>
     <t>深圳首韩</t>
@@ -1720,6 +1720,9 @@
   </si>
   <si>
     <t>USBC-6pin</t>
+  </si>
+  <si>
+    <t>type-c-6p</t>
   </si>
   <si>
     <t>TYPE-C 6P(073)</t>
@@ -6984,7 +6987,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
@@ -7082,19 +7085,19 @@
         <v>565</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>559</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="I3" s="3">
         <v>0.22</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_CIS.xlsx
+++ b/Excel_CIS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12525" activeTab="8"/>
+    <workbookView windowWidth="28800" windowHeight="12525"/>
   </bookViews>
   <sheets>
     <sheet name="DIODE" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="563">
   <si>
     <t>Part Number</t>
   </si>
@@ -54,6 +54,72 @@
     <t>Datasheet</t>
   </si>
   <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>SCHOTTKY</t>
+  </si>
+  <si>
+    <t>SS14</t>
+  </si>
+  <si>
+    <t>VRRM=40V,I(AV)=1.0A,IFSM=30A,VF=0.55V@3A,IR(TA25-125℃)=0.5-10mA，Cj=110pF</t>
+  </si>
+  <si>
+    <t>SMA</t>
+  </si>
+  <si>
+    <t>MDD</t>
+  </si>
+  <si>
+    <t>https://www.microdiode.com/pdf/SS12-THRU-SS1200-SMAJ.pdf</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>SS34</t>
+  </si>
+  <si>
+    <t>VRRM=40V,I(AV)=3.0A,IFSM=100A,VF=0.55V@3A,IR(TA25-125℃)=0.5-20mA，Cj=500pF</t>
+  </si>
+  <si>
+    <t>SS34,B340A</t>
+  </si>
+  <si>
+    <t>https://www.microdiode.com/pdf/SS32-THRU-SS3200-SMAJ.pdf</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>SS36</t>
+  </si>
+  <si>
+    <t>VRRM=60V,I(AV)=3.0A,IFSM=100A,VF=0.7V@3A,IR(TA25-125℃)=0.5-20mA，Cj=300pF</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>SS14F</t>
+  </si>
+  <si>
+    <t>SMAF</t>
+  </si>
+  <si>
+    <t>https://www.microdiode.com/pdf/SS12F-THRU-SS1200F.pdf</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>SS34F</t>
+  </si>
+  <si>
+    <t>https://www.microdiode.com/pdf/SS32F-THRU-SS3200F.pdf</t>
+  </si>
+  <si>
     <t>D1</t>
   </si>
   <si>
@@ -165,72 +231,6 @@
     <t>MMSZ5242B</t>
   </si>
   <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>SCHOTTKY</t>
-  </si>
-  <si>
-    <t>SS14</t>
-  </si>
-  <si>
-    <t>VRRM=40V,I(AV)=1.0A,IFSM=30A,VF=0.55V@3A,IR(TA25-125℃)=0.5-10mA，Cj=110pF</t>
-  </si>
-  <si>
-    <t>SMA</t>
-  </si>
-  <si>
-    <t>MDD</t>
-  </si>
-  <si>
-    <t>https://www.microdiode.com/pdf/SS12-THRU-SS1200-SMAJ.pdf</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>SS14F</t>
-  </si>
-  <si>
-    <t>SMAF</t>
-  </si>
-  <si>
-    <t>https://www.microdiode.com/pdf/SS12F-THRU-SS1200F.pdf</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>SS34</t>
-  </si>
-  <si>
-    <t>VRRM=40V,I(AV)=3.0A,IFSM=100A,VF=0.55V@3A,IR(TA25-125℃)=0.5-20mA，Cj=500pF</t>
-  </si>
-  <si>
-    <t>SS34,B340A</t>
-  </si>
-  <si>
-    <t>https://www.microdiode.com/pdf/SS32-THRU-SS3200-SMAJ.pdf</t>
-  </si>
-  <si>
-    <t>D12</t>
-  </si>
-  <si>
-    <t>SS34F</t>
-  </si>
-  <si>
-    <t>https://www.microdiode.com/pdf/SS32F-THRU-SS3200F.pdf</t>
-  </si>
-  <si>
-    <t>D13</t>
-  </si>
-  <si>
-    <t>SS36</t>
-  </si>
-  <si>
-    <t>VRRM=60V,I(AV)=3.0A,IFSM=100A,VF=0.7V@3A,IR(TA25-125℃)=0.5-20mA，Cj=300pF</t>
-  </si>
-  <si>
     <t>D14</t>
   </si>
   <si>
@@ -372,228 +372,210 @@
     <t>https://www.semiee.com/file/Source10/silergy-SY8089AAAC.pdf</t>
   </si>
   <si>
-    <t>IC10</t>
+    <t>IC11</t>
   </si>
   <si>
     <t>LDO</t>
   </si>
   <si>
-    <t>AMS1117-5.0</t>
-  </si>
-  <si>
-    <t>低压差线性稳压器,Vinmax=18V,Vout=5.0V,Vdrop=1.2V@1A,限流保护1.6A,150°过热保护</t>
-  </si>
-  <si>
-    <t>AMS1117</t>
-  </si>
-  <si>
-    <t>SOT-89</t>
+    <t>RT9193-1.8</t>
+  </si>
+  <si>
+    <t>低压超低噪声差线性稳压器,2.5-5.5Vin,Vdrop=0.22V@0.3A, 带使能引脚，过热保护，限流保护，停机模式时&lt;0.01μA 待机电流，-40_120℃</t>
+  </si>
+  <si>
+    <t>RT9193</t>
+  </si>
+  <si>
+    <t>Richtek</t>
+  </si>
+  <si>
+    <t>RT9193-18GB</t>
+  </si>
+  <si>
+    <t>https://www.richtek.com/assets/product_file/RT9193/DS9193-18.pdf</t>
+  </si>
+  <si>
+    <t>IC12</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>CH340K</t>
+  </si>
+  <si>
+    <t>USB转1个串口，5V、3.3V供电，无需外部晶振，波特率 50bps～2Mbps</t>
+  </si>
+  <si>
+    <t>ESSOP-10-EP</t>
+  </si>
+  <si>
+    <t>南京沁恒</t>
+  </si>
+  <si>
+    <t>D:\Cadence_LIB\Datasheet\USB转串口芯片CH340.pdf</t>
+  </si>
+  <si>
+    <t>IC13</t>
+  </si>
+  <si>
+    <t>CH224K</t>
+  </si>
+  <si>
+    <t>4V至22V 输入电压,支持 PD3.0/2.0，BC1.2等快充协议,支持 USB Type-C PD，支持正反插检测与自动切换,支持 E-Mark 模拟，自动检测 VCONN，支持 100W 功率的 PD 请求,内置过压保护模块OVA、超温保护模块OTA</t>
+  </si>
+  <si>
+    <t>https://www.semiee.com/file/WCH/WCH-CH224.pdf</t>
+  </si>
+  <si>
+    <t>IC14</t>
+  </si>
+  <si>
+    <t>ALC5616</t>
+  </si>
+  <si>
+    <t>ALC5616 是一款高性能、低功耗、立体声通道 I2S 接口音频编解码器，集成的DRC（动态范围控制器）和7段参数均衡器提供了音频播放路径的进一步数字声音处理能力。</t>
+  </si>
+  <si>
+    <t>QFN-32-EP-4x4</t>
+  </si>
+  <si>
+    <t>Realtek</t>
+  </si>
+  <si>
+    <t>ALC5616-CG</t>
+  </si>
+  <si>
+    <t>https://www.semiee.com/file/EOL2/Realtek-ALC5616-CGT.pdf</t>
+  </si>
+  <si>
+    <t>IC15</t>
+  </si>
+  <si>
+    <t>TXB0108DQS</t>
+  </si>
+  <si>
+    <t>A端口1.2V至3.6V、B端口1.65V至5.5V(VCCA≤VCCB)，以VCCA为基准的输出使能(OE)输入电路，低功耗，最大ICC为4µA，闩锁性能超出100mA</t>
+  </si>
+  <si>
+    <t>TXB0108</t>
+  </si>
+  <si>
+    <t>son-20_l4_0-w2_0-p0_40-bl</t>
+  </si>
+  <si>
+    <t>https://www.semiee.com/file/TI/TI-TXB0108.pdf</t>
+  </si>
+  <si>
+    <t>IC16</t>
+  </si>
+  <si>
+    <t>HUSB238</t>
+  </si>
+  <si>
+    <t>PD Sink,VBUS过压和欠压，过流保护,门限可配置,过温保护90℃/75℃,传输的额定功率可达100W。兼容PD3.0 V1.3和Type-C V1.4、BC1.2 DCP、CDP和SDP和Apple 5V2.4A充电协议。</t>
+  </si>
+  <si>
+    <t>DFN-3x3-10L</t>
+  </si>
+  <si>
+    <t>Hynetek</t>
+  </si>
+  <si>
+    <t>HUSB238_003DD</t>
+  </si>
+  <si>
+    <t>https://www.semiee.com/file/Hynetek/Hynetek-HUSB238.pdf</t>
+  </si>
+  <si>
+    <t>IC17</t>
+  </si>
+  <si>
+    <t>OPA</t>
+  </si>
+  <si>
+    <t>LM358DGKR</t>
+  </si>
+  <si>
+    <t>双路, 36V, 1.2MHz, 3mV失调电压，-40_85°C</t>
+  </si>
+  <si>
+    <t>LM358</t>
+  </si>
+  <si>
+    <t>vssop-8</t>
+  </si>
+  <si>
+    <t>https://www.semiee.com/file/TI/TI-LM358.pdf</t>
+  </si>
+  <si>
+    <t>IC18</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>SC8906QFER</t>
+  </si>
+  <si>
+    <t>2.7V至22V，支持DP/DM快充协议， 2节至4节Buck-Boost充电，包括涓流充电、恒流充电、恒压充电和充电截止功能，欠压/过压保护，过流保护，短路保护，热关断</t>
+  </si>
+  <si>
+    <t>SC8906</t>
+  </si>
+  <si>
+    <t>qfn-21_l4_0-w4_0-p0_40-bl_sc8721qfer</t>
+  </si>
+  <si>
+    <t>SouthChip</t>
+  </si>
+  <si>
+    <t>https://www.semiee.com/file/SouthChip/SouthChip-SC8906.pdf</t>
+  </si>
+  <si>
+    <t>IC19</t>
+  </si>
+  <si>
+    <t>SGM40561</t>
+  </si>
+  <si>
+    <t>4.55V至26.5V，单节锂电池充电，20-200mA充电电流，关断时1uA泄漏电流，-40_85℃</t>
+  </si>
+  <si>
+    <t>SON9P50_200X200X75L35X24T120X60</t>
+  </si>
+  <si>
+    <t>SGMIRCO</t>
+  </si>
+  <si>
+    <t>SGM40561-4.2</t>
+  </si>
+  <si>
+    <t>https://www.semiee.com/file/SGMICRO/SGMICRO-SGM40561.pdf</t>
+  </si>
+  <si>
+    <t>SY9701ADPC</t>
+  </si>
+  <si>
+    <t>2.6V至5.5V输入，2.6V-3.8V输出，Back-Boost无缝升降压，1MHz，1.2A连续输出电流，内置热关断、短路保护</t>
+  </si>
+  <si>
+    <t>DFN3x3-14</t>
+  </si>
+  <si>
+    <t>https://www.semiee.com/file/SILERGY/SILERGY-SY9701ADPC.pdf</t>
+  </si>
+  <si>
+    <t>TP4054</t>
+  </si>
+  <si>
+    <t>单节锂电池恒流恒压线性管理芯片，充电电流可达500mA，输入电压范围4.2V至6.5V</t>
   </si>
   <si>
     <t>UMW</t>
   </si>
   <si>
-    <t>AMS1117-5.0S</t>
-  </si>
-  <si>
-    <t>https://www.semiee.com/file/Source10/UMW-AMS1117-5.0S.pdf</t>
-  </si>
-  <si>
-    <t>IC11</t>
-  </si>
-  <si>
-    <t>RT9193-1.8</t>
-  </si>
-  <si>
-    <t>低压超低噪声差线性稳压器,2.5-5.5Vin,Vdrop=0.22V@0.3A, 带使能引脚，过热保护，限流保护，停机模式时&lt;0.01μA 待机电流，-40_120℃</t>
-  </si>
-  <si>
-    <t>RT9193</t>
-  </si>
-  <si>
-    <t>Richtek</t>
-  </si>
-  <si>
-    <t>RT9193-18GB</t>
-  </si>
-  <si>
-    <t>https://www.richtek.com/assets/product_file/RT9193/DS9193-18.pdf</t>
-  </si>
-  <si>
-    <t>IC12</t>
-  </si>
-  <si>
-    <t>Interface</t>
-  </si>
-  <si>
-    <t>CH340K</t>
-  </si>
-  <si>
-    <t>USB转1个串口，5V、3.3V供电，无需外部晶振，波特率 50bps～2Mbps</t>
-  </si>
-  <si>
-    <t>南京沁恒</t>
-  </si>
-  <si>
-    <t>D:\Cadence_LIB\Datasheet\USB转串口芯片CH340.pdf</t>
-  </si>
-  <si>
-    <t>IC13</t>
-  </si>
-  <si>
-    <t>CH224K</t>
-  </si>
-  <si>
-    <t>4V至22V 输入电压,支持 PD3.0/2.0，BC1.2等快充协议,支持 USB Type-C PD，支持正反插检测与自动切换,支持 E-Mark 模拟，自动检测 VCONN，支持 100W 功率的 PD 请求,内置过压保护模块OVA、超温保护模块OTA</t>
-  </si>
-  <si>
-    <t>https://www.semiee.com/file/WCH/WCH-CH224.pdf</t>
-  </si>
-  <si>
-    <t>IC14</t>
-  </si>
-  <si>
-    <t>ALC5616</t>
-  </si>
-  <si>
-    <t>ALC5616 是一款高性能、低功耗、立体声通道 I2S 接口音频编解码器，集成的DRC（动态范围控制器）和7段参数均衡器提供了音频播放路径的进一步数字声音处理能力。</t>
-  </si>
-  <si>
-    <t>QFN32_4X4_RTK-L</t>
-  </si>
-  <si>
-    <t>Realtek</t>
-  </si>
-  <si>
-    <t>ALC5616-CG</t>
-  </si>
-  <si>
-    <t>https://www.semiee.com/file/EOL2/Realtek-ALC5616-CGT.pdf</t>
-  </si>
-  <si>
-    <t>IC15</t>
-  </si>
-  <si>
-    <t>TXB0108DQS</t>
-  </si>
-  <si>
-    <t>A端口1.2V至3.6V、B端口1.65V至5.5V(VCCA≤VCCB)，以VCCA为基准的输出使能(OE)输入电路，低功耗，最大ICC为4µA，闩锁性能超出100mA</t>
-  </si>
-  <si>
-    <t>TXB0108</t>
-  </si>
-  <si>
-    <t>DQS (R-PUSON-N20)</t>
-  </si>
-  <si>
-    <t>https://www.semiee.com/file/TI/TI-TXB0108.pdf</t>
-  </si>
-  <si>
-    <t>IC16</t>
-  </si>
-  <si>
-    <t>HUSB238</t>
-  </si>
-  <si>
-    <t>PD Sink,VBUS过压和欠压，过流保护,门限可配置,过温保护90℃/75℃,传输的额定功率可达100W。兼容PD3.0 V1.3和Type-C V1.4、BC1.2 DCP、CDP和SDP和Apple 5V2.4A充电协议。</t>
-  </si>
-  <si>
-    <t>SON11P50_300X300X75L40X25T24-1</t>
-  </si>
-  <si>
-    <t>Hynetek</t>
-  </si>
-  <si>
-    <t>HUSB238_003DD</t>
-  </si>
-  <si>
-    <t>https://www.semiee.com/file/Hynetek/Hynetek-HUSB238.pdf</t>
-  </si>
-  <si>
-    <t>IC17</t>
-  </si>
-  <si>
-    <t>OPA</t>
-  </si>
-  <si>
-    <t>LM358DGKR</t>
-  </si>
-  <si>
-    <t>双路, 36V, 1.2MHz, 3mV失调电压，-40_85°C</t>
-  </si>
-  <si>
-    <t>LM358</t>
-  </si>
-  <si>
-    <t>DGK8_TEX-L</t>
-  </si>
-  <si>
-    <t>https://www.semiee.com/file/TI/TI-LM358.pdf</t>
-  </si>
-  <si>
-    <t>IC18</t>
-  </si>
-  <si>
-    <t>Charge</t>
-  </si>
-  <si>
-    <t>SC8906QFER</t>
-  </si>
-  <si>
-    <t>2.7V至22V，支持DP/DM快充协议， 2节至4节Buck-Boost充电，包括涓流充电、恒流充电、恒压充电和充电截止功能，欠压/过压保护，过流保护，短路保护，热关断</t>
-  </si>
-  <si>
-    <t>SC8906</t>
-  </si>
-  <si>
-    <t>qfn-21_l4_0-w4_0-p0_40-bl_sc8721qfer</t>
-  </si>
-  <si>
-    <t>SouthChip</t>
-  </si>
-  <si>
-    <t>https://www.semiee.com/file/SouthChip/SouthChip-SC8906.pdf</t>
-  </si>
-  <si>
-    <t>IC19</t>
-  </si>
-  <si>
-    <t>SGM40561</t>
-  </si>
-  <si>
-    <t>4.55V至26.5V，单节锂电池充电，20-200mA充电电流，关断时1uA泄漏电流，-40_85℃</t>
-  </si>
-  <si>
-    <t>TDFN-2X2-8L</t>
-  </si>
-  <si>
-    <t>SGMIRCO</t>
-  </si>
-  <si>
-    <t>SGM40561-4.2</t>
-  </si>
-  <si>
-    <t>https://www.semiee.com/file/SGMICRO/SGMICRO-SGM40561.pdf</t>
-  </si>
-  <si>
-    <t>SY9701ADPC</t>
-  </si>
-  <si>
-    <t>2.6V至5.5V输入，2.6V-3.8V输出，Back-Boost无缝升降压，1MHz，1.2A连续输出电流，内置热关断、短路保护</t>
-  </si>
-  <si>
-    <t>DFN3x3-14</t>
-  </si>
-  <si>
-    <t>https://www.semiee.com/file/SILERGY/SILERGY-SY9701ADPC.pdf</t>
-  </si>
-  <si>
-    <t>TP4054</t>
-  </si>
-  <si>
-    <t>单节锂电池恒流恒压线性管理芯片，充电电流可达500mA，输入电压范围4.2V至6.5V</t>
-  </si>
-  <si>
     <t>https://atta.szlcsc.com/upload/public/pdf/source/20211011/DD9DB39E30D67DDF115F79B4376A27FF.pdf</t>
   </si>
   <si>
@@ -1209,6 +1191,138 @@
     <t>D:\Cadence_LIB\Datasheet\UNI-ROYAL(厚声) 电阻.pdf</t>
   </si>
   <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>1k ±1% 62.5mW 50V -55℃~+155℃</t>
+  </si>
+  <si>
+    <t>0402WGF1001TCE</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>2k</t>
+  </si>
+  <si>
+    <t>2k ±1% 62.5mW 50V -55℃~+155℃</t>
+  </si>
+  <si>
+    <t>0402WGF2001TCE</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>4.7k</t>
+  </si>
+  <si>
+    <t>4.7k ±1% 62.5mW 50V -55℃~+155℃</t>
+  </si>
+  <si>
+    <t>0402WGF4701TCE</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>10k ±1% 62.5mW 50V -55℃~+155℃</t>
+  </si>
+  <si>
+    <t>0402WGF1002TCE</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>22k</t>
+  </si>
+  <si>
+    <t>22k ±1% 62.5mW 50V -55℃~+155℃</t>
+  </si>
+  <si>
+    <t>0402WGF2202TCE</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>40.2k</t>
+  </si>
+  <si>
+    <t>40.2k ±1% 62.5mW 50V -55℃~+155℃</t>
+  </si>
+  <si>
+    <t>0402WGF4022TCE</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>47k</t>
+  </si>
+  <si>
+    <t>47k ±1% 62.5mW 50V -55℃~+155℃</t>
+  </si>
+  <si>
+    <t>0402WGF4702TCE</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>68k</t>
+  </si>
+  <si>
+    <t>68k ±1% 62.5mW 50V -55℃~+155℃</t>
+  </si>
+  <si>
+    <t>0402WGF6803TCE</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>100k</t>
+  </si>
+  <si>
+    <t>100k ±1% 62.5mW 50V -55℃~+155℃</t>
+  </si>
+  <si>
+    <t>0402WGF1003TCE</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>124k</t>
+  </si>
+  <si>
+    <t>124k ±1% 62.5mW 50V -55℃~+155℃</t>
+  </si>
+  <si>
+    <t>0402WGF1243TCE</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>200k</t>
+  </si>
+  <si>
+    <t>200k ±1% 62.5mW 50V -55℃~+155℃</t>
+  </si>
+  <si>
+    <t>0402WGF2003TCE</t>
+  </si>
+  <si>
     <t>R2</t>
   </si>
   <si>
@@ -1225,138 +1339,6 @@
   </si>
   <si>
     <t>D:\Cadence_LIB\Datasheet\UNI-ROYAL(厚声) 采样电阻.PDF</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>1k</t>
-  </si>
-  <si>
-    <t>1k ±1% 62.5mW 50V -55℃~+155℃</t>
-  </si>
-  <si>
-    <t>0402WGF1001TCE</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>2k</t>
-  </si>
-  <si>
-    <t>2k ±1% 62.5mW 50V -55℃~+155℃</t>
-  </si>
-  <si>
-    <t>0402WGF2001TCE</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>4.7k</t>
-  </si>
-  <si>
-    <t>4.7k ±1% 62.5mW 50V -55℃~+155℃</t>
-  </si>
-  <si>
-    <t>0402WGF4701TCE</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>10k</t>
-  </si>
-  <si>
-    <t>10k ±1% 62.5mW 50V -55℃~+155℃</t>
-  </si>
-  <si>
-    <t>0402WGF1002TCE</t>
-  </si>
-  <si>
-    <t>R7</t>
-  </si>
-  <si>
-    <t>22k</t>
-  </si>
-  <si>
-    <t>22k ±1% 62.5mW 50V -55℃~+155℃</t>
-  </si>
-  <si>
-    <t>0402WGF2202TCE</t>
-  </si>
-  <si>
-    <t>R8</t>
-  </si>
-  <si>
-    <t>40.2k</t>
-  </si>
-  <si>
-    <t>40.2k ±1% 62.5mW 50V -55℃~+155℃</t>
-  </si>
-  <si>
-    <t>0402WGF4022TCE</t>
-  </si>
-  <si>
-    <t>R9</t>
-  </si>
-  <si>
-    <t>47k</t>
-  </si>
-  <si>
-    <t>47k ±1% 62.5mW 50V -55℃~+155℃</t>
-  </si>
-  <si>
-    <t>0402WGF4702TCE</t>
-  </si>
-  <si>
-    <t>R10</t>
-  </si>
-  <si>
-    <t>68k</t>
-  </si>
-  <si>
-    <t>68k ±1% 62.5mW 50V -55℃~+155℃</t>
-  </si>
-  <si>
-    <t>0402WGF6803TCE</t>
-  </si>
-  <si>
-    <t>R11</t>
-  </si>
-  <si>
-    <t>100k</t>
-  </si>
-  <si>
-    <t>100k ±1% 62.5mW 50V -55℃~+155℃</t>
-  </si>
-  <si>
-    <t>0402WGF1003TCE</t>
-  </si>
-  <si>
-    <t>R12</t>
-  </si>
-  <si>
-    <t>124k</t>
-  </si>
-  <si>
-    <t>124k ±1% 62.5mW 50V -55℃~+155℃</t>
-  </si>
-  <si>
-    <t>0402WGF1243TCE</t>
-  </si>
-  <si>
-    <t>R13</t>
-  </si>
-  <si>
-    <t>200k</t>
-  </si>
-  <si>
-    <t>200k ±1% 62.5mW 50V -55℃~+155℃</t>
-  </si>
-  <si>
-    <t>0402WGF2003TCE</t>
   </si>
   <si>
     <t>C1</t>
@@ -2508,7 +2490,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2832,8 +2814,8 @@
   <sheetPr/>
   <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2906,27 +2888,27 @@
         <v>15</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0.13</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" ht="39" customHeight="1" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>11</v>
@@ -2938,27 +2920,27 @@
         <v>15</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" s="3">
         <v>0.2</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>22</v>
+      <c r="J3" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>11</v>
@@ -2970,333 +2952,333 @@
         <v>15</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I4" s="3">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" ht="39" customHeight="1" spans="1:10">
       <c r="A5" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I5" s="3">
-        <v>0.11</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>22</v>
+        <v>0.1</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" ht="39" customHeight="1" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I6" s="3">
-        <v>0.14</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>17</v>
+        <v>0.3</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" ht="39" customHeight="1" spans="1:10">
       <c r="A7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="E7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="G7" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>38</v>
       </c>
       <c r="I7" s="3">
-        <v>0.18</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>22</v>
+        <v>0.13</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" ht="39" customHeight="1" spans="1:10">
       <c r="A8" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I8" s="3">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" ht="39" customHeight="1" spans="1:10">
       <c r="A9" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I9" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>22</v>
+        <v>0.15</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10" ht="39" customHeight="1" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="G10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="I10" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>53</v>
+        <v>0.11</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" ht="39" customHeight="1" spans="1:10">
       <c r="A11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>50</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="I11" s="3">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" ht="39" customHeight="1" spans="1:10">
       <c r="A12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="I12" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>62</v>
+        <v>0.18</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="13" ht="39" customHeight="1" spans="1:10">
       <c r="A13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="E13" s="3" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>64</v>
       </c>
       <c r="I13" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>65</v>
+        <v>0.15</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="14" ht="39" customHeight="1" spans="1:10">
       <c r="A14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="I14" s="3">
-        <v>0.22</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>62</v>
+        <v>0.2</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="15" ht="39" customHeight="1" spans="1:10">
@@ -3304,7 +3286,7 @@
         <v>69</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>70</v>
@@ -3313,7 +3295,7 @@
         <v>71</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>72</v>
@@ -3411,21 +3393,24 @@
     <row r="112" customFormat="1"/>
     <row r="113" customFormat="1"/>
   </sheetData>
+  <sortState ref="A2:J113">
+    <sortCondition ref="F2"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="J13" r:id="rId1" display="https://www.microdiode.com/pdf/SS32F-THRU-SS3200F.pdf"/>
-    <hyperlink ref="J14" r:id="rId2" display="https://www.microdiode.com/pdf/SS32-THRU-SS3200-SMAJ.pdf"/>
+    <hyperlink ref="J6" r:id="rId1" display="https://www.microdiode.com/pdf/SS32F-THRU-SS3200F.pdf"/>
+    <hyperlink ref="J4" r:id="rId2" display="https://www.microdiode.com/pdf/SS32-THRU-SS3200-SMAJ.pdf"/>
     <hyperlink ref="J15" r:id="rId3" display="https://www.semiee.com/file/Nexperia/Nexperia-1PS79SB30.pdf"/>
-    <hyperlink ref="J12" r:id="rId2" display="https://www.microdiode.com/pdf/SS32-THRU-SS3200-SMAJ.pdf" tooltip="https://www.microdiode.com/pdf/SS32-THRU-SS3200-SMAJ.pdf"/>
-    <hyperlink ref="J11" r:id="rId4" display="https://www.microdiode.com/pdf/SS12F-THRU-SS1200F.pdf" tooltip="https://www.microdiode.com/pdf/SS12F-THRU-SS1200F.pdf"/>
-    <hyperlink ref="J10" r:id="rId5" display="https://www.microdiode.com/pdf/SS12-THRU-SS1200-SMAJ.pdf"/>
-    <hyperlink ref="J9" r:id="rId6" display="https://www.semiee.com/file/JSCJ/JSCJ-MMSZ5226B.pdf"/>
-    <hyperlink ref="J8" r:id="rId7" display="https://www.semiee.com/file/JSCJ/JSCJ-BZT52C3V3.pdf"/>
-    <hyperlink ref="J7" r:id="rId6" display="https://www.semiee.com/file/JSCJ/JSCJ-MMSZ5226B.pdf"/>
-    <hyperlink ref="J6" r:id="rId7" display="https://www.semiee.com/file/JSCJ/JSCJ-BZT52C3V3.pdf"/>
-    <hyperlink ref="J5" r:id="rId6" display="https://www.semiee.com/file/JSCJ/JSCJ-MMSZ5226B.pdf"/>
-    <hyperlink ref="J4" r:id="rId7" display="https://www.semiee.com/file/JSCJ/JSCJ-BZT52C3V3.pdf"/>
-    <hyperlink ref="J3" r:id="rId6" display="https://www.semiee.com/file/JSCJ/JSCJ-MMSZ5226B.pdf"/>
-    <hyperlink ref="J2" r:id="rId7" display="https://www.semiee.com/file/JSCJ/JSCJ-BZT52C3V3.pdf" tooltip="https://www.semiee.com/file/JSCJ/JSCJ-BZT52C3V3.pdf"/>
+    <hyperlink ref="J3" r:id="rId2" display="https://www.microdiode.com/pdf/SS32-THRU-SS3200-SMAJ.pdf" tooltip="https://www.microdiode.com/pdf/SS32-THRU-SS3200-SMAJ.pdf"/>
+    <hyperlink ref="J5" r:id="rId4" display="https://www.microdiode.com/pdf/SS12F-THRU-SS1200F.pdf" tooltip="https://www.microdiode.com/pdf/SS12F-THRU-SS1200F.pdf"/>
+    <hyperlink ref="J2" r:id="rId5" display="https://www.microdiode.com/pdf/SS12-THRU-SS1200-SMAJ.pdf"/>
+    <hyperlink ref="J14" r:id="rId6" display="https://www.semiee.com/file/JSCJ/JSCJ-MMSZ5226B.pdf"/>
+    <hyperlink ref="J13" r:id="rId7" display="https://www.semiee.com/file/JSCJ/JSCJ-BZT52C3V3.pdf"/>
+    <hyperlink ref="J12" r:id="rId6" display="https://www.semiee.com/file/JSCJ/JSCJ-MMSZ5226B.pdf"/>
+    <hyperlink ref="J11" r:id="rId7" display="https://www.semiee.com/file/JSCJ/JSCJ-BZT52C3V3.pdf"/>
+    <hyperlink ref="J10" r:id="rId6" display="https://www.semiee.com/file/JSCJ/JSCJ-MMSZ5226B.pdf"/>
+    <hyperlink ref="J9" r:id="rId7" display="https://www.semiee.com/file/JSCJ/JSCJ-BZT52C3V3.pdf"/>
+    <hyperlink ref="J8" r:id="rId6" display="https://www.semiee.com/file/JSCJ/JSCJ-MMSZ5226B.pdf"/>
+    <hyperlink ref="J7" r:id="rId7" display="https://www.semiee.com/file/JSCJ/JSCJ-BZT52C3V3.pdf" tooltip="https://www.semiee.com/file/JSCJ/JSCJ-BZT52C3V3.pdf"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -3435,10 +3420,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3711,7 +3696,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" s="6" customFormat="1" ht="33" spans="1:10">
+    <row r="9" s="6" customFormat="1" ht="49.5" spans="1:10">
       <c r="A9" s="10" t="s">
         <v>116</v>
       </c>
@@ -3728,27 +3713,27 @@
         <v>120</v>
       </c>
       <c r="F9" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="H9" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="I9" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="I9" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="J9" s="21" t="s">
+    </row>
+    <row r="10" s="6" customFormat="1" ht="33" spans="1:10">
+      <c r="A10" s="10" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="10" s="6" customFormat="1" ht="49.5" spans="1:10">
-      <c r="A10" s="10" t="s">
+      <c r="B10" s="18" t="s">
         <v>125</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>117</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>126</v>
@@ -3757,85 +3742,85 @@
         <v>127</v>
       </c>
       <c r="E10" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="18" t="s">
         <v>128</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>93</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>129</v>
       </c>
       <c r="H10" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="I10" s="18">
+        <v>2.2</v>
+      </c>
+      <c r="J10" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="I10" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="J10" s="22" t="s">
+    </row>
+    <row r="11" s="6" customFormat="1" ht="66" spans="1:10">
+      <c r="A11" s="10" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="11" s="6" customFormat="1" ht="33" spans="1:10">
-      <c r="A11" s="10" t="s">
+      <c r="B11" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="D11" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="E11" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="I11" s="18">
+        <v>1.2</v>
+      </c>
+      <c r="J11" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="D11" s="19" t="s">
+    </row>
+    <row r="12" s="6" customFormat="1" ht="49.5" spans="1:10">
+      <c r="A12" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="G11" s="18" t="s">
+      <c r="B12" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="H11" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="I11" s="18">
-        <v>2.2</v>
-      </c>
-      <c r="J11" s="22" t="s">
+      <c r="D12" s="7" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="12" s="6" customFormat="1" ht="66" spans="1:10">
-      <c r="A12" s="10" t="s">
+      <c r="E12" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="C12" s="18" t="s">
+      <c r="G12" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="H12" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E12" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>139</v>
-      </c>
       <c r="I12" s="18">
-        <v>1.2</v>
-      </c>
-      <c r="J12" s="22" t="s">
+        <v>5.3</v>
+      </c>
+      <c r="J12" s="21" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3844,7 +3829,7 @@
         <v>142</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>143</v>
@@ -3852,127 +3837,127 @@
       <c r="D13" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="F13" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="18">
+        <v>1.95</v>
+      </c>
+      <c r="J13" s="21" t="s">
         <v>147</v>
-      </c>
-      <c r="I13" s="18">
-        <v>5.3</v>
-      </c>
-      <c r="J13" s="22" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="14" s="6" customFormat="1" ht="49.5" spans="1:10">
       <c r="A14" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="G14" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="G14" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="I14" s="18">
-        <v>1.95</v>
+      <c r="I14" s="3">
+        <v>3.2</v>
       </c>
       <c r="J14" s="21" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="15" s="6" customFormat="1" ht="49.5" spans="1:10">
+    <row r="15" s="6" customFormat="1" ht="16.5" spans="1:10">
       <c r="A15" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="20" t="s">
         <v>156</v>
       </c>
+      <c r="C15" s="18" t="s">
+        <v>157</v>
+      </c>
       <c r="D15" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="I15" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="J15" s="22" t="s">
+      <c r="I15" s="18">
+        <v>0.6</v>
+      </c>
+      <c r="J15" s="21" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="16" s="6" customFormat="1" ht="16.5" spans="1:10">
+    <row r="16" s="6" customFormat="1" ht="49.5" spans="1:10">
       <c r="A16" s="10" t="s">
         <v>162</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="3" t="s">
         <v>164</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="G16" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="H16" s="18" t="s">
+      <c r="G16" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>164</v>
       </c>
       <c r="I16" s="18">
-        <v>0.6</v>
-      </c>
-      <c r="J16" s="22" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="17" s="6" customFormat="1" ht="49.5" spans="1:10">
+        <v>5.1</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" s="6" customFormat="1" ht="33" spans="1:10">
       <c r="A17" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>171</v>
@@ -3981,120 +3966,120 @@
         <v>172</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="I17" s="18">
-        <v>5.1</v>
+        <v>2</v>
       </c>
       <c r="J17" s="21" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="18" s="6" customFormat="1" ht="33" spans="1:10">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="10"/>
+      <c r="B18" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B18" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="E18" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="I18" s="18"/>
+      <c r="J18" s="23" t="s">
         <v>180</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="I18" s="18">
-        <v>2</v>
-      </c>
-      <c r="J18" s="22" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="19" s="6" customFormat="1" ht="33" spans="1:10">
       <c r="A19" s="10"/>
       <c r="B19" s="18" t="s">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="I19" s="18">
+        <v>0.23</v>
+      </c>
+      <c r="J19" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="D19" s="7" t="s">
+    </row>
+    <row r="20" s="6" customFormat="1" ht="33" spans="1:10">
+      <c r="A20" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="F19" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="I19" s="18"/>
-      <c r="J19" s="23" t="s">
+      <c r="C20" s="3" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="20" s="6" customFormat="1" ht="33" spans="1:10">
-      <c r="A20" s="10"/>
-      <c r="B20" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="E20" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>188</v>
-      </c>
       <c r="F20" s="3" t="s">
-        <v>93</v>
+        <v>190</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="I20" s="18">
-        <v>0.23</v>
+        <v>82</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.8</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" s="6" customFormat="1" ht="33" spans="1:10">
       <c r="A21" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>193</v>
@@ -4103,10 +4088,10 @@
         <v>194</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>82</v>
@@ -4118,47 +4103,47 @@
         <v>0.8</v>
       </c>
       <c r="J21" s="22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" ht="49.5" spans="1:10">
+      <c r="A22" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="22" s="6" customFormat="1" ht="33" spans="1:10">
-      <c r="A22" s="10" t="s">
+      <c r="D22" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="E22" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="G22" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="F22" s="3" t="s">
+      <c r="H22" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="I22" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" ht="66" spans="1:10">
+      <c r="A23" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="J22" s="22" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="23" ht="49.5" spans="1:10">
-      <c r="A23" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>202</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>203</v>
@@ -4176,45 +4161,13 @@
         <v>206</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="I23" s="3">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="J23" s="22" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="24" ht="66" spans="1:10">
-      <c r="A24" s="10" t="s">
         <v>208</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="I24" s="3">
-        <v>2.9</v>
-      </c>
-      <c r="J24" s="22" t="s">
-        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -4226,21 +4179,20 @@
     <hyperlink ref="J8" r:id="rId5" display="https://www.semiee.com/file/Source10/silergy-SY8089AAAC.pdf" tooltip="https://www.semiee.com/file/Source10/silergy-SY8089AAAC.pdf"/>
     <hyperlink ref="J2" r:id="rId6" display="https://www.semiee.com/file/TI/TI-TPS563201.pdf" tooltip="https://www.semiee.com/file/TI/TI-TPS563201.pdf"/>
     <hyperlink ref="J3" r:id="rId7" display="https://www.semiee.com/file/TI/TI-TPS562200.pdf" tooltip="https://www.semiee.com/file/TI/TI-TPS562200.pdf"/>
-    <hyperlink ref="J9" r:id="rId8" display="https://www.semiee.com/file/Source10/UMW-AMS1117-5.0S.pdf"/>
-    <hyperlink ref="J10" r:id="rId9" display="https://www.richtek.com/assets/product_file/RT9193/DS9193-18.pdf"/>
-    <hyperlink ref="J12" r:id="rId10" display="https://www.semiee.com/file/WCH/WCH-CH224.pdf"/>
-    <hyperlink ref="J13" r:id="rId11" display="https://www.semiee.com/file/EOL2/Realtek-ALC5616-CGT.pdf"/>
-    <hyperlink ref="J14" r:id="rId12" display="https://www.semiee.com/file/TI/TI-TXB0108.pdf"/>
-    <hyperlink ref="J15" r:id="rId13" display="https://www.semiee.com/file/Hynetek/Hynetek-HUSB238.pdf"/>
-    <hyperlink ref="J16" r:id="rId14" display="https://www.semiee.com/file/TI/TI-LM358.pdf"/>
-    <hyperlink ref="J17" r:id="rId15" display="https://www.semiee.com/file/SouthChip/SouthChip-SC8906.pdf"/>
-    <hyperlink ref="J18" r:id="rId16" display="https://www.semiee.com/file/SGMICRO/SGMICRO-SGM40561.pdf"/>
-    <hyperlink ref="J21" r:id="rId17" display="https://www.semiee.com/file/TI/TI-INA180.pdf"/>
-    <hyperlink ref="J22" r:id="rId17" display="https://www.semiee.com/file/TI/TI-INA180.pdf"/>
-    <hyperlink ref="J23" r:id="rId18" display="https://www.semiee.com/file/FREQCHIP/FREQCHIP-FR8016HA.pdf"/>
-    <hyperlink ref="J24" r:id="rId19" display="https://www.semiee.com/file/Silan/Silan-SC7A20.pdf"/>
-    <hyperlink ref="J20" r:id="rId20" display="https://atta.szlcsc.com/upload/public/pdf/source/20211011/DD9DB39E30D67DDF115F79B4376A27FF.pdf"/>
-    <hyperlink ref="J19" r:id="rId21" display="https://www.semiee.com/file/SILERGY/SILERGY-SY9701ADPC.pdf"/>
+    <hyperlink ref="J9" r:id="rId8" display="https://www.richtek.com/assets/product_file/RT9193/DS9193-18.pdf"/>
+    <hyperlink ref="J11" r:id="rId9" display="https://www.semiee.com/file/WCH/WCH-CH224.pdf"/>
+    <hyperlink ref="J12" r:id="rId10" display="https://www.semiee.com/file/EOL2/Realtek-ALC5616-CGT.pdf"/>
+    <hyperlink ref="J13" r:id="rId11" display="https://www.semiee.com/file/TI/TI-TXB0108.pdf"/>
+    <hyperlink ref="J14" r:id="rId12" display="https://www.semiee.com/file/Hynetek/Hynetek-HUSB238.pdf"/>
+    <hyperlink ref="J15" r:id="rId13" display="https://www.semiee.com/file/TI/TI-LM358.pdf"/>
+    <hyperlink ref="J16" r:id="rId14" display="https://www.semiee.com/file/SouthChip/SouthChip-SC8906.pdf"/>
+    <hyperlink ref="J17" r:id="rId15" display="https://www.semiee.com/file/SGMICRO/SGMICRO-SGM40561.pdf"/>
+    <hyperlink ref="J20" r:id="rId16" display="https://www.semiee.com/file/TI/TI-INA180.pdf"/>
+    <hyperlink ref="J21" r:id="rId16" display="https://www.semiee.com/file/TI/TI-INA180.pdf"/>
+    <hyperlink ref="J22" r:id="rId17" display="https://www.semiee.com/file/FREQCHIP/FREQCHIP-FR8016HA.pdf"/>
+    <hyperlink ref="J23" r:id="rId18" display="https://www.semiee.com/file/Silan/Silan-SC7A20.pdf"/>
+    <hyperlink ref="J19" r:id="rId19" display="https://atta.szlcsc.com/upload/public/pdf/source/20211011/DD9DB39E30D67DDF115F79B4376A27FF.pdf"/>
+    <hyperlink ref="J18" r:id="rId20" display="https://www.semiee.com/file/SILERGY/SILERGY-SY9701ADPC.pdf"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4304,834 +4256,834 @@
     </row>
     <row r="2" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A2" s="16" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="I2" s="3">
         <v>0.23</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A3" s="16" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>222</v>
-      </c>
       <c r="D3" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="I3" s="3">
         <v>0.23</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A4" s="16" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="I4" s="3">
         <v>0.18</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A5" s="16" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I5" s="3">
         <v>0.18</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A6" s="16" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="I6" s="3">
         <v>0.23</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A7" s="16" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="I7" s="3">
         <v>0.23</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A8" s="16" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="I8" s="3">
         <v>0.18</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A9" s="16" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="I9" s="3">
         <v>0.18</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A10" s="16" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="I10" s="3">
         <v>0.23</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A11" s="16" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="I11" s="3">
         <v>0.23</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A12" s="16" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="I12" s="3">
         <v>0.18</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A13" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="I13" s="3">
         <v>0.18</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A14" s="16" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>72</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="I14" s="3">
         <v>0.14</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A15" s="16" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>72</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="I15" s="3">
         <v>0.14</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A16" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>275</v>
       </c>
       <c r="I16" s="3">
         <v>0.74</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A17" s="16" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="G17" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>280</v>
       </c>
       <c r="I17" s="3">
         <v>0.35</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A18" s="16" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="I18" s="3">
         <v>0.26</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A19" s="16" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="I19" s="3">
         <v>0.35</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A20" s="16" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="I20" s="3">
         <v>0.24</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A21" s="16" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="I21" s="3">
         <v>0.4</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A22" s="16" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="I22" s="3">
         <v>0.3</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A23" s="16" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="I23" s="3">
         <v>0.39</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A24" s="16" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F24" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>310</v>
       </c>
       <c r="I24" s="3">
         <v>0.39</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A25" s="16" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="I25" s="3">
         <v>0.41</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A26" s="16" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F26" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>314</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>320</v>
       </c>
       <c r="I26" s="3">
         <v>0.38</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="27" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A27" s="16" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="I27" s="3">
         <v>0.31</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -5187,7 +5139,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5238,352 +5190,352 @@
     </row>
     <row r="2" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A2" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>326</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>332</v>
       </c>
       <c r="I2" s="3">
         <v>0.23</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A3" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>334</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>340</v>
       </c>
       <c r="I3" s="3">
         <v>0.47</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>339</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>345</v>
       </c>
       <c r="I4" s="3">
         <v>0.47</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A5" s="3" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="I5" s="3">
         <v>0.47</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="I6" s="3">
         <v>0.42</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A7" s="3" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="I7" s="3">
         <v>0.42</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A8" s="3" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="I8" s="3">
         <v>0.04</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A9" s="3" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="I9" s="3">
         <v>0.47</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="I10" s="3">
         <v>0.53</v>
       </c>
-      <c r="J10" s="15" t="s">
-        <v>341</v>
+      <c r="J10" s="4" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="11" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A11" s="3" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="I11" s="3">
         <v>0.9</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" ht="28.5" spans="1:10">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="I13" s="3">
         <v>0.031</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -5611,7 +5563,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5662,421 +5614,424 @@
     </row>
     <row r="2" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A2" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>387</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>393</v>
       </c>
       <c r="I2" s="10">
         <v>0.002</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A3" s="10" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="G3" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>399</v>
-      </c>
       <c r="I3" s="10">
-        <v>0.1</v>
+        <v>0.002</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A4" s="10" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="I4" s="10">
         <v>0.002</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A5" s="10" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I5" s="10">
         <v>0.002</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A6" s="10" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="I6" s="10">
         <v>0.002</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A7" s="10" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="I7" s="10">
         <v>0.002</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="8" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A8" s="10" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="I8" s="10">
         <v>0.002</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="9" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A9" s="10" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="I9" s="10">
         <v>0.002</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="10" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A10" s="10" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="I10" s="10">
         <v>0.002</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="11" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A11" s="10" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="I11" s="10">
         <v>0.002</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A12" s="10" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="I12" s="10">
         <v>0.002</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="13" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A13" s="10" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="I13" s="10">
         <v>0.002</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="14" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A14" s="10" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>391</v>
+        <v>436</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="I14" s="10">
-        <v>0.002</v>
+        <v>0.1</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>394</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:J14">
+    <sortCondition ref="F2"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -6088,7 +6043,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6139,478 +6094,478 @@
     </row>
     <row r="2" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A2" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>446</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>452</v>
       </c>
       <c r="I2" s="10">
         <v>0.005</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A3" s="10"/>
       <c r="B3" s="10" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F3" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>456</v>
-      </c>
       <c r="H3" s="10" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="I3" s="10">
         <v>0.035</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="4" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="I4" s="10">
         <v>0.02</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="5" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A5" s="10" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="I5" s="10">
         <v>0.004</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A6" s="10" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="I6" s="12">
         <v>0.017</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="7" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A7" s="10" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="I7" s="10">
         <v>0.018</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A8" s="10" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="I8" s="10">
         <v>0.234</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="9" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A9" s="10" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F9" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>475</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>481</v>
       </c>
       <c r="I9" s="12">
         <v>0.02</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="10" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A10" s="10" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C10" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>478</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>479</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>484</v>
       </c>
       <c r="I10" s="12">
         <v>0.02</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A11" s="10" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="I11" s="12">
         <v>0.01</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="12" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A12" s="10" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="I12" s="12">
         <v>0.03</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="13" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A13" s="10" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="I13" s="12">
         <v>0.05</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="14" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A14" s="10" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="I14" s="12">
         <v>0.1</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="15" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A15" s="10" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="I15" s="10">
         <v>0.036</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="16" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A16" s="10" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="I16" s="12">
         <v>0.16</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="17" s="6" customFormat="1"/>
@@ -6681,162 +6636,162 @@
     </row>
     <row r="2" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="I2" s="3">
         <v>0.1</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="I3" s="3">
         <v>0.1</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="4" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>523</v>
-      </c>
       <c r="D4" s="7" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>517</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>523</v>
       </c>
       <c r="I4" s="3">
         <v>0.1</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="5" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A5" s="3" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="I5" s="3">
         <v>0.1</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="6" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="I6" s="3">
         <v>0.1</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -6912,31 +6867,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>538</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>544</v>
       </c>
       <c r="I2" s="3">
         <v>1.5</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="3" ht="33" spans="1:10">
@@ -6944,31 +6899,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="I3" s="3">
         <v>0.5</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -6986,7 +6941,7 @@
   <sheetPr/>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -7038,66 +6993,66 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A2" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>554</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>560</v>
       </c>
       <c r="I2" s="3">
         <v>0.34</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="I3" s="3">
         <v>0.22</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_CIS.xlsx
+++ b/Excel_CIS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12525"/>
+    <workbookView windowWidth="28800" windowHeight="12525" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DIODE" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="555">
   <si>
     <t>Part Number</t>
   </si>
@@ -72,7 +72,7 @@
     <t>MDD</t>
   </si>
   <si>
-    <t>https://www.microdiode.com/pdf/SS12-THRU-SS1200-SMAJ.pdf</t>
+    <t>https://atta.szlcsc.com/upload/public/pdf/source/20230712/2DB6064CFBB99DE6DB116BEE8208BE66.pdf</t>
   </si>
   <si>
     <t>D11</t>
@@ -87,7 +87,7 @@
     <t>SS34,B340A</t>
   </si>
   <si>
-    <t>https://www.microdiode.com/pdf/SS32-THRU-SS3200-SMAJ.pdf</t>
+    <t>https://atta.szlcsc.com/upload/public/pdf/source/20230314/A80AE34493C69B89E2F4B1712F433538.pdf</t>
   </si>
   <si>
     <t>D13</t>
@@ -108,16 +108,13 @@
     <t>SMAF</t>
   </si>
   <si>
-    <t>https://www.microdiode.com/pdf/SS12F-THRU-SS1200F.pdf</t>
-  </si>
-  <si>
     <t>D12</t>
   </si>
   <si>
     <t>SS34F</t>
   </si>
   <si>
-    <t>https://www.microdiode.com/pdf/SS32F-THRU-SS3200F.pdf</t>
+    <t>https://atta.szlcsc.com/upload/public/pdf/source/20230823/41447B26DA88EAF9F58A0BBD6B49E816.pdf</t>
   </si>
   <si>
     <t>D1</t>
@@ -408,7 +405,7 @@
     <t>USB转1个串口，5V、3.3V供电，无需外部晶振，波特率 50bps～2Mbps</t>
   </si>
   <si>
-    <t>ESSOP-10-EP</t>
+    <t>ESOP-10-EP</t>
   </si>
   <si>
     <t>南京沁恒</t>
@@ -438,7 +435,7 @@
     <t>ALC5616 是一款高性能、低功耗、立体声通道 I2S 接口音频编解码器，集成的DRC（动态范围控制器）和7段参数均衡器提供了音频播放路径的进一步数字声音处理能力。</t>
   </si>
   <si>
-    <t>QFN-32-EP-4x4</t>
+    <t>QFN33P40_400X400X80L30X20T280</t>
   </si>
   <si>
     <t>Realtek</t>
@@ -462,7 +459,7 @@
     <t>TXB0108</t>
   </si>
   <si>
-    <t>son-20_l4_0-w2_0-p0_40-bl</t>
+    <t>SON20P40_400X200X55L55X20</t>
   </si>
   <si>
     <t>https://www.semiee.com/file/TI/TI-TXB0108.pdf</t>
@@ -477,7 +474,7 @@
     <t>PD Sink,VBUS过压和欠压，过流保护,门限可配置,过温保护90℃/75℃,传输的额定功率可达100W。兼容PD3.0 V1.3和Type-C V1.4、BC1.2 DCP、CDP和SDP和Apple 5V2.4A充电协议。</t>
   </si>
   <si>
-    <t>DFN-3x3-10L</t>
+    <t>DFN-3X3-10L</t>
   </si>
   <si>
     <t>Hynetek</t>
@@ -504,7 +501,7 @@
     <t>LM358</t>
   </si>
   <si>
-    <t>vssop-8</t>
+    <t>SOP8P65_300X490X110L55X31</t>
   </si>
   <si>
     <t>https://www.semiee.com/file/TI/TI-LM358.pdf</t>
@@ -525,9 +522,6 @@
     <t>SC8906</t>
   </si>
   <si>
-    <t>qfn-21_l4_0-w4_0-p0_40-bl_sc8721qfer</t>
-  </si>
-  <si>
     <t>SouthChip</t>
   </si>
   <si>
@@ -543,7 +537,7 @@
     <t>4.55V至26.5V，单节锂电池充电，20-200mA充电电流，关断时1uA泄漏电流，-40_85℃</t>
   </si>
   <si>
-    <t>SON9P50_200X200X75L35X24T120X60</t>
+    <t>TDFN-2x2-8L</t>
   </si>
   <si>
     <t>SGMIRCO</t>
@@ -561,7 +555,7 @@
     <t>2.6V至5.5V输入，2.6V-3.8V输出，Back-Boost无缝升降压，1MHz，1.2A连续输出电流，内置热关断、短路保护</t>
   </si>
   <si>
-    <t>DFN3x3-14</t>
+    <t>DFN-3x3-14</t>
   </si>
   <si>
     <t>https://www.semiee.com/file/SILERGY/SILERGY-SY9701ADPC.pdf</t>
@@ -594,9 +588,6 @@
     <t>INA180A</t>
   </si>
   <si>
-    <t>SOT-23</t>
-  </si>
-  <si>
     <t>https://www.semiee.com/file/TI/TI-INA180.pdf</t>
   </si>
   <si>
@@ -621,9 +612,6 @@
     <t>低功耗蓝牙SOC,兼容蓝牙 V5.1（LE 模式）协议,内置的 ARM-CorteM3单片机,集成 DC-DC,LDO,充电管理,Audio,工作环境温度：-40°C ~ +105°C,QFN32封装</t>
   </si>
   <si>
-    <t>QFN33P40_400X400X80L30X20T280N</t>
-  </si>
-  <si>
     <t>Freqchip</t>
   </si>
   <si>
@@ -666,7 +654,7 @@
     <t>TVS-UNI</t>
   </si>
   <si>
-    <t>https://www.microdiode.com/pdf/SMAJ5.0-THRU-SMAJ440CA.pdf</t>
+    <t>https://atta.szlcsc.com/upload/public/pdf/source/20230314/4319D8044EE29783A53F6AC60595AA71.pdf</t>
   </si>
   <si>
     <t>S2</t>
@@ -693,7 +681,7 @@
     <t>SOD-123FL</t>
   </si>
   <si>
-    <t>https://www.microdiode.com/pdf/SMF5.0(C)A-THRU-SMF440(C)A.pdf</t>
+    <t>https://atta.szlcsc.com/upload/public/pdf/source/20230823/46DC63B2A09D9D06F4FC5ACC8B9FF97C.pdf</t>
   </si>
   <si>
     <t>S4</t>
@@ -996,7 +984,7 @@
     <t>L</t>
   </si>
   <si>
-    <t>IND252012</t>
+    <t>L252012</t>
   </si>
   <si>
     <t>Chilisin</t>
@@ -1092,7 +1080,7 @@
     <t>10uH±20%,Rdc=0.5Ω,Isat=5A,Irms=4A,-55℃~+105℃</t>
   </si>
   <si>
-    <t>L0805</t>
+    <t>L201208</t>
   </si>
   <si>
     <t>TAI-TECH(台庆)</t>
@@ -1116,21 +1104,6 @@
     <t>CKST0603-10uH/M</t>
   </si>
   <si>
-    <t>IN9</t>
-  </si>
-  <si>
-    <t>22uH 2.8A</t>
-  </si>
-  <si>
-    <t>22uH±20%,Rdc=0.130Ω,Isat=3.2A,Irms=2.4A,-40℃~+125℃</t>
-  </si>
-  <si>
-    <t>CKST0605</t>
-  </si>
-  <si>
-    <t>CKST0605-22uH/M</t>
-  </si>
-  <si>
     <t>IN10</t>
   </si>
   <si>
@@ -1546,6 +1519,9 @@
   </si>
   <si>
     <t>Vdsmax=-30V,Idmax=-4A,Vgs=±12V,Vgs(th)=-0.5~-1.3V,Ciss=645pF,Rds(on)&lt;85mΩ@Vgs=-2.5V</t>
+  </si>
+  <si>
+    <t>SOT23</t>
   </si>
   <si>
     <t>AOS</t>
@@ -2814,8 +2790,8 @@
   <sheetPr/>
   <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2957,7 +2933,7 @@
       <c r="I4" s="3">
         <v>0.22</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2990,18 +2966,18 @@
         <v>0.1</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" ht="39" customHeight="1" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>19</v>
@@ -3016,301 +2992,301 @@
         <v>15</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6" s="3">
         <v>0.3</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" ht="39" customHeight="1" spans="1:10">
       <c r="A7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="I7" s="3">
         <v>0.13</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" ht="39" customHeight="1" spans="1:10">
       <c r="A8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="I8" s="3">
         <v>0.2</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" ht="39" customHeight="1" spans="1:10">
       <c r="A9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="I9" s="3">
         <v>0.15</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" ht="39" customHeight="1" spans="1:10">
       <c r="A10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="E10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="I10" s="3">
         <v>0.11</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" ht="39" customHeight="1" spans="1:10">
       <c r="A11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="I11" s="3">
         <v>0.14</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" ht="39" customHeight="1" spans="1:10">
       <c r="A12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="I12" s="3">
         <v>0.18</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" ht="39" customHeight="1" spans="1:10">
       <c r="A13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="I13" s="3">
         <v>0.15</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" ht="39" customHeight="1" spans="1:10">
       <c r="A14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="I14" s="3">
         <v>0.2</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" ht="39" customHeight="1" spans="1:10">
       <c r="A15" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="I15" s="3">
         <v>0.26</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" customFormat="1"/>
@@ -3397,20 +3373,20 @@
     <sortCondition ref="F2"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="J6" r:id="rId1" display="https://www.microdiode.com/pdf/SS32F-THRU-SS3200F.pdf"/>
-    <hyperlink ref="J4" r:id="rId2" display="https://www.microdiode.com/pdf/SS32-THRU-SS3200-SMAJ.pdf"/>
+    <hyperlink ref="J6" r:id="rId1" display="https://atta.szlcsc.com/upload/public/pdf/source/20230823/41447B26DA88EAF9F58A0BBD6B49E816.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20230823/41447B26DA88EAF9F58A0BBD6B49E816.pdf"/>
+    <hyperlink ref="J4" r:id="rId2" display="https://atta.szlcsc.com/upload/public/pdf/source/20230314/A80AE34493C69B89E2F4B1712F433538.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20230314/A80AE34493C69B89E2F4B1712F433538.pdf"/>
     <hyperlink ref="J15" r:id="rId3" display="https://www.semiee.com/file/Nexperia/Nexperia-1PS79SB30.pdf"/>
-    <hyperlink ref="J3" r:id="rId2" display="https://www.microdiode.com/pdf/SS32-THRU-SS3200-SMAJ.pdf" tooltip="https://www.microdiode.com/pdf/SS32-THRU-SS3200-SMAJ.pdf"/>
-    <hyperlink ref="J5" r:id="rId4" display="https://www.microdiode.com/pdf/SS12F-THRU-SS1200F.pdf" tooltip="https://www.microdiode.com/pdf/SS12F-THRU-SS1200F.pdf"/>
-    <hyperlink ref="J2" r:id="rId5" display="https://www.microdiode.com/pdf/SS12-THRU-SS1200-SMAJ.pdf"/>
-    <hyperlink ref="J14" r:id="rId6" display="https://www.semiee.com/file/JSCJ/JSCJ-MMSZ5226B.pdf"/>
-    <hyperlink ref="J13" r:id="rId7" display="https://www.semiee.com/file/JSCJ/JSCJ-BZT52C3V3.pdf"/>
-    <hyperlink ref="J12" r:id="rId6" display="https://www.semiee.com/file/JSCJ/JSCJ-MMSZ5226B.pdf"/>
-    <hyperlink ref="J11" r:id="rId7" display="https://www.semiee.com/file/JSCJ/JSCJ-BZT52C3V3.pdf"/>
-    <hyperlink ref="J10" r:id="rId6" display="https://www.semiee.com/file/JSCJ/JSCJ-MMSZ5226B.pdf"/>
-    <hyperlink ref="J9" r:id="rId7" display="https://www.semiee.com/file/JSCJ/JSCJ-BZT52C3V3.pdf"/>
-    <hyperlink ref="J8" r:id="rId6" display="https://www.semiee.com/file/JSCJ/JSCJ-MMSZ5226B.pdf"/>
-    <hyperlink ref="J7" r:id="rId7" display="https://www.semiee.com/file/JSCJ/JSCJ-BZT52C3V3.pdf" tooltip="https://www.semiee.com/file/JSCJ/JSCJ-BZT52C3V3.pdf"/>
+    <hyperlink ref="J3" r:id="rId2" display="https://atta.szlcsc.com/upload/public/pdf/source/20230314/A80AE34493C69B89E2F4B1712F433538.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20230314/A80AE34493C69B89E2F4B1712F433538.pdf"/>
+    <hyperlink ref="J5" r:id="rId2" display="https://atta.szlcsc.com/upload/public/pdf/source/20230314/A80AE34493C69B89E2F4B1712F433538.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20230314/A80AE34493C69B89E2F4B1712F433538.pdf"/>
+    <hyperlink ref="J2" r:id="rId4" display="https://atta.szlcsc.com/upload/public/pdf/source/20230712/2DB6064CFBB99DE6DB116BEE8208BE66.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20230712/2DB6064CFBB99DE6DB116BEE8208BE66.pdf"/>
+    <hyperlink ref="J14" r:id="rId5" display="https://www.semiee.com/file/JSCJ/JSCJ-MMSZ5226B.pdf"/>
+    <hyperlink ref="J13" r:id="rId6" display="https://www.semiee.com/file/JSCJ/JSCJ-BZT52C3V3.pdf"/>
+    <hyperlink ref="J12" r:id="rId5" display="https://www.semiee.com/file/JSCJ/JSCJ-MMSZ5226B.pdf"/>
+    <hyperlink ref="J11" r:id="rId6" display="https://www.semiee.com/file/JSCJ/JSCJ-BZT52C3V3.pdf"/>
+    <hyperlink ref="J10" r:id="rId5" display="https://www.semiee.com/file/JSCJ/JSCJ-MMSZ5226B.pdf"/>
+    <hyperlink ref="J9" r:id="rId6" display="https://www.semiee.com/file/JSCJ/JSCJ-BZT52C3V3.pdf"/>
+    <hyperlink ref="J8" r:id="rId5" display="https://www.semiee.com/file/JSCJ/JSCJ-MMSZ5226B.pdf"/>
+    <hyperlink ref="J7" r:id="rId6" display="https://www.semiee.com/file/JSCJ/JSCJ-BZT52C3V3.pdf" tooltip="https://www.semiee.com/file/JSCJ/JSCJ-BZT52C3V3.pdf"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -3422,8 +3398,8 @@
   <sheetPr/>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3474,700 +3450,698 @@
     </row>
     <row r="2" s="6" customFormat="1" ht="49.5" spans="1:10">
       <c r="A2" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="E2" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>82</v>
-      </c>
       <c r="H2" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I2" s="10">
         <v>0.45</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" ht="49.5" spans="1:10">
       <c r="A3" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="E3" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>87</v>
-      </c>
       <c r="F3" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>82</v>
-      </c>
       <c r="H3" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I3" s="10">
         <v>1.15</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" s="6" customFormat="1" ht="33" spans="1:10">
       <c r="A4" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="E4" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>94</v>
-      </c>
       <c r="H4" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I4" s="10">
         <v>0.33</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" s="6" customFormat="1" ht="33" spans="1:10">
       <c r="A5" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="E5" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>99</v>
-      </c>
       <c r="F5" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I5" s="10">
         <v>1.1</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" s="6" customFormat="1" ht="33" spans="1:10">
       <c r="A6" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="D6" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="E6" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>104</v>
-      </c>
       <c r="F6" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I6" s="10">
         <v>0.57</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" s="6" customFormat="1" ht="33" spans="1:10">
       <c r="A7" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="E7" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>109</v>
-      </c>
       <c r="F7" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I7" s="10">
         <v>0.75</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" s="6" customFormat="1" ht="33" spans="1:10">
       <c r="A8" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="E8" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>114</v>
-      </c>
       <c r="F8" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>94</v>
-      </c>
       <c r="H8" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I8" s="10">
         <v>0.55</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" s="6" customFormat="1" ht="49.5" spans="1:10">
       <c r="A9" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="C9" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="D9" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="E9" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="F9" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="F9" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="G9" s="18" t="s">
+      <c r="H9" s="18" t="s">
         <v>121</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>122</v>
       </c>
       <c r="I9" s="18">
         <v>0.5</v>
       </c>
       <c r="J9" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" s="6" customFormat="1" ht="33" spans="1:10">
       <c r="A10" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="C10" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="D10" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="E10" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="E10" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="F10" s="18" t="s">
+      <c r="G10" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="G10" s="18" t="s">
-        <v>129</v>
-      </c>
       <c r="H10" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I10" s="18">
         <v>2.2</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" s="6" customFormat="1" ht="66" spans="1:10">
       <c r="A11" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="C11" s="18" t="s">
+      <c r="D11" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>133</v>
-      </c>
       <c r="E11" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F11" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="G11" s="18" t="s">
-        <v>129</v>
-      </c>
       <c r="H11" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I11" s="18">
         <v>1.2</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" s="6" customFormat="1" ht="49.5" spans="1:10">
       <c r="A12" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F12" s="18" t="s">
+      <c r="G12" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="H12" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="I12" s="18">
         <v>5.3</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" s="6" customFormat="1" ht="49.5" spans="1:10">
       <c r="A13" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="F13" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>146</v>
-      </c>
       <c r="G13" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I13" s="18">
         <v>1.95</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" s="6" customFormat="1" ht="49.5" spans="1:10">
       <c r="A14" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="I14" s="3">
         <v>3.2</v>
       </c>
       <c r="J14" s="21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" s="6" customFormat="1" ht="33" spans="1:10">
+      <c r="A15" s="10" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="15" s="6" customFormat="1" ht="16.5" spans="1:10">
-      <c r="A15" s="10" t="s">
+      <c r="B15" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="C15" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="D15" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="E15" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="F15" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="F15" s="18" t="s">
-        <v>160</v>
-      </c>
       <c r="G15" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I15" s="18">
         <v>0.6</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" s="6" customFormat="1" ht="49.5" spans="1:10">
       <c r="A16" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="C16" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="E16" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>168</v>
-      </c>
       <c r="H16" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I16" s="18">
         <v>5.1</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" s="6" customFormat="1" ht="33" spans="1:10">
       <c r="A17" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B17" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="E17" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="G17" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>175</v>
       </c>
       <c r="I17" s="18">
         <v>2</v>
       </c>
       <c r="J17" s="21" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" s="6" customFormat="1" ht="33" spans="1:10">
       <c r="A18" s="10"/>
       <c r="B18" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>179</v>
-      </c>
       <c r="G18" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I18" s="18"/>
       <c r="J18" s="23" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" s="6" customFormat="1" ht="33" spans="1:10">
       <c r="A19" s="10"/>
       <c r="B19" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>183</v>
-      </c>
       <c r="H19" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I19" s="18">
         <v>0.23</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" s="6" customFormat="1" ht="33" spans="1:10">
       <c r="A20" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="D20" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>189</v>
-      </c>
       <c r="F20" s="3" t="s">
-        <v>190</v>
+        <v>92</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I20" s="3">
         <v>0.8</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" s="6" customFormat="1" ht="33" spans="1:10">
       <c r="A21" s="10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F21" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="18" t="s">
         <v>190</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>193</v>
       </c>
       <c r="I21" s="3">
         <v>0.8</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" ht="49.5" spans="1:10">
       <c r="A22" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="E22" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="H22" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I22" s="3">
         <v>4.5</v>
       </c>
-      <c r="J22" s="22" t="s">
-        <v>201</v>
+      <c r="J22" s="21" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="23" ht="66" spans="1:10">
       <c r="A23" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="H23" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>207</v>
       </c>
       <c r="I23" s="3">
         <v>2.9</v>
       </c>
-      <c r="J23" s="22" t="s">
-        <v>208</v>
+      <c r="J23" s="21" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -4204,8 +4178,8 @@
   <sheetPr/>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="D9" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4256,19 +4230,19 @@
     </row>
     <row r="2" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A2" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>213</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>14</v>
@@ -4277,30 +4251,30 @@
         <v>15</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I2" s="3">
         <v>0.23</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A3" s="16" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>14</v>
@@ -4309,94 +4283,94 @@
         <v>15</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I3" s="3">
         <v>0.23</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A4" s="16" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="I4" s="3">
         <v>0.18</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A5" s="16" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>222</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I5" s="3">
         <v>0.18</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>223</v>
+      <c r="J5" s="4" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="6" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A6" s="16" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>14</v>
@@ -4405,30 +4379,30 @@
         <v>15</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="I6" s="3">
         <v>0.23</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>214</v>
+      <c r="J6" s="4" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="7" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A7" s="16" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>14</v>
@@ -4437,94 +4411,94 @@
         <v>15</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I7" s="3">
         <v>0.23</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>214</v>
+      <c r="J7" s="4" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="8" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A8" s="16" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="I8" s="3">
         <v>0.18</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>223</v>
+      <c r="J8" s="4" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="9" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A9" s="16" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>222</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="I9" s="3">
         <v>0.18</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>223</v>
+      <c r="J9" s="4" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="10" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A10" s="16" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>14</v>
@@ -4533,30 +4507,30 @@
         <v>15</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="I10" s="3">
         <v>0.23</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>214</v>
+      <c r="J10" s="4" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="11" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A11" s="16" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>14</v>
@@ -4565,525 +4539,525 @@
         <v>15</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I11" s="3">
         <v>0.23</v>
       </c>
-      <c r="J11" s="5" t="s">
-        <v>214</v>
+      <c r="J11" s="4" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="12" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A12" s="16" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="I12" s="3">
         <v>0.18</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>223</v>
+      <c r="J12" s="4" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="13" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A13" s="16" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E13" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>222</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="I13" s="3">
         <v>0.18</v>
       </c>
-      <c r="J13" s="5" t="s">
-        <v>223</v>
+      <c r="J13" s="4" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="14" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A14" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="F14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="I14" s="3">
         <v>0.14</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A15" s="16" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="I15" s="3">
         <v>0.14</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A16" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>269</v>
       </c>
       <c r="I16" s="3">
         <v>0.74</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A17" s="16" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>268</v>
-      </c>
       <c r="H17" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="I17" s="3">
         <v>0.35</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A18" s="16" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>268</v>
-      </c>
       <c r="H18" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="I18" s="3">
         <v>0.26</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A19" s="16" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>268</v>
-      </c>
       <c r="H19" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="I19" s="3">
         <v>0.35</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A20" s="16" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>268</v>
-      </c>
       <c r="H20" s="3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="I20" s="3">
         <v>0.24</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A21" s="16" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>268</v>
-      </c>
       <c r="H21" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I21" s="3">
         <v>0.4</v>
       </c>
-      <c r="J21" s="5" t="s">
-        <v>270</v>
+      <c r="J21" s="4" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="22" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A22" s="16" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>268</v>
-      </c>
       <c r="H22" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="I22" s="3">
         <v>0.3</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A23" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>295</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>299</v>
       </c>
       <c r="I23" s="3">
         <v>0.39</v>
       </c>
-      <c r="J23" s="5" t="s">
-        <v>300</v>
+      <c r="J23" s="4" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="24" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A24" s="16" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>268</v>
-      </c>
       <c r="H24" s="3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="I24" s="3">
         <v>0.39</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A25" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>305</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>309</v>
       </c>
       <c r="I25" s="3">
         <v>0.41</v>
       </c>
-      <c r="J25" s="5" t="s">
-        <v>310</v>
+      <c r="J25" s="4" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="26" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A26" s="16" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>268</v>
-      </c>
       <c r="H26" s="3" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="I26" s="3">
         <v>0.38</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A27" s="16" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>268</v>
-      </c>
       <c r="H27" s="3" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="I27" s="3">
         <v>0.31</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -5100,32 +5074,32 @@
     <hyperlink ref="G25" r:id="rId1" display="佰宏" tooltip="https://list.szlcsc.com/brand/12424.html"/>
     <hyperlink ref="G26" r:id="rId1" display="佰宏" tooltip="https://list.szlcsc.com/brand/12424.html"/>
     <hyperlink ref="G27" r:id="rId1" display="佰宏" tooltip="https://list.szlcsc.com/brand/12424.html"/>
-    <hyperlink ref="J2" r:id="rId2" display="https://www.microdiode.com/pdf/SMAJ5.0-THRU-SMAJ440CA.pdf" tooltip="https://www.microdiode.com/pdf/SMAJ5.0-THRU-SMAJ440CA.pdf"/>
-    <hyperlink ref="J4" r:id="rId3" display="https://www.microdiode.com/pdf/SMF5.0(C)A-THRU-SMF440(C)A.pdf" tooltip="https://www.microdiode.com/pdf/SMF5.0(C)A-THRU-SMF440(C)A.pdf"/>
-    <hyperlink ref="J9" r:id="rId3" display="https://www.microdiode.com/pdf/SMF5.0(C)A-THRU-SMF440(C)A.pdf" tooltip="https://www.microdiode.com/pdf/SMF5.0(C)A-THRU-SMF440(C)A.pdf"/>
-    <hyperlink ref="J7" r:id="rId2" display="https://www.microdiode.com/pdf/SMAJ5.0-THRU-SMAJ440CA.pdf" tooltip="https://www.microdiode.com/pdf/SMAJ5.0-THRU-SMAJ440CA.pdf"/>
-    <hyperlink ref="J3" r:id="rId2" display="https://www.microdiode.com/pdf/SMAJ5.0-THRU-SMAJ440CA.pdf" tooltip="https://www.microdiode.com/pdf/SMAJ5.0-THRU-SMAJ440CA.pdf"/>
-    <hyperlink ref="J5" r:id="rId3" display="https://www.microdiode.com/pdf/SMF5.0(C)A-THRU-SMF440(C)A.pdf" tooltip="https://www.microdiode.com/pdf/SMF5.0(C)A-THRU-SMF440(C)A.pdf"/>
-    <hyperlink ref="J6" r:id="rId2" display="https://www.microdiode.com/pdf/SMAJ5.0-THRU-SMAJ440CA.pdf" tooltip="https://www.microdiode.com/pdf/SMAJ5.0-THRU-SMAJ440CA.pdf"/>
-    <hyperlink ref="J8" r:id="rId3" display="https://www.microdiode.com/pdf/SMF5.0(C)A-THRU-SMF440(C)A.pdf" tooltip="https://www.microdiode.com/pdf/SMF5.0(C)A-THRU-SMF440(C)A.pdf"/>
-    <hyperlink ref="J10" r:id="rId2" display="https://www.microdiode.com/pdf/SMAJ5.0-THRU-SMAJ440CA.pdf" tooltip="https://www.microdiode.com/pdf/SMAJ5.0-THRU-SMAJ440CA.pdf"/>
-    <hyperlink ref="J11" r:id="rId2" display="https://www.microdiode.com/pdf/SMAJ5.0-THRU-SMAJ440CA.pdf" tooltip="https://www.microdiode.com/pdf/SMAJ5.0-THRU-SMAJ440CA.pdf"/>
-    <hyperlink ref="J12" r:id="rId3" display="https://www.microdiode.com/pdf/SMF5.0(C)A-THRU-SMF440(C)A.pdf" tooltip="https://www.microdiode.com/pdf/SMF5.0(C)A-THRU-SMF440(C)A.pdf"/>
-    <hyperlink ref="J13" r:id="rId3" display="https://www.microdiode.com/pdf/SMF5.0(C)A-THRU-SMF440(C)A.pdf" tooltip="https://www.microdiode.com/pdf/SMF5.0(C)A-THRU-SMF440(C)A.pdf"/>
-    <hyperlink ref="J14" r:id="rId4" display="https://www.semiee.com/file/JSCJ/JSCJ-CESD3V3D5.pdf" tooltip="https://www.semiee.com/file/JSCJ/JSCJ-CESD3V3D5.pdf"/>
-    <hyperlink ref="J27" r:id="rId5" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD0603-050-12V.pdf" tooltip="https://www.semiee.com/file/Source10/BHFUSE-BSMD0603-050-12V.pdf"/>
-    <hyperlink ref="J24" r:id="rId6" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD0805-100-12V.pdf" tooltip="https://www.semiee.com/file/Source10/BHFUSE-BSMD0805-100-12V.pdf"/>
-    <hyperlink ref="J22" r:id="rId7" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD1206-200-16V.pdf" tooltip="https://www.semiee.com/file/Source10/BHFUSE-BSMD1206-200-16V.pdf"/>
-    <hyperlink ref="J26" r:id="rId5" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD0603-050-12V.pdf"/>
-    <hyperlink ref="J25" r:id="rId5" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD0603-050-12V.pdf"/>
-    <hyperlink ref="J23" r:id="rId6" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD0805-100-12V.pdf"/>
-    <hyperlink ref="J21" r:id="rId7" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD1206-200-16V.pdf"/>
-    <hyperlink ref="J20" r:id="rId7" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD1206-200-16V.pdf"/>
-    <hyperlink ref="J19" r:id="rId7" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD1206-200-16V.pdf"/>
-    <hyperlink ref="J18" r:id="rId7" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD1206-200-16V.pdf"/>
-    <hyperlink ref="J17" r:id="rId7" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD1206-200-16V.pdf"/>
-    <hyperlink ref="J16" r:id="rId7" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD1206-200-16V.pdf"/>
-    <hyperlink ref="J15" r:id="rId8" display="https://www.semiee.com/file/JSCJ/JSCJ-CESD5V0D5.pdf"/>
+    <hyperlink ref="J4" r:id="rId2" display="https://atta.szlcsc.com/upload/public/pdf/source/20230823/46DC63B2A09D9D06F4FC5ACC8B9FF97C.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20230823/46DC63B2A09D9D06F4FC5ACC8B9FF97C.pdf"/>
+    <hyperlink ref="J14" r:id="rId3" display="https://www.semiee.com/file/JSCJ/JSCJ-CESD3V3D5.pdf" tooltip="https://www.semiee.com/file/JSCJ/JSCJ-CESD3V3D5.pdf"/>
+    <hyperlink ref="J27" r:id="rId4" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD0603-050-12V.pdf" tooltip="https://www.semiee.com/file/Source10/BHFUSE-BSMD0603-050-12V.pdf"/>
+    <hyperlink ref="J24" r:id="rId5" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD0805-100-12V.pdf" tooltip="https://www.semiee.com/file/Source10/BHFUSE-BSMD0805-100-12V.pdf"/>
+    <hyperlink ref="J22" r:id="rId6" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD1206-200-16V.pdf" tooltip="https://www.semiee.com/file/Source10/BHFUSE-BSMD1206-200-16V.pdf"/>
+    <hyperlink ref="J26" r:id="rId4" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD0603-050-12V.pdf"/>
+    <hyperlink ref="J25" r:id="rId4" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD0603-050-12V.pdf"/>
+    <hyperlink ref="J23" r:id="rId5" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD0805-100-12V.pdf"/>
+    <hyperlink ref="J21" r:id="rId6" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD1206-200-16V.pdf"/>
+    <hyperlink ref="J20" r:id="rId6" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD1206-200-16V.pdf"/>
+    <hyperlink ref="J19" r:id="rId6" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD1206-200-16V.pdf"/>
+    <hyperlink ref="J18" r:id="rId6" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD1206-200-16V.pdf"/>
+    <hyperlink ref="J17" r:id="rId6" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD1206-200-16V.pdf"/>
+    <hyperlink ref="J16" r:id="rId6" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD1206-200-16V.pdf"/>
+    <hyperlink ref="J15" r:id="rId7" display="https://www.semiee.com/file/JSCJ/JSCJ-CESD5V0D5.pdf"/>
+    <hyperlink ref="J5" r:id="rId2" display="https://atta.szlcsc.com/upload/public/pdf/source/20230823/46DC63B2A09D9D06F4FC5ACC8B9FF97C.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20230823/46DC63B2A09D9D06F4FC5ACC8B9FF97C.pdf"/>
+    <hyperlink ref="J8" r:id="rId2" display="https://atta.szlcsc.com/upload/public/pdf/source/20230823/46DC63B2A09D9D06F4FC5ACC8B9FF97C.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20230823/46DC63B2A09D9D06F4FC5ACC8B9FF97C.pdf"/>
+    <hyperlink ref="J9" r:id="rId2" display="https://atta.szlcsc.com/upload/public/pdf/source/20230823/46DC63B2A09D9D06F4FC5ACC8B9FF97C.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20230823/46DC63B2A09D9D06F4FC5ACC8B9FF97C.pdf"/>
+    <hyperlink ref="J12" r:id="rId2" display="https://atta.szlcsc.com/upload/public/pdf/source/20230823/46DC63B2A09D9D06F4FC5ACC8B9FF97C.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20230823/46DC63B2A09D9D06F4FC5ACC8B9FF97C.pdf"/>
+    <hyperlink ref="J2" r:id="rId8" display="https://atta.szlcsc.com/upload/public/pdf/source/20230314/4319D8044EE29783A53F6AC60595AA71.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20230314/4319D8044EE29783A53F6AC60595AA71.pdf"/>
+    <hyperlink ref="J13" r:id="rId2" display="https://atta.szlcsc.com/upload/public/pdf/source/20230823/46DC63B2A09D9D06F4FC5ACC8B9FF97C.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20230823/46DC63B2A09D9D06F4FC5ACC8B9FF97C.pdf"/>
+    <hyperlink ref="J3" r:id="rId8" display="https://atta.szlcsc.com/upload/public/pdf/source/20230314/4319D8044EE29783A53F6AC60595AA71.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20230314/4319D8044EE29783A53F6AC60595AA71.pdf"/>
+    <hyperlink ref="J6" r:id="rId8" display="https://atta.szlcsc.com/upload/public/pdf/source/20230314/4319D8044EE29783A53F6AC60595AA71.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20230314/4319D8044EE29783A53F6AC60595AA71.pdf"/>
+    <hyperlink ref="J7" r:id="rId8" display="https://atta.szlcsc.com/upload/public/pdf/source/20230314/4319D8044EE29783A53F6AC60595AA71.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20230314/4319D8044EE29783A53F6AC60595AA71.pdf"/>
+    <hyperlink ref="J10" r:id="rId8" display="https://atta.szlcsc.com/upload/public/pdf/source/20230314/4319D8044EE29783A53F6AC60595AA71.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20230314/4319D8044EE29783A53F6AC60595AA71.pdf"/>
+    <hyperlink ref="J11" r:id="rId8" display="https://atta.szlcsc.com/upload/public/pdf/source/20230314/4319D8044EE29783A53F6AC60595AA71.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20230314/4319D8044EE29783A53F6AC60595AA71.pdf"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5136,10 +5110,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5190,352 +5164,320 @@
     </row>
     <row r="2" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A2" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="H2" s="3" t="s">
         <v>322</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>326</v>
       </c>
       <c r="I2" s="3">
         <v>0.23</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A3" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>330</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>334</v>
       </c>
       <c r="I3" s="3">
         <v>0.47</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>333</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="I4" s="3">
         <v>0.47</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A5" s="3" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>333</v>
-      </c>
       <c r="H5" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="I5" s="3">
         <v>0.47</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A6" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>344</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>348</v>
       </c>
       <c r="I6" s="3">
         <v>0.42</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A7" s="3" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>333</v>
-      </c>
       <c r="H7" s="3" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I7" s="3">
         <v>0.42</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A8" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>354</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>358</v>
       </c>
       <c r="I8" s="3">
         <v>0.04</v>
       </c>
-      <c r="J8" s="15" t="s">
-        <v>359</v>
+      <c r="J8" s="4" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="9" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A9" s="3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>333</v>
-      </c>
       <c r="H9" s="3" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="I9" s="3">
         <v>0.47</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A10" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="I10" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" ht="28.5" spans="1:10">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="C12" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="D12" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="H10" s="3" t="s">
+      <c r="E12" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="I10" s="3">
-        <v>0.53</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="11" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
-      <c r="A11" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="I12" s="3">
+        <v>0.031</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>371</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="13" ht="28.5" spans="1:10">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0.031</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -5549,8 +5491,7 @@
     <hyperlink ref="J7" r:id="rId3" display="https://atta.szlcsc.com/upload/public/pdf/source/20220510/B48FE89972EB9627500571FF6CB43AFA.pdf"/>
     <hyperlink ref="J9" r:id="rId3" display="https://atta.szlcsc.com/upload/public/pdf/source/20220510/B48FE89972EB9627500571FF6CB43AFA.pdf"/>
     <hyperlink ref="J10" r:id="rId3" display="https://atta.szlcsc.com/upload/public/pdf/source/20220510/B48FE89972EB9627500571FF6CB43AFA.pdf"/>
-    <hyperlink ref="J11" r:id="rId3" display="https://atta.szlcsc.com/upload/public/pdf/source/20220510/B48FE89972EB9627500571FF6CB43AFA.pdf"/>
-    <hyperlink ref="J13" r:id="rId4" display="https://atta.szlcsc.com/upload/public/pdf/source/20210916/3C06D8971A361A4569490E57F6B8A429.pdf"/>
+    <hyperlink ref="J12" r:id="rId4" display="https://atta.szlcsc.com/upload/public/pdf/source/20210916/3C06D8971A361A4569490E57F6B8A429.pdf"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -5563,7 +5504,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5614,418 +5555,418 @@
     </row>
     <row r="2" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A2" s="10" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="I2" s="10">
         <v>0.002</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A3" s="10" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="I3" s="10">
         <v>0.002</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A4" s="10" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="I4" s="10">
         <v>0.002</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A5" s="10" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="I5" s="10">
         <v>0.002</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A6" s="10" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="I6" s="10">
         <v>0.002</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A7" s="10" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="I7" s="10">
         <v>0.002</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A8" s="10" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="I8" s="10">
         <v>0.002</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A9" s="10" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="I9" s="10">
         <v>0.002</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A10" s="10" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="I10" s="10">
         <v>0.002</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A11" s="10" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="I11" s="10">
         <v>0.002</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A12" s="10" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="I12" s="10">
         <v>0.002</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A13" s="10" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="I13" s="10">
         <v>0.002</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A14" s="10" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="I14" s="10">
         <v>0.1</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -6094,478 +6035,478 @@
     </row>
     <row r="2" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A2" s="10" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="I2" s="10">
         <v>0.005</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A3" s="10"/>
       <c r="B3" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>449</v>
-      </c>
       <c r="E3" s="10" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="I3" s="10">
         <v>0.035</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="I4" s="10">
         <v>0.02</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A5" s="10" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="I5" s="10">
         <v>0.004</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
     </row>
     <row r="6" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A6" s="10" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="I6" s="12">
         <v>0.017</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
     </row>
     <row r="7" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A7" s="10" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="I7" s="10">
         <v>0.018</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
     </row>
     <row r="8" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A8" s="10" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="I8" s="10">
         <v>0.234</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
     </row>
     <row r="9" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A9" s="10" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="I9" s="12">
         <v>0.02</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
     </row>
     <row r="10" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A10" s="10" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="I10" s="12">
         <v>0.02</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
     </row>
     <row r="11" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A11" s="10" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="I11" s="12">
         <v>0.01</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
     </row>
     <row r="12" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A12" s="10" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="I12" s="12">
         <v>0.03</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
     </row>
     <row r="13" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A13" s="10" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="I13" s="12">
         <v>0.05</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
     </row>
     <row r="14" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A14" s="10" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="I14" s="12">
         <v>0.1</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
     </row>
     <row r="15" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A15" s="10" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="I15" s="10">
         <v>0.036</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
     </row>
     <row r="16" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A16" s="10" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="I16" s="12">
         <v>0.16</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
     </row>
     <row r="17" s="6" customFormat="1"/>
@@ -6585,7 +6526,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J2"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
@@ -6636,162 +6577,162 @@
     </row>
     <row r="2" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>190</v>
+        <v>499</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="I2" s="3">
         <v>0.1</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>190</v>
+        <v>499</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="I3" s="3">
         <v>0.1</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
     </row>
     <row r="4" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>190</v>
+        <v>499</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="I4" s="3">
         <v>0.1</v>
       </c>
-      <c r="J4" s="9" t="s">
-        <v>519</v>
+      <c r="J4" s="8" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="5" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A5" s="3" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>190</v>
+        <v>499</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="I5" s="3">
         <v>0.1</v>
       </c>
-      <c r="J5" s="9" t="s">
-        <v>525</v>
+      <c r="J5" s="8" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="6" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>190</v>
+        <v>499</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="I6" s="3">
         <v>0.1</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
     </row>
   </sheetData>
@@ -6813,7 +6754,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
@@ -6867,31 +6808,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="I2" s="3">
         <v>1.5</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
     </row>
     <row r="3" ht="33" spans="1:10">
@@ -6899,31 +6840,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>540</v>
-      </c>
       <c r="D3" s="7" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="I3" s="3">
         <v>0.5</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>546</v>
+      <c r="J3" s="8" t="s">
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -6993,66 +6934,66 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="I2" s="3">
         <v>0.34</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>553</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>561</v>
       </c>
       <c r="I3" s="3">
         <v>0.22</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_CIS.xlsx
+++ b/Excel_CIS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12525" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12525" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="DIODE" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="562">
   <si>
     <t>Part Number</t>
   </si>
@@ -54,171 +54,171 @@
     <t>Datasheet</t>
   </si>
   <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>SCHOTTKY</t>
+  </si>
+  <si>
+    <t>SS14</t>
+  </si>
+  <si>
+    <t>VRRM=40V,I(AV)=1.0A,IFSM=30A,VF=0.55V@3A,IR(TA25-125℃)=0.5-10mA，Cj=110pF</t>
+  </si>
+  <si>
+    <t>SMA</t>
+  </si>
+  <si>
+    <t>MDD</t>
+  </si>
+  <si>
+    <t>https://atta.szlcsc.com/upload/public/pdf/source/20230712/2DB6064CFBB99DE6DB116BEE8208BE66.pdf</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>SS34</t>
+  </si>
+  <si>
+    <t>VRRM=40V,I(AV)=3.0A,IFSM=100A,VF=0.55V@3A,IR(TA25-125℃)=0.5-20mA，Cj=500pF</t>
+  </si>
+  <si>
+    <t>SS34,B340A</t>
+  </si>
+  <si>
+    <t>https://atta.szlcsc.com/upload/public/pdf/source/20230314/A80AE34493C69B89E2F4B1712F433538.pdf</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>SS36</t>
+  </si>
+  <si>
+    <t>VRRM=60V,I(AV)=3.0A,IFSM=100A,VF=0.7V@3A,IR(TA25-125℃)=0.5-20mA，Cj=300pF</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>SS14F</t>
+  </si>
+  <si>
+    <t>SMAF</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>SS34F</t>
+  </si>
+  <si>
+    <t>https://atta.szlcsc.com/upload/public/pdf/source/20230823/41447B26DA88EAF9F58A0BBD6B49E816.pdf</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>ZENER</t>
+  </si>
+  <si>
+    <t>3.3V 5mA 350mW</t>
+  </si>
+  <si>
+    <t>3.3V±0.2V @ 5mA，Izk = 1mA，Ir@Vr(1V)=5uA,TypeCode:W3</t>
+  </si>
+  <si>
+    <t>SOD-123</t>
+  </si>
+  <si>
+    <t>长晶</t>
+  </si>
+  <si>
+    <t>BZT52C3V3</t>
+  </si>
+  <si>
+    <t>https://www.semiee.com/file/JSCJ/JSCJ-BZT52C3V3.pdf</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>3.3V 20mA 350mW</t>
+  </si>
+  <si>
+    <t>3.3V±0.17V @ 20mA，Izk = 0.25mA，Ir@Vr(1V)=25uA,TypeCode:G1</t>
+  </si>
+  <si>
+    <t>MMSZ5226B</t>
+  </si>
+  <si>
+    <t>https://www.semiee.com/file/JSCJ/JSCJ-MMSZ5226B.pdf</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>5.1V 5mA 350mW</t>
+  </si>
+  <si>
+    <t>5.1V±0.3V @ 5mA，Izk = 1mA，Ir@Vr(2V)=2uA,TypeCode:W8</t>
+  </si>
+  <si>
+    <t>BZT52C5V1</t>
+  </si>
+  <si>
     <t>D9</t>
   </si>
   <si>
-    <t>SCHOTTKY</t>
-  </si>
-  <si>
-    <t>SS14</t>
-  </si>
-  <si>
-    <t>VRRM=40V,I(AV)=1.0A,IFSM=30A,VF=0.55V@3A,IR(TA25-125℃)=0.5-10mA，Cj=110pF</t>
-  </si>
-  <si>
-    <t>SMA</t>
-  </si>
-  <si>
-    <t>MDD</t>
-  </si>
-  <si>
-    <t>https://atta.szlcsc.com/upload/public/pdf/source/20230712/2DB6064CFBB99DE6DB116BEE8208BE66.pdf</t>
+    <t>5.1V 20mA 350mW</t>
+  </si>
+  <si>
+    <t>5.1V±0.26V @ 20mA，Izk = 0.25mA，Ir@Vr(2V)=5uA,TypeCode:E1</t>
+  </si>
+  <si>
+    <t>MMSZ5231B</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>9.1V 5mA 350mW</t>
+  </si>
+  <si>
+    <t>9.1V±0.6V @ 5mA，Izk = 1mA，Ir@Vr(6V)=0.5uA,TypeCode:WE</t>
+  </si>
+  <si>
+    <t>BZT52C9V1</t>
   </si>
   <si>
     <t>D11</t>
   </si>
   <si>
-    <t>SS34</t>
-  </si>
-  <si>
-    <t>VRRM=40V,I(AV)=3.0A,IFSM=100A,VF=0.55V@3A,IR(TA25-125℃)=0.5-20mA，Cj=500pF</t>
-  </si>
-  <si>
-    <t>SS34,B340A</t>
-  </si>
-  <si>
-    <t>https://atta.szlcsc.com/upload/public/pdf/source/20230314/A80AE34493C69B89E2F4B1712F433538.pdf</t>
+    <t>9.1V 20mA 350mW</t>
+  </si>
+  <si>
+    <t>9.1V±0.46V @ 20mA，Izk = 0.25mA，Ir@Vr(8V)=3uA,TypeCode:F4</t>
+  </si>
+  <si>
+    <t>MMSZ5239B</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>12V 5mA 350mW</t>
+  </si>
+  <si>
+    <t>12V±0.7V @ 5mA，Izk = 1mA，Ir@Vr(8V)=0.1uA,TypeCode:WH</t>
+  </si>
+  <si>
+    <t>BZT52C12</t>
   </si>
   <si>
     <t>D13</t>
   </si>
   <si>
-    <t>SS36</t>
-  </si>
-  <si>
-    <t>VRRM=60V,I(AV)=3.0A,IFSM=100A,VF=0.7V@3A,IR(TA25-125℃)=0.5-20mA，Cj=300pF</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>SS14F</t>
-  </si>
-  <si>
-    <t>SMAF</t>
-  </si>
-  <si>
-    <t>D12</t>
-  </si>
-  <si>
-    <t>SS34F</t>
-  </si>
-  <si>
-    <t>https://atta.szlcsc.com/upload/public/pdf/source/20230823/41447B26DA88EAF9F58A0BBD6B49E816.pdf</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>ZENER</t>
-  </si>
-  <si>
-    <t>3.3V 5mA 350mW</t>
-  </si>
-  <si>
-    <t>3.3V±0.2V @ 5mA，Izk = 1mA，Ir@Vr(1V)=5uA,TypeCode:W3</t>
-  </si>
-  <si>
-    <t>SOD-123</t>
-  </si>
-  <si>
-    <t>长晶</t>
-  </si>
-  <si>
-    <t>BZT52C3V3</t>
-  </si>
-  <si>
-    <t>https://www.semiee.com/file/JSCJ/JSCJ-BZT52C3V3.pdf</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>3.3V 20mA 350mW</t>
-  </si>
-  <si>
-    <t>3.3V±0.17V @ 20mA，Izk = 0.25mA，Ir@Vr(1V)=25uA,TypeCode:G1</t>
-  </si>
-  <si>
-    <t>MMSZ5226B</t>
-  </si>
-  <si>
-    <t>https://www.semiee.com/file/JSCJ/JSCJ-MMSZ5226B.pdf</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>5.1V 5mA 350mW</t>
-  </si>
-  <si>
-    <t>5.1V±0.3V @ 5mA，Izk = 1mA，Ir@Vr(2V)=2uA,TypeCode:W8</t>
-  </si>
-  <si>
-    <t>BZT52C5V1</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>5.1V 20mA 350mW</t>
-  </si>
-  <si>
-    <t>5.1V±0.26V @ 20mA，Izk = 0.25mA，Ir@Vr(2V)=5uA,TypeCode:E1</t>
-  </si>
-  <si>
-    <t>MMSZ5231B</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>9.1V 5mA 350mW</t>
-  </si>
-  <si>
-    <t>9.1V±0.6V @ 5mA，Izk = 1mA，Ir@Vr(6V)=0.5uA,TypeCode:WE</t>
-  </si>
-  <si>
-    <t>BZT52C9V1</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>9.1V 20mA 350mW</t>
-  </si>
-  <si>
-    <t>9.1V±0.46V @ 20mA，Izk = 0.25mA，Ir@Vr(8V)=3uA,TypeCode:F4</t>
-  </si>
-  <si>
-    <t>MMSZ5239B</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>12V 5mA 350mW</t>
-  </si>
-  <si>
-    <t>12V±0.7V @ 5mA，Izk = 1mA，Ir@Vr(8V)=0.1uA,TypeCode:WH</t>
-  </si>
-  <si>
-    <t>BZT52C12</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
     <t>12V 20mA 350mW</t>
   </si>
   <si>
@@ -369,258 +369,264 @@
     <t>https://www.semiee.com/file/Source10/silergy-SY8089AAAC.pdf</t>
   </si>
   <si>
+    <t>IC8</t>
+  </si>
+  <si>
+    <t>LDO</t>
+  </si>
+  <si>
+    <t>RT9193-1.8</t>
+  </si>
+  <si>
+    <t>低压超低噪声差线性稳压器,2.5-5.5Vin,Vdrop=0.22V@0.3A, 带使能引脚，过热保护，限流保护，停机模式时&lt;0.01μA 待机电流，-40_120℃</t>
+  </si>
+  <si>
+    <t>RT9193</t>
+  </si>
+  <si>
+    <t>Richtek</t>
+  </si>
+  <si>
+    <t>RT9193-18GB</t>
+  </si>
+  <si>
+    <t>https://www.richtek.com/assets/product_file/RT9193/DS9193-18.pdf</t>
+  </si>
+  <si>
+    <t>IC9</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>CH340K</t>
+  </si>
+  <si>
+    <t>USB转1个串口，5V、3.3V供电，无需外部晶振，波特率 50bps～2Mbps</t>
+  </si>
+  <si>
+    <t>ESOP-10-EP</t>
+  </si>
+  <si>
+    <t>南京沁恒</t>
+  </si>
+  <si>
+    <t>D:\Cadence_LIB\Datasheet\USB转串口芯片CH340.pdf</t>
+  </si>
+  <si>
+    <t>IC10</t>
+  </si>
+  <si>
+    <t>CH224K</t>
+  </si>
+  <si>
+    <t>4V至22V 输入电压,支持 PD3.0/2.0，BC1.2等快充协议,支持 USB Type-C PD，支持正反插检测与自动切换,支持 E-Mark 模拟，自动检测 VCONN，支持 100W 功率的 PD 请求,内置过压保护模块OVA、超温保护模块OTA</t>
+  </si>
+  <si>
+    <t>https://www.semiee.com/file/WCH/WCH-CH224.pdf</t>
+  </si>
+  <si>
     <t>IC11</t>
   </si>
   <si>
-    <t>LDO</t>
-  </si>
-  <si>
-    <t>RT9193-1.8</t>
-  </si>
-  <si>
-    <t>低压超低噪声差线性稳压器,2.5-5.5Vin,Vdrop=0.22V@0.3A, 带使能引脚，过热保护，限流保护，停机模式时&lt;0.01μA 待机电流，-40_120℃</t>
-  </si>
-  <si>
-    <t>RT9193</t>
-  </si>
-  <si>
-    <t>Richtek</t>
-  </si>
-  <si>
-    <t>RT9193-18GB</t>
-  </si>
-  <si>
-    <t>https://www.richtek.com/assets/product_file/RT9193/DS9193-18.pdf</t>
+    <t>ALC5616</t>
+  </si>
+  <si>
+    <t>ALC5616 是一款高性能、低功耗、立体声通道 I2S 接口音频编解码器，集成的DRC（动态范围控制器）和7段参数均衡器提供了音频播放路径的进一步数字声音处理能力。</t>
+  </si>
+  <si>
+    <t>QFN33P40_400X400X80L30X20T280</t>
+  </si>
+  <si>
+    <t>Realtek</t>
+  </si>
+  <si>
+    <t>ALC5616-CG</t>
+  </si>
+  <si>
+    <t>https://www.semiee.com/file/EOL2/Realtek-ALC5616-CGT.pdf</t>
   </si>
   <si>
     <t>IC12</t>
   </si>
   <si>
-    <t>Interface</t>
-  </si>
-  <si>
-    <t>CH340K</t>
-  </si>
-  <si>
-    <t>USB转1个串口，5V、3.3V供电，无需外部晶振，波特率 50bps～2Mbps</t>
-  </si>
-  <si>
-    <t>ESOP-10-EP</t>
-  </si>
-  <si>
-    <t>南京沁恒</t>
-  </si>
-  <si>
-    <t>D:\Cadence_LIB\Datasheet\USB转串口芯片CH340.pdf</t>
+    <t>TXB0108DQS</t>
+  </si>
+  <si>
+    <t>A端口1.2V至3.6V、B端口1.65V至5.5V(VCCA≤VCCB)，以VCCA为基准的输出使能(OE)输入电路，低功耗，最大ICC为4µA，闩锁性能超出100mA</t>
+  </si>
+  <si>
+    <t>TXB0108</t>
+  </si>
+  <si>
+    <t>SON20P40_400X200X55L55X20</t>
+  </si>
+  <si>
+    <t>https://www.semiee.com/file/TI/TI-TXB0108.pdf</t>
   </si>
   <si>
     <t>IC13</t>
   </si>
   <si>
-    <t>CH224K</t>
-  </si>
-  <si>
-    <t>4V至22V 输入电压,支持 PD3.0/2.0，BC1.2等快充协议,支持 USB Type-C PD，支持正反插检测与自动切换,支持 E-Mark 模拟，自动检测 VCONN，支持 100W 功率的 PD 请求,内置过压保护模块OVA、超温保护模块OTA</t>
-  </si>
-  <si>
-    <t>https://www.semiee.com/file/WCH/WCH-CH224.pdf</t>
+    <t>HUSB238</t>
+  </si>
+  <si>
+    <t>PD Sink,VBUS过压和欠压，过流保护,门限可配置,过温保护90℃/75℃,传输的额定功率可达100W。兼容PD3.0 V1.3和Type-C V1.4、BC1.2 DCP、CDP和SDP和Apple 5V2.4A充电协议。</t>
+  </si>
+  <si>
+    <t>DFN-3X3-10L</t>
+  </si>
+  <si>
+    <t>Hynetek</t>
+  </si>
+  <si>
+    <t>HUSB238_003DD</t>
+  </si>
+  <si>
+    <t>https://www.semiee.com/file/Hynetek/Hynetek-HUSB238.pdf</t>
   </si>
   <si>
     <t>IC14</t>
   </si>
   <si>
-    <t>ALC5616</t>
-  </si>
-  <si>
-    <t>ALC5616 是一款高性能、低功耗、立体声通道 I2S 接口音频编解码器，集成的DRC（动态范围控制器）和7段参数均衡器提供了音频播放路径的进一步数字声音处理能力。</t>
-  </si>
-  <si>
-    <t>QFN33P40_400X400X80L30X20T280</t>
-  </si>
-  <si>
-    <t>Realtek</t>
-  </si>
-  <si>
-    <t>ALC5616-CG</t>
-  </si>
-  <si>
-    <t>https://www.semiee.com/file/EOL2/Realtek-ALC5616-CGT.pdf</t>
+    <t>OPA</t>
+  </si>
+  <si>
+    <t>LM358DGKR</t>
+  </si>
+  <si>
+    <t>双路, 36V, 1.2MHz, 3mV失调电压，-40_85°C</t>
+  </si>
+  <si>
+    <t>LM358</t>
+  </si>
+  <si>
+    <t>SOP8P65_300X490X110L55X31</t>
+  </si>
+  <si>
+    <t>https://www.semiee.com/file/TI/TI-LM358.pdf</t>
   </si>
   <si>
     <t>IC15</t>
   </si>
   <si>
-    <t>TXB0108DQS</t>
-  </si>
-  <si>
-    <t>A端口1.2V至3.6V、B端口1.65V至5.5V(VCCA≤VCCB)，以VCCA为基准的输出使能(OE)输入电路，低功耗，最大ICC为4µA，闩锁性能超出100mA</t>
-  </si>
-  <si>
-    <t>TXB0108</t>
-  </si>
-  <si>
-    <t>SON20P40_400X200X55L55X20</t>
-  </si>
-  <si>
-    <t>https://www.semiee.com/file/TI/TI-TXB0108.pdf</t>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>SC8906QFER</t>
+  </si>
+  <si>
+    <t>2.7V至22V，支持DP/DM快充协议， 2节至4节Buck-Boost充电，包括涓流充电、恒流充电、恒压充电和充电截止功能，欠压/过压保护，过流保护，短路保护，热关断</t>
+  </si>
+  <si>
+    <t>SC8906</t>
+  </si>
+  <si>
+    <t>SouthChip</t>
+  </si>
+  <si>
+    <t>https://www.semiee.com/file/SouthChip/SouthChip-SC8906.pdf</t>
   </si>
   <si>
     <t>IC16</t>
   </si>
   <si>
-    <t>HUSB238</t>
-  </si>
-  <si>
-    <t>PD Sink,VBUS过压和欠压，过流保护,门限可配置,过温保护90℃/75℃,传输的额定功率可达100W。兼容PD3.0 V1.3和Type-C V1.4、BC1.2 DCP、CDP和SDP和Apple 5V2.4A充电协议。</t>
-  </si>
-  <si>
-    <t>DFN-3X3-10L</t>
-  </si>
-  <si>
-    <t>Hynetek</t>
-  </si>
-  <si>
-    <t>HUSB238_003DD</t>
-  </si>
-  <si>
-    <t>https://www.semiee.com/file/Hynetek/Hynetek-HUSB238.pdf</t>
+    <t>SGM40561</t>
+  </si>
+  <si>
+    <t>4.55V至26.5V，单节锂电池充电，20-200mA充电电流，关断时1uA泄漏电流，-40_85℃</t>
+  </si>
+  <si>
+    <t>TDFN-2x2-8L</t>
+  </si>
+  <si>
+    <t>SGMIRCO</t>
+  </si>
+  <si>
+    <t>SGM40561-4.2</t>
+  </si>
+  <si>
+    <t>https://www.semiee.com/file/SGMICRO/SGMICRO-SGM40561.pdf</t>
   </si>
   <si>
     <t>IC17</t>
   </si>
   <si>
-    <t>OPA</t>
-  </si>
-  <si>
-    <t>LM358DGKR</t>
-  </si>
-  <si>
-    <t>双路, 36V, 1.2MHz, 3mV失调电压，-40_85°C</t>
-  </si>
-  <si>
-    <t>LM358</t>
-  </si>
-  <si>
-    <t>SOP8P65_300X490X110L55X31</t>
-  </si>
-  <si>
-    <t>https://www.semiee.com/file/TI/TI-LM358.pdf</t>
+    <t>SY9701ADPC</t>
+  </si>
+  <si>
+    <t>2.6V至5.5V输入，2.6V-3.8V输出，Back-Boost无缝升降压，1MHz，1.2A连续输出电流，内置热关断、短路保护</t>
+  </si>
+  <si>
+    <t>DFN-3x3-14</t>
+  </si>
+  <si>
+    <t>https://www.semiee.com/file/SILERGY/SILERGY-SY9701ADPC.pdf</t>
   </si>
   <si>
     <t>IC18</t>
   </si>
   <si>
-    <t>Charge</t>
-  </si>
-  <si>
-    <t>SC8906QFER</t>
-  </si>
-  <si>
-    <t>2.7V至22V，支持DP/DM快充协议， 2节至4节Buck-Boost充电，包括涓流充电、恒流充电、恒压充电和充电截止功能，欠压/过压保护，过流保护，短路保护，热关断</t>
-  </si>
-  <si>
-    <t>SC8906</t>
-  </si>
-  <si>
-    <t>SouthChip</t>
-  </si>
-  <si>
-    <t>https://www.semiee.com/file/SouthChip/SouthChip-SC8906.pdf</t>
+    <t>TP4054</t>
+  </si>
+  <si>
+    <t>单节锂电池恒流恒压线性管理芯片，充电电流可达500mA，输入电压范围4.2V至6.5V</t>
+  </si>
+  <si>
+    <t>UMW</t>
+  </si>
+  <si>
+    <t>https://atta.szlcsc.com/upload/public/pdf/source/20211011/DD9DB39E30D67DDF115F79B4376A27FF.pdf</t>
   </si>
   <si>
     <t>IC19</t>
   </si>
   <si>
-    <t>SGM40561</t>
-  </si>
-  <si>
-    <t>4.55V至26.5V，单节锂电池充电，20-200mA充电电流，关断时1uA泄漏电流，-40_85℃</t>
-  </si>
-  <si>
-    <t>TDFN-2x2-8L</t>
-  </si>
-  <si>
-    <t>SGMIRCO</t>
-  </si>
-  <si>
-    <t>SGM40561-4.2</t>
-  </si>
-  <si>
-    <t>https://www.semiee.com/file/SGMICRO/SGMICRO-SGM40561.pdf</t>
-  </si>
-  <si>
-    <t>SY9701ADPC</t>
-  </si>
-  <si>
-    <t>2.6V至5.5V输入，2.6V-3.8V输出，Back-Boost无缝升降压，1MHz，1.2A连续输出电流，内置热关断、短路保护</t>
-  </si>
-  <si>
-    <t>DFN-3x3-14</t>
-  </si>
-  <si>
-    <t>https://www.semiee.com/file/SILERGY/SILERGY-SY9701ADPC.pdf</t>
-  </si>
-  <si>
-    <t>TP4054</t>
-  </si>
-  <si>
-    <t>单节锂电池恒流恒压线性管理芯片，充电电流可达500mA，输入电压范围4.2V至6.5V</t>
-  </si>
-  <si>
-    <t>UMW</t>
-  </si>
-  <si>
-    <t>https://atta.szlcsc.com/upload/public/pdf/source/20211011/DD9DB39E30D67DDF115F79B4376A27FF.pdf</t>
+    <t>I-Sensing</t>
+  </si>
+  <si>
+    <t>INA180A1</t>
+  </si>
+  <si>
+    <t>电流检测放大器,Vcm=26V,Vs=2.7-5V,Gain=20,单通道消耗的最大电流为260µA</t>
+  </si>
+  <si>
+    <t>INA180A</t>
+  </si>
+  <si>
+    <t>https://www.semiee.com/file/TI/TI-INA180.pdf</t>
   </si>
   <si>
     <t>IC20</t>
   </si>
   <si>
-    <t>I-Sensing</t>
-  </si>
-  <si>
-    <t>INA180A1</t>
-  </si>
-  <si>
-    <t>电流检测放大器,Vcm=26V,Vs=2.7-5V,Gain=20,单通道消耗的最大电流为260µA</t>
-  </si>
-  <si>
-    <t>INA180A</t>
-  </si>
-  <si>
-    <t>https://www.semiee.com/file/TI/TI-INA180.pdf</t>
+    <t>INA180A2</t>
+  </si>
+  <si>
+    <t>电流检测放大器,Vcm=26V,Vs=2.7-5V,Gain=50,单通道消耗的最大电流为260µA</t>
   </si>
   <si>
     <t>IC21</t>
   </si>
   <si>
-    <t>INA180A2</t>
-  </si>
-  <si>
-    <t>电流检测放大器,Vcm=26V,Vs=2.7-5V,Gain=50,单通道消耗的最大电流为260µA</t>
+    <t>IC</t>
+  </si>
+  <si>
+    <t>FR8016HA</t>
+  </si>
+  <si>
+    <t>低功耗蓝牙SOC,兼容蓝牙 V5.1（LE 模式）协议,内置的 ARM-CorteM3单片机,集成 DC-DC,LDO,充电管理,Audio,工作环境温度：-40°C ~ +105°C,QFN32封装</t>
+  </si>
+  <si>
+    <t>Freqchip</t>
+  </si>
+  <si>
+    <t>https://www.semiee.com/file/FREQCHIP/FREQCHIP-FR8016HA.pdf</t>
   </si>
   <si>
     <t>IC22</t>
   </si>
   <si>
-    <t>IC</t>
-  </si>
-  <si>
-    <t>FR8016HA</t>
-  </si>
-  <si>
-    <t>低功耗蓝牙SOC,兼容蓝牙 V5.1（LE 模式）协议,内置的 ARM-CorteM3单片机,集成 DC-DC,LDO,充电管理,Audio,工作环境温度：-40°C ~ +105°C,QFN32封装</t>
-  </si>
-  <si>
-    <t>Freqchip</t>
-  </si>
-  <si>
-    <t>https://www.semiee.com/file/FREQCHIP/FREQCHIP-FR8016HA.pdf</t>
-  </si>
-  <si>
-    <t>IC23</t>
-  </si>
-  <si>
     <t>SC7A20</t>
   </si>
   <si>
@@ -1104,21 +1110,24 @@
     <t>CKST0603-10uH/M</t>
   </si>
   <si>
+    <t>IN9</t>
+  </si>
+  <si>
+    <t>22uH 5.0A</t>
+  </si>
+  <si>
+    <t>22uH±20%,Rdc=0.066Ω,Isat=5.5A,Irms=5.0A,-40℃~+125℃</t>
+  </si>
+  <si>
+    <t>CKST1004</t>
+  </si>
+  <si>
+    <t>CKST1004-22uH/M</t>
+  </si>
+  <si>
     <t>IN10</t>
   </si>
   <si>
-    <t>22uH 5.0A</t>
-  </si>
-  <si>
-    <t>22uH±20%,Rdc=0.066Ω,Isat=5.5A,Irms=5.0A,-40℃~+125℃</t>
-  </si>
-  <si>
-    <t>CKST1004</t>
-  </si>
-  <si>
-    <t>CKST1004-22uH/M</t>
-  </si>
-  <si>
     <t>Bead</t>
   </si>
   <si>
@@ -1164,141 +1173,141 @@
     <t>D:\Cadence_LIB\Datasheet\UNI-ROYAL(厚声) 电阻.pdf</t>
   </si>
   <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>1k ±1% 62.5mW 50V -55℃~+155℃</t>
+  </si>
+  <si>
+    <t>0402WGF1001TCE</t>
+  </si>
+  <si>
     <t>R3</t>
   </si>
   <si>
-    <t>1k</t>
-  </si>
-  <si>
-    <t>1k ±1% 62.5mW 50V -55℃~+155℃</t>
-  </si>
-  <si>
-    <t>0402WGF1001TCE</t>
+    <t>2k</t>
+  </si>
+  <si>
+    <t>2k ±1% 62.5mW 50V -55℃~+155℃</t>
+  </si>
+  <si>
+    <t>0402WGF2001TCE</t>
   </si>
   <si>
     <t>R4</t>
   </si>
   <si>
-    <t>2k</t>
-  </si>
-  <si>
-    <t>2k ±1% 62.5mW 50V -55℃~+155℃</t>
-  </si>
-  <si>
-    <t>0402WGF2001TCE</t>
+    <t>4.7k</t>
+  </si>
+  <si>
+    <t>4.7k ±1% 62.5mW 50V -55℃~+155℃</t>
+  </si>
+  <si>
+    <t>0402WGF4701TCE</t>
   </si>
   <si>
     <t>R5</t>
   </si>
   <si>
-    <t>4.7k</t>
-  </si>
-  <si>
-    <t>4.7k ±1% 62.5mW 50V -55℃~+155℃</t>
-  </si>
-  <si>
-    <t>0402WGF4701TCE</t>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>10k ±1% 62.5mW 50V -55℃~+155℃</t>
+  </si>
+  <si>
+    <t>0402WGF1002TCE</t>
   </si>
   <si>
     <t>R6</t>
   </si>
   <si>
-    <t>10k</t>
-  </si>
-  <si>
-    <t>10k ±1% 62.5mW 50V -55℃~+155℃</t>
-  </si>
-  <si>
-    <t>0402WGF1002TCE</t>
+    <t>22k</t>
+  </si>
+  <si>
+    <t>22k ±1% 62.5mW 50V -55℃~+155℃</t>
+  </si>
+  <si>
+    <t>0402WGF2202TCE</t>
   </si>
   <si>
     <t>R7</t>
   </si>
   <si>
-    <t>22k</t>
-  </si>
-  <si>
-    <t>22k ±1% 62.5mW 50V -55℃~+155℃</t>
-  </si>
-  <si>
-    <t>0402WGF2202TCE</t>
+    <t>40.2k</t>
+  </si>
+  <si>
+    <t>40.2k ±1% 62.5mW 50V -55℃~+155℃</t>
+  </si>
+  <si>
+    <t>0402WGF4022TCE</t>
   </si>
   <si>
     <t>R8</t>
   </si>
   <si>
-    <t>40.2k</t>
-  </si>
-  <si>
-    <t>40.2k ±1% 62.5mW 50V -55℃~+155℃</t>
-  </si>
-  <si>
-    <t>0402WGF4022TCE</t>
+    <t>47k</t>
+  </si>
+  <si>
+    <t>47k ±1% 62.5mW 50V -55℃~+155℃</t>
+  </si>
+  <si>
+    <t>0402WGF4702TCE</t>
   </si>
   <si>
     <t>R9</t>
   </si>
   <si>
-    <t>47k</t>
-  </si>
-  <si>
-    <t>47k ±1% 62.5mW 50V -55℃~+155℃</t>
-  </si>
-  <si>
-    <t>0402WGF4702TCE</t>
+    <t>68k</t>
+  </si>
+  <si>
+    <t>68k ±1% 62.5mW 50V -55℃~+155℃</t>
+  </si>
+  <si>
+    <t>0402WGF6803TCE</t>
   </si>
   <si>
     <t>R10</t>
   </si>
   <si>
-    <t>68k</t>
-  </si>
-  <si>
-    <t>68k ±1% 62.5mW 50V -55℃~+155℃</t>
-  </si>
-  <si>
-    <t>0402WGF6803TCE</t>
+    <t>100k</t>
+  </si>
+  <si>
+    <t>100k ±1% 62.5mW 50V -55℃~+155℃</t>
+  </si>
+  <si>
+    <t>0402WGF1003TCE</t>
   </si>
   <si>
     <t>R11</t>
   </si>
   <si>
-    <t>100k</t>
-  </si>
-  <si>
-    <t>100k ±1% 62.5mW 50V -55℃~+155℃</t>
-  </si>
-  <si>
-    <t>0402WGF1003TCE</t>
+    <t>124k</t>
+  </si>
+  <si>
+    <t>124k ±1% 62.5mW 50V -55℃~+155℃</t>
+  </si>
+  <si>
+    <t>0402WGF1243TCE</t>
   </si>
   <si>
     <t>R12</t>
   </si>
   <si>
-    <t>124k</t>
-  </si>
-  <si>
-    <t>124k ±1% 62.5mW 50V -55℃~+155℃</t>
-  </si>
-  <si>
-    <t>0402WGF1243TCE</t>
+    <t>200k</t>
+  </si>
+  <si>
+    <t>200k ±1% 62.5mW 50V -55℃~+155℃</t>
+  </si>
+  <si>
+    <t>0402WGF2003TCE</t>
   </si>
   <si>
     <t>R13</t>
   </si>
   <si>
-    <t>200k</t>
-  </si>
-  <si>
-    <t>200k ±1% 62.5mW 50V -55℃~+155℃</t>
-  </si>
-  <si>
-    <t>0402WGF2003TCE</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
     <t>10m 1% 250mW</t>
   </si>
   <si>
@@ -1341,6 +1350,9 @@
     <t>D:\Cadence_LIB\Datasheet\YAGEO 电容 X7R.pdf</t>
   </si>
   <si>
+    <t>C2</t>
+  </si>
+  <si>
     <t>15pF</t>
   </si>
   <si>
@@ -1356,6 +1368,9 @@
     <t>https://item.szlcsc.com/270576.html</t>
   </si>
   <si>
+    <t>C3</t>
+  </si>
+  <si>
     <t>10pF</t>
   </si>
   <si>
@@ -1368,7 +1383,7 @@
     <t>https://atta.szlcsc.com/upload/public/pdf/source/20200415/C513681_5027FF1861A780E76D33CC24CC34CA99.pdf</t>
   </si>
   <si>
-    <t>C2</t>
+    <t>C4</t>
   </si>
   <si>
     <t>10nF</t>
@@ -1377,7 +1392,7 @@
     <t>CC0402KRX7R9BB103</t>
   </si>
   <si>
-    <t>C3</t>
+    <t>C5</t>
   </si>
   <si>
     <t>22nF</t>
@@ -1389,7 +1404,7 @@
     <t>CC0603KRX7R9BB223</t>
   </si>
   <si>
-    <t>C4</t>
+    <t>C6</t>
   </si>
   <si>
     <t>100nF</t>
@@ -1401,7 +1416,7 @@
     <t>CC0402KRX7R9BB104</t>
   </si>
   <si>
-    <t>C5</t>
+    <t>C7</t>
   </si>
   <si>
     <t>C0603</t>
@@ -1410,7 +1425,7 @@
     <t>CC0603KRX7R9BB104</t>
   </si>
   <si>
-    <t>C6</t>
+    <t>C8</t>
   </si>
   <si>
     <t>1uF/25V</t>
@@ -1428,13 +1443,13 @@
     <t>D:\Cadence_LIB\Datasheet\Samsung 电容.pdf</t>
   </si>
   <si>
-    <t>C7</t>
+    <t>C9</t>
   </si>
   <si>
     <t>CL05A105KA5NQNC</t>
   </si>
   <si>
-    <t>C8</t>
+    <t>C10</t>
   </si>
   <si>
     <t>2.2uF/6.3V</t>
@@ -1446,7 +1461,7 @@
     <t>CL05A225MQ5NSNC</t>
   </si>
   <si>
-    <t>C9</t>
+    <t>C11</t>
   </si>
   <si>
     <t>2.2uF/16V</t>
@@ -1458,7 +1473,7 @@
     <t>CL10A225KO8NNNC</t>
   </si>
   <si>
-    <t>C10</t>
+    <t>C12</t>
   </si>
   <si>
     <t>4.7uF/16V</t>
@@ -1470,7 +1485,7 @@
     <t>CL10A475KO8NNNC</t>
   </si>
   <si>
-    <t>C11</t>
+    <t>C13</t>
   </si>
   <si>
     <t>4.7uF/25V</t>
@@ -1482,7 +1497,7 @@
     <t>CL10A475KA8NQNC</t>
   </si>
   <si>
-    <t>C12</t>
+    <t>C14</t>
   </si>
   <si>
     <t>10uF/6.3V</t>
@@ -1494,7 +1509,7 @@
     <t>CL10A106KQ8NNNC</t>
   </si>
   <si>
-    <t>C13</t>
+    <t>C15</t>
   </si>
   <si>
     <t>22uF/25V</t>
@@ -1596,6 +1611,9 @@
     <t>https://www.semiee.com/file/JSCJ/JSCJ-DTC144ECA.pdf</t>
   </si>
   <si>
+    <t>X1</t>
+  </si>
+  <si>
     <t>crystal</t>
   </si>
   <si>
@@ -1618,6 +1636,9 @@
   </si>
   <si>
     <t>https://atta.szlcsc.com/upload/public/pdf/source/20210303/C1985211_782CA948DE6020BF6ED8D350FE23A121.pdf</t>
+  </si>
+  <si>
+    <t>X2</t>
   </si>
   <si>
     <t>24M 10p</t>
@@ -2791,7 +2812,7 @@
   <dimension ref="A1:J113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A2" sqref="A2:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3398,8 +3419,8 @@
   <sheetPr/>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3959,78 +3980,82 @@
       </c>
     </row>
     <row r="18" s="6" customFormat="1" ht="33" spans="1:10">
-      <c r="A18" s="10"/>
+      <c r="A18" s="10" t="s">
+        <v>175</v>
+      </c>
       <c r="B18" s="18" t="s">
         <v>76</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D18" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>175</v>
-      </c>
       <c r="F18" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>93</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I18" s="18"/>
       <c r="J18" s="23" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" s="6" customFormat="1" ht="33" spans="1:10">
-      <c r="A19" s="10"/>
+      <c r="A19" s="10" t="s">
+        <v>180</v>
+      </c>
       <c r="B19" s="18" t="s">
         <v>162</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>92</v>
       </c>
       <c r="G19" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>179</v>
       </c>
       <c r="I19" s="18">
         <v>0.23</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" s="6" customFormat="1" ht="33" spans="1:10">
       <c r="A20" s="10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>92</v>
@@ -4039,30 +4064,30 @@
         <v>81</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I20" s="3">
         <v>0.8</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" s="6" customFormat="1" ht="33" spans="1:10">
       <c r="A21" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>92</v>
@@ -4071,77 +4096,77 @@
         <v>81</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I21" s="3">
         <v>0.8</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" ht="49.5" spans="1:10">
       <c r="A22" s="10" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>137</v>
       </c>
       <c r="G22" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>194</v>
       </c>
       <c r="I22" s="3">
         <v>4.5</v>
       </c>
       <c r="J22" s="21" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" ht="66" spans="1:10">
       <c r="A23" s="10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I23" s="3">
         <v>2.9</v>
       </c>
       <c r="J23" s="21" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -4178,8 +4203,8 @@
   <sheetPr/>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4230,19 +4255,19 @@
     </row>
     <row r="2" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A2" s="16" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>14</v>
@@ -4251,30 +4276,30 @@
         <v>15</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I2" s="3">
         <v>0.23</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A3" s="16" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>14</v>
@@ -4283,94 +4308,94 @@
         <v>15</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="I3" s="3">
         <v>0.23</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A4" s="16" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I4" s="3">
         <v>0.18</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A5" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>218</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I5" s="3">
         <v>0.18</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A6" s="16" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>14</v>
@@ -4379,30 +4404,30 @@
         <v>15</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I6" s="3">
         <v>0.23</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A7" s="16" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>14</v>
@@ -4411,94 +4436,94 @@
         <v>15</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="I7" s="3">
         <v>0.23</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A8" s="16" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I8" s="3">
         <v>0.18</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A9" s="16" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I9" s="3">
         <v>0.18</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A10" s="16" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>14</v>
@@ -4507,30 +4532,30 @@
         <v>15</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I10" s="3">
         <v>0.23</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A11" s="16" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>14</v>
@@ -4539,94 +4564,94 @@
         <v>15</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="I11" s="3">
         <v>0.23</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A12" s="16" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I12" s="3">
         <v>0.18</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A13" s="16" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="I13" s="3">
         <v>0.18</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A14" s="16" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>71</v>
@@ -4635,30 +4660,30 @@
         <v>36</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I14" s="3">
         <v>0.14</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A15" s="16" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>71</v>
@@ -4667,397 +4692,397 @@
         <v>36</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I15" s="3">
         <v>0.14</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A16" s="16" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D16" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>260</v>
-      </c>
       <c r="F16" s="3" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="I16" s="3">
         <v>0.74</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A17" s="16" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="I17" s="3">
         <v>0.35</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A18" s="16" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="I18" s="3">
         <v>0.26</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A19" s="16" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="I19" s="3">
         <v>0.35</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A20" s="16" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="I20" s="3">
         <v>0.24</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A21" s="16" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="I21" s="3">
         <v>0.4</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A22" s="16" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="I22" s="3">
         <v>0.3</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A23" s="16" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I23" s="3">
         <v>0.39</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A24" s="16" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="I24" s="3">
         <v>0.39</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="25" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A25" s="16" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="I25" s="3">
         <v>0.41</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A26" s="16" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="I26" s="3">
         <v>0.38</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A27" s="16" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="I27" s="3">
         <v>0.31</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -5110,10 +5135,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5164,320 +5189,322 @@
     </row>
     <row r="2" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="I2" s="3">
         <v>0.23</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="I3" s="3">
         <v>0.47</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="I4" s="3">
         <v>0.47</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A5" s="3" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="I5" s="3">
         <v>0.47</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="I6" s="3">
         <v>0.42</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A7" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>343</v>
-      </c>
       <c r="G7" s="3" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="I7" s="3">
         <v>0.42</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A8" s="3" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="I8" s="3">
         <v>0.04</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A9" s="3" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="I9" s="3">
         <v>0.47</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="I10" s="3">
         <v>0.9</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="12" ht="28.5" spans="1:10">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="D12" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="11" ht="28.5" spans="1:10">
+      <c r="A11" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="D11" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="I12" s="3">
+      <c r="E11" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="I11" s="3">
         <v>0.031</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>371</v>
+      <c r="J11" s="4" t="s">
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -5491,7 +5518,7 @@
     <hyperlink ref="J7" r:id="rId3" display="https://atta.szlcsc.com/upload/public/pdf/source/20220510/B48FE89972EB9627500571FF6CB43AFA.pdf"/>
     <hyperlink ref="J9" r:id="rId3" display="https://atta.szlcsc.com/upload/public/pdf/source/20220510/B48FE89972EB9627500571FF6CB43AFA.pdf"/>
     <hyperlink ref="J10" r:id="rId3" display="https://atta.szlcsc.com/upload/public/pdf/source/20220510/B48FE89972EB9627500571FF6CB43AFA.pdf"/>
-    <hyperlink ref="J12" r:id="rId4" display="https://atta.szlcsc.com/upload/public/pdf/source/20210916/3C06D8971A361A4569490E57F6B8A429.pdf"/>
+    <hyperlink ref="J11" r:id="rId4" display="https://atta.szlcsc.com/upload/public/pdf/source/20210916/3C06D8971A361A4569490E57F6B8A429.pdf"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -5504,7 +5531,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5555,418 +5582,418 @@
     </row>
     <row r="2" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A2" s="10" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="I2" s="10">
         <v>0.002</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A3" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>377</v>
-      </c>
       <c r="H3" s="10" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="I3" s="10">
         <v>0.002</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A4" s="10" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="I4" s="10">
         <v>0.002</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A5" s="10" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="I5" s="10">
         <v>0.002</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A6" s="10" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="I6" s="10">
         <v>0.002</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A7" s="10" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="I7" s="10">
         <v>0.002</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A8" s="10" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="I8" s="10">
         <v>0.002</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A9" s="10" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="I9" s="10">
         <v>0.002</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="10" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A10" s="10" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="I10" s="10">
         <v>0.002</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="11" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A11" s="10" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="I11" s="10">
         <v>0.002</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A12" s="10" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="I12" s="10">
         <v>0.002</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="13" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A13" s="10" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="I13" s="10">
         <v>0.002</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A14" s="10" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="I14" s="10">
         <v>0.1</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -5983,8 +6010,8 @@
   <sheetPr/>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6035,478 +6062,482 @@
     </row>
     <row r="2" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A2" s="10" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="I2" s="10">
         <v>0.005</v>
       </c>
       <c r="J2" s="10" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="3" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A3" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="3" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>439</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>435</v>
-      </c>
       <c r="G3" s="10" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="I3" s="10">
         <v>0.035</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A4" s="10"/>
+      <c r="A4" s="10" t="s">
+        <v>448</v>
+      </c>
       <c r="B4" s="10" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="I4" s="10">
         <v>0.02</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="5" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A5" s="10" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="I5" s="10">
         <v>0.004</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="6" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A6" s="10" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="I6" s="12">
         <v>0.017</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="7" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A7" s="10" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="I7" s="10">
         <v>0.018</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="8" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A8" s="10" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="I8" s="10">
         <v>0.234</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="9" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A9" s="10" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="I9" s="12">
         <v>0.02</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
     </row>
     <row r="10" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A10" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>463</v>
-      </c>
       <c r="D10" s="10" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="I10" s="12">
         <v>0.02</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
     </row>
     <row r="11" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A11" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>435</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>465</v>
-      </c>
       <c r="H11" s="3" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="I11" s="12">
         <v>0.01</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
     </row>
     <row r="12" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A12" s="10" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="I12" s="12">
         <v>0.03</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
     </row>
     <row r="13" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A13" s="10" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="I13" s="12">
         <v>0.05</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
     </row>
     <row r="14" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A14" s="10" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="I14" s="12">
         <v>0.1</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
     </row>
     <row r="15" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A15" s="10" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="I15" s="10">
         <v>0.036</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
     </row>
     <row r="16" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A16" s="10" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="I16" s="12">
         <v>0.16</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
     </row>
     <row r="17" s="6" customFormat="1"/>
@@ -6526,7 +6557,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
@@ -6577,162 +6608,162 @@
     </row>
     <row r="2" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="I2" s="3">
         <v>0.1</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>504</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>499</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>36</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="I3" s="3">
         <v>0.1</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
     </row>
     <row r="4" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A4" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>503</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="I4" s="3">
         <v>0.1</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
     </row>
     <row r="5" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A5" s="3" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>36</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="I5" s="3">
         <v>0.1</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
     </row>
     <row r="6" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>36</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="I6" s="3">
         <v>0.1</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -6754,7 +6785,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
@@ -6804,67 +6835,67 @@
       </c>
     </row>
     <row r="2" ht="33" spans="1:10">
-      <c r="A2" s="3">
-        <v>1</v>
+      <c r="A2" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="I2" s="3">
         <v>1.5</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
     </row>
     <row r="3" ht="33" spans="1:10">
-      <c r="A3" s="3">
-        <v>2</v>
+      <c r="A3" s="3" t="s">
+        <v>538</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="I3" s="3">
         <v>0.5</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -6882,8 +6913,8 @@
   <sheetPr/>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
@@ -6934,66 +6965,66 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="I2" s="3">
         <v>0.34</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>545</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="I3" s="3">
         <v>0.22</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_CIS.xlsx
+++ b/Excel_CIS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12525" activeTab="8"/>
+    <workbookView windowWidth="27945" windowHeight="12525" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DIODE" sheetId="1" r:id="rId1"/>
@@ -3419,8 +3419,8 @@
   <sheetPr/>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4037,7 +4037,7 @@
       <c r="I19" s="18">
         <v>0.23</v>
       </c>
-      <c r="J19" s="22" t="s">
+      <c r="J19" s="21" t="s">
         <v>184</v>
       </c>
     </row>
@@ -6913,7 +6913,7 @@
   <sheetPr/>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>

--- a/Excel_CIS.xlsx
+++ b/Excel_CIS.xlsx
@@ -16,13 +16,14 @@
     <sheet name="晶体管" sheetId="7" r:id="rId7"/>
     <sheet name="晶振" sheetId="8" r:id="rId8"/>
     <sheet name="连接器" sheetId="9" r:id="rId9"/>
+    <sheet name="ANT" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="608">
   <si>
     <t>Part Number</t>
   </si>
@@ -252,6 +253,66 @@
     <t>IC1</t>
   </si>
   <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>SC8906QFER</t>
+  </si>
+  <si>
+    <t>2.7V至22V，支持DP/DM快充协议， 2节至4节Buck-Boost充电，包括涓流充电、恒流充电、恒压充电和充电截止功能，欠压/过压保护，过流保护，短路保护，热关断</t>
+  </si>
+  <si>
+    <t>SC8906</t>
+  </si>
+  <si>
+    <t>SouthChip</t>
+  </si>
+  <si>
+    <t>https://www.semiee.com/file/SouthChip/SouthChip-SC8906.pdf</t>
+  </si>
+  <si>
+    <t>IC2</t>
+  </si>
+  <si>
+    <t>SGM40561</t>
+  </si>
+  <si>
+    <t>4.55V至26.5V，单节锂电池充电，20-200mA充电电流，关断时1uA泄漏电流，-40_85℃</t>
+  </si>
+  <si>
+    <t>TDFN-2x2-8L</t>
+  </si>
+  <si>
+    <t>SGMIRCO</t>
+  </si>
+  <si>
+    <t>SGM40561-4.2</t>
+  </si>
+  <si>
+    <t>https://www.semiee.com/file/SGMICRO/SGMICRO-SGM40561.pdf</t>
+  </si>
+  <si>
+    <t>IC3</t>
+  </si>
+  <si>
+    <t>TP4054</t>
+  </si>
+  <si>
+    <t>单节锂电池恒流恒压线性管理芯片，充电电流可达500mA，输入电压范围4.2V至6.5V</t>
+  </si>
+  <si>
+    <t>SOT23-5</t>
+  </si>
+  <si>
+    <t>UMW</t>
+  </si>
+  <si>
+    <t>https://atta.szlcsc.com/upload/public/pdf/source/20211011/DD9DB39E30D67DDF115F79B4376A27FF.pdf</t>
+  </si>
+  <si>
+    <t>IC4</t>
+  </si>
+  <si>
     <t>DCDC</t>
   </si>
   <si>
@@ -273,7 +334,7 @@
     <t>https://www.semiee.com/file/TI/TI-TPS563201.pdf</t>
   </si>
   <si>
-    <t>IC2</t>
+    <t>IC5</t>
   </si>
   <si>
     <t>TPS562200DDCR</t>
@@ -288,7 +349,7 @@
     <t>https://www.semiee.com/file/TI/TI-TPS562200.pdf</t>
   </si>
   <si>
-    <t>IC3</t>
+    <t>IC6</t>
   </si>
   <si>
     <t>SY8088AAC</t>
@@ -300,16 +361,13 @@
     <t>SY8088</t>
   </si>
   <si>
-    <t>SOT23-5</t>
-  </si>
-  <si>
     <t>Silergy</t>
   </si>
   <si>
     <t>https://www.semiee.com/file/SILERGY/SILERGY-SY8088.pdf</t>
   </si>
   <si>
-    <t>IC4</t>
+    <t>IC7</t>
   </si>
   <si>
     <t>SY8201ABC</t>
@@ -324,7 +382,7 @@
     <t>https://www.semiee.com/file/SILERGY/SILERGY-SY8201ABC.pdf</t>
   </si>
   <si>
-    <t>IC5</t>
+    <t>IC8</t>
   </si>
   <si>
     <t>SY8120B1ABC</t>
@@ -339,7 +397,7 @@
     <t>https://www.semiee.com/file/SILERGY/SILERGY-SY8120B1.pdf</t>
   </si>
   <si>
-    <t>IC6</t>
+    <t>IC9</t>
   </si>
   <si>
     <t>SY8113BADC</t>
@@ -354,7 +412,7 @@
     <t>https://www.semiee.com/file/SILERGY/SILERGY-SY8113BADC.pdf</t>
   </si>
   <si>
-    <t>IC7</t>
+    <t>IC10</t>
   </si>
   <si>
     <t>SY8089AAAC</t>
@@ -369,7 +427,211 @@
     <t>https://www.semiee.com/file/Source10/silergy-SY8089AAAC.pdf</t>
   </si>
   <si>
-    <t>IC8</t>
+    <t>IC11</t>
+  </si>
+  <si>
+    <t>SY9701ADPC</t>
+  </si>
+  <si>
+    <t>2.6V至5.5V输入，2.6V-3.8V输出，Back-Boost无缝升降压，1MHz，1.2A连续输出电流，内置热关断、短路保护</t>
+  </si>
+  <si>
+    <t>DFN-3x3-14</t>
+  </si>
+  <si>
+    <t>https://www.semiee.com/file/SILERGY/SILERGY-SY9701ADPC.pdf</t>
+  </si>
+  <si>
+    <t>IC12</t>
+  </si>
+  <si>
+    <t>IC</t>
+  </si>
+  <si>
+    <t>FR8016HA</t>
+  </si>
+  <si>
+    <t>低功耗蓝牙SOC,兼容蓝牙 V5.1（LE 模式）协议,内置的 ARM-CorteM3单片机,集成 DC-DC,LDO,充电管理,Audio,工作环境温度：-40°C ~ +105°C,QFN32封装</t>
+  </si>
+  <si>
+    <t>QFN33P40_400X400X80L30X20T280</t>
+  </si>
+  <si>
+    <t>Freqchip</t>
+  </si>
+  <si>
+    <t>https://www.semiee.com/file/FREQCHIP/FREQCHIP-FR8016HA.pdf</t>
+  </si>
+  <si>
+    <t>IC13</t>
+  </si>
+  <si>
+    <t>SC7A20</t>
+  </si>
+  <si>
+    <t>SC7A20 是一款高精度 12bit 数字三轴加速度传感器芯片，宽电压范围 1.71V-3.6V，1.8V 兼容数字 IO 口，低功耗模式下电源电流低至 2µA，±2G/±4G/±8G/±16G 动态全量程范围，I2C/SPI 数字输出接口，自由落体检测，单击双击检测及运动检测，可编程中断生成电路</t>
+  </si>
+  <si>
+    <t>LGA-12-2x2x1_0</t>
+  </si>
+  <si>
+    <t>士兰微</t>
+  </si>
+  <si>
+    <t>SC7A20TR</t>
+  </si>
+  <si>
+    <t>https://www.semiee.com/file/Silan/Silan-SC7A20.pdf</t>
+  </si>
+  <si>
+    <t>IC14</t>
+  </si>
+  <si>
+    <t>ESP32-PICO-D4</t>
+  </si>
+  <si>
+    <t>ESP32-PICO-D4 是一款基于 ESP32 的系统级封装 (SiP) 模组，可提供完整的Wi-Fi 和蓝牙 ® 功能。该模组的外 观尺寸仅为 (7.000±0.100) mm × (7.000±0.100) mm × (0.940±0.100) mm，整体占用的 PCB 面积最小，已集成 1 个 4 MB 串行外围设备接口 (SPI) flash。</t>
+  </si>
+  <si>
+    <t>PQFN49P50_700X700X105L40X25T450</t>
+  </si>
+  <si>
+    <t>espressif</t>
+  </si>
+  <si>
+    <t>https://www.semiee.com/file/Espressif/Espressif-ESP32-PICO-D4.pdf</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>CH340K</t>
+  </si>
+  <si>
+    <t>USB转1个串口，5V、3.3V供电，无需外部晶振，波特率 50bps～2Mbps</t>
+  </si>
+  <si>
+    <t>ESOP-10-EP</t>
+  </si>
+  <si>
+    <t>南京沁恒</t>
+  </si>
+  <si>
+    <t>D:\Cadence_LIB\Datasheet\USB转串口芯片CH340.pdf</t>
+  </si>
+  <si>
+    <t>IC15</t>
+  </si>
+  <si>
+    <t>CH224K</t>
+  </si>
+  <si>
+    <t>4V至22V 输入电压,支持 PD3.0/2.0，BC1.2等快充协议,支持 USB Type-C PD，支持正反插检测与自动切换,支持 E-Mark 模拟，自动检测 VCONN，支持 100W 功率的 PD 请求,内置过压保护模块OVA、超温保护模块OTA</t>
+  </si>
+  <si>
+    <t>https://www.semiee.com/file/WCH/WCH-CH224.pdf</t>
+  </si>
+  <si>
+    <t>IC16</t>
+  </si>
+  <si>
+    <t>ALC5616</t>
+  </si>
+  <si>
+    <t>ALC5616 是一款高性能、低功耗、立体声通道 I2S 接口音频编解码器，集成的DRC（动态范围控制器）和7段参数均衡器提供了音频播放路径的进一步数字声音处理能力。</t>
+  </si>
+  <si>
+    <t>Realtek</t>
+  </si>
+  <si>
+    <t>ALC5616-CG</t>
+  </si>
+  <si>
+    <t>https://www.semiee.com/file/EOL2/Realtek-ALC5616-CGT.pdf</t>
+  </si>
+  <si>
+    <t>TLV320AIC3101</t>
+  </si>
+  <si>
+    <t>TLV320AIC3101是一款低功耗立体声音频编解码器，具有立体声耳机放大器，以及单端或全差分配置可编程的多个输入和输出。广泛的基于寄存器的电源控制包括在内。通过3.3 v模拟电源实现低至14 mW的立体声48khz DAC播放，使其成为便携式电池供电音频和电话应用的理想选择。</t>
+  </si>
+  <si>
+    <t>QFN33P50_500X500X100L40X25T345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TLV320AIC3101IRHBR </t>
+  </si>
+  <si>
+    <t>https://www.ti.com/lit/ds/symlink/tlv320aic3101.pdf?ts=1698998478028&amp;ref_url=https%253A%252F%252Fwww.ti.com%252Fproduct%252FTLV320AIC3101%253FkeyMatch%253DTLV320AIC3101IRHBR%2526tisearch%253DSearch-EN-Everything</t>
+  </si>
+  <si>
+    <t>IC17</t>
+  </si>
+  <si>
+    <t>TXB0108DQS</t>
+  </si>
+  <si>
+    <t>A端口1.2V至3.6V、B端口1.65V至5.5V(VCCA≤VCCB)，以VCCA为基准的输出使能(OE)输入电路，低功耗，最大ICC为4µA，闩锁性能超出100mA</t>
+  </si>
+  <si>
+    <t>TXB0108</t>
+  </si>
+  <si>
+    <t>SON20P40_400X200X55L55X20</t>
+  </si>
+  <si>
+    <t>https://www.semiee.com/file/TI/TI-TXB0108.pdf</t>
+  </si>
+  <si>
+    <t>IC18</t>
+  </si>
+  <si>
+    <t>HUSB238</t>
+  </si>
+  <si>
+    <t>PD Sink,VBUS过压和欠压，过流保护,门限可配置,过温保护90℃/75℃,传输的额定功率可达100W。兼容PD3.0 V1.3和Type-C V1.4、BC1.2 DCP、CDP和SDP和Apple 5V2.4A充电协议。</t>
+  </si>
+  <si>
+    <t>DFN-3X3-10L</t>
+  </si>
+  <si>
+    <t>Hynetek</t>
+  </si>
+  <si>
+    <t>HUSB238_003DD</t>
+  </si>
+  <si>
+    <t>https://www.semiee.com/file/Hynetek/Hynetek-HUSB238.pdf</t>
+  </si>
+  <si>
+    <t>IC19</t>
+  </si>
+  <si>
+    <t>I-Sensing</t>
+  </si>
+  <si>
+    <t>INA180A1</t>
+  </si>
+  <si>
+    <t>电流检测放大器,Vcm=26V,Vs=2.7-5V,Gain=20,单通道消耗的最大电流为260µA</t>
+  </si>
+  <si>
+    <t>INA180A</t>
+  </si>
+  <si>
+    <t>https://www.semiee.com/file/TI/TI-INA180.pdf</t>
+  </si>
+  <si>
+    <t>IC20</t>
+  </si>
+  <si>
+    <t>INA180A2</t>
+  </si>
+  <si>
+    <t>电流检测放大器,Vcm=26V,Vs=2.7-5V,Gain=50,单通道消耗的最大电流为260µA</t>
+  </si>
+  <si>
+    <t>IC21</t>
   </si>
   <si>
     <t>LDO</t>
@@ -393,100 +655,7 @@
     <t>https://www.richtek.com/assets/product_file/RT9193/DS9193-18.pdf</t>
   </si>
   <si>
-    <t>IC9</t>
-  </si>
-  <si>
-    <t>Interface</t>
-  </si>
-  <si>
-    <t>CH340K</t>
-  </si>
-  <si>
-    <t>USB转1个串口，5V、3.3V供电，无需外部晶振，波特率 50bps～2Mbps</t>
-  </si>
-  <si>
-    <t>ESOP-10-EP</t>
-  </si>
-  <si>
-    <t>南京沁恒</t>
-  </si>
-  <si>
-    <t>D:\Cadence_LIB\Datasheet\USB转串口芯片CH340.pdf</t>
-  </si>
-  <si>
-    <t>IC10</t>
-  </si>
-  <si>
-    <t>CH224K</t>
-  </si>
-  <si>
-    <t>4V至22V 输入电压,支持 PD3.0/2.0，BC1.2等快充协议,支持 USB Type-C PD，支持正反插检测与自动切换,支持 E-Mark 模拟，自动检测 VCONN，支持 100W 功率的 PD 请求,内置过压保护模块OVA、超温保护模块OTA</t>
-  </si>
-  <si>
-    <t>https://www.semiee.com/file/WCH/WCH-CH224.pdf</t>
-  </si>
-  <si>
-    <t>IC11</t>
-  </si>
-  <si>
-    <t>ALC5616</t>
-  </si>
-  <si>
-    <t>ALC5616 是一款高性能、低功耗、立体声通道 I2S 接口音频编解码器，集成的DRC（动态范围控制器）和7段参数均衡器提供了音频播放路径的进一步数字声音处理能力。</t>
-  </si>
-  <si>
-    <t>QFN33P40_400X400X80L30X20T280</t>
-  </si>
-  <si>
-    <t>Realtek</t>
-  </si>
-  <si>
-    <t>ALC5616-CG</t>
-  </si>
-  <si>
-    <t>https://www.semiee.com/file/EOL2/Realtek-ALC5616-CGT.pdf</t>
-  </si>
-  <si>
-    <t>IC12</t>
-  </si>
-  <si>
-    <t>TXB0108DQS</t>
-  </si>
-  <si>
-    <t>A端口1.2V至3.6V、B端口1.65V至5.5V(VCCA≤VCCB)，以VCCA为基准的输出使能(OE)输入电路，低功耗，最大ICC为4µA，闩锁性能超出100mA</t>
-  </si>
-  <si>
-    <t>TXB0108</t>
-  </si>
-  <si>
-    <t>SON20P40_400X200X55L55X20</t>
-  </si>
-  <si>
-    <t>https://www.semiee.com/file/TI/TI-TXB0108.pdf</t>
-  </si>
-  <si>
-    <t>IC13</t>
-  </si>
-  <si>
-    <t>HUSB238</t>
-  </si>
-  <si>
-    <t>PD Sink,VBUS过压和欠压，过流保护,门限可配置,过温保护90℃/75℃,传输的额定功率可达100W。兼容PD3.0 V1.3和Type-C V1.4、BC1.2 DCP、CDP和SDP和Apple 5V2.4A充电协议。</t>
-  </si>
-  <si>
-    <t>DFN-3X3-10L</t>
-  </si>
-  <si>
-    <t>Hynetek</t>
-  </si>
-  <si>
-    <t>HUSB238_003DD</t>
-  </si>
-  <si>
-    <t>https://www.semiee.com/file/Hynetek/Hynetek-HUSB238.pdf</t>
-  </si>
-  <si>
-    <t>IC14</t>
+    <t>IC22</t>
   </si>
   <si>
     <t>OPA</t>
@@ -507,144 +676,6 @@
     <t>https://www.semiee.com/file/TI/TI-LM358.pdf</t>
   </si>
   <si>
-    <t>IC15</t>
-  </si>
-  <si>
-    <t>Charge</t>
-  </si>
-  <si>
-    <t>SC8906QFER</t>
-  </si>
-  <si>
-    <t>2.7V至22V，支持DP/DM快充协议， 2节至4节Buck-Boost充电，包括涓流充电、恒流充电、恒压充电和充电截止功能，欠压/过压保护，过流保护，短路保护，热关断</t>
-  </si>
-  <si>
-    <t>SC8906</t>
-  </si>
-  <si>
-    <t>SouthChip</t>
-  </si>
-  <si>
-    <t>https://www.semiee.com/file/SouthChip/SouthChip-SC8906.pdf</t>
-  </si>
-  <si>
-    <t>IC16</t>
-  </si>
-  <si>
-    <t>SGM40561</t>
-  </si>
-  <si>
-    <t>4.55V至26.5V，单节锂电池充电，20-200mA充电电流，关断时1uA泄漏电流，-40_85℃</t>
-  </si>
-  <si>
-    <t>TDFN-2x2-8L</t>
-  </si>
-  <si>
-    <t>SGMIRCO</t>
-  </si>
-  <si>
-    <t>SGM40561-4.2</t>
-  </si>
-  <si>
-    <t>https://www.semiee.com/file/SGMICRO/SGMICRO-SGM40561.pdf</t>
-  </si>
-  <si>
-    <t>IC17</t>
-  </si>
-  <si>
-    <t>SY9701ADPC</t>
-  </si>
-  <si>
-    <t>2.6V至5.5V输入，2.6V-3.8V输出，Back-Boost无缝升降压，1MHz，1.2A连续输出电流，内置热关断、短路保护</t>
-  </si>
-  <si>
-    <t>DFN-3x3-14</t>
-  </si>
-  <si>
-    <t>https://www.semiee.com/file/SILERGY/SILERGY-SY9701ADPC.pdf</t>
-  </si>
-  <si>
-    <t>IC18</t>
-  </si>
-  <si>
-    <t>TP4054</t>
-  </si>
-  <si>
-    <t>单节锂电池恒流恒压线性管理芯片，充电电流可达500mA，输入电压范围4.2V至6.5V</t>
-  </si>
-  <si>
-    <t>UMW</t>
-  </si>
-  <si>
-    <t>https://atta.szlcsc.com/upload/public/pdf/source/20211011/DD9DB39E30D67DDF115F79B4376A27FF.pdf</t>
-  </si>
-  <si>
-    <t>IC19</t>
-  </si>
-  <si>
-    <t>I-Sensing</t>
-  </si>
-  <si>
-    <t>INA180A1</t>
-  </si>
-  <si>
-    <t>电流检测放大器,Vcm=26V,Vs=2.7-5V,Gain=20,单通道消耗的最大电流为260µA</t>
-  </si>
-  <si>
-    <t>INA180A</t>
-  </si>
-  <si>
-    <t>https://www.semiee.com/file/TI/TI-INA180.pdf</t>
-  </si>
-  <si>
-    <t>IC20</t>
-  </si>
-  <si>
-    <t>INA180A2</t>
-  </si>
-  <si>
-    <t>电流检测放大器,Vcm=26V,Vs=2.7-5V,Gain=50,单通道消耗的最大电流为260µA</t>
-  </si>
-  <si>
-    <t>IC21</t>
-  </si>
-  <si>
-    <t>IC</t>
-  </si>
-  <si>
-    <t>FR8016HA</t>
-  </si>
-  <si>
-    <t>低功耗蓝牙SOC,兼容蓝牙 V5.1（LE 模式）协议,内置的 ARM-CorteM3单片机,集成 DC-DC,LDO,充电管理,Audio,工作环境温度：-40°C ~ +105°C,QFN32封装</t>
-  </si>
-  <si>
-    <t>Freqchip</t>
-  </si>
-  <si>
-    <t>https://www.semiee.com/file/FREQCHIP/FREQCHIP-FR8016HA.pdf</t>
-  </si>
-  <si>
-    <t>IC22</t>
-  </si>
-  <si>
-    <t>SC7A20</t>
-  </si>
-  <si>
-    <t>SC7A20 是一款高精度 12bit 数字三轴加速度传感器芯片，宽电压范围 1.71V-3.6V，1.8V 兼容数字 IO 口，低功耗模式下电源电流低至 2µA，±2G/±4G/±8G/±16G 动态全量程范围，I2C/SPI 数字输出接口，自由落体检测，单击双击检测及运动检测，可编程中断生成电路</t>
-  </si>
-  <si>
-    <t>LGA-12-2x2x1_0</t>
-  </si>
-  <si>
-    <t>士兰微</t>
-  </si>
-  <si>
-    <t>SC7A20TR</t>
-  </si>
-  <si>
-    <t>https://www.semiee.com/file/Silan/Silan-SC7A20.pdf</t>
-  </si>
-  <si>
     <t>S1</t>
   </si>
   <si>
@@ -1440,90 +1471,123 @@
     <t>CL10A105KA8NNNC</t>
   </si>
   <si>
+    <t>https://atta.szlcsc.com/upload/public/pdf/source/20160218/1457707763339.pdf</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>CL05A105KA5NQNC</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>2.2uF/6.3V</t>
+  </si>
+  <si>
+    <t>2.2uF ±20% 6.3V X5R</t>
+  </si>
+  <si>
+    <t>CL05A225MQ5NSNC</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>2.2uF/16V</t>
+  </si>
+  <si>
+    <t>2.2uF ±10% 16V X5R</t>
+  </si>
+  <si>
+    <t>CL10A225KO8NNNC</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>4.7uF/16V</t>
+  </si>
+  <si>
+    <t>4.7uF ±10% 16V X5R</t>
+  </si>
+  <si>
+    <t>CL10A475KO8NNNC</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>4.7uF/25V</t>
+  </si>
+  <si>
+    <t>4.7uF ±10% 25V X5R</t>
+  </si>
+  <si>
+    <t>CL10A475KA8NQNC</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>10uF/6.3V</t>
+  </si>
+  <si>
+    <t>10uF ±10% 6.3V X5R</t>
+  </si>
+  <si>
+    <t>CL10A106KQ8NNNC</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>22uF/6.3V</t>
+  </si>
+  <si>
+    <t>22uF ±20% 6.3V X5R</t>
+  </si>
+  <si>
+    <t>muRata</t>
+  </si>
+  <si>
+    <t>GRM188R60J226MEA0D</t>
+  </si>
+  <si>
+    <t>https://atta.szlcsc.com/upload/public/pdf/source/20200305/C490387_23319AE8C154DEB24C505E6C82A8106A.pdf</t>
+  </si>
+  <si>
+    <t>C16</t>
+  </si>
+  <si>
+    <t>22uF/10V</t>
+  </si>
+  <si>
+    <t>22uF ±20% 10V X5R</t>
+  </si>
+  <si>
+    <t>CL10A226MP8NUNE</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>22uF/25V</t>
+  </si>
+  <si>
+    <t>22uF ±10% 25V X5R</t>
+  </si>
+  <si>
+    <t>C0805</t>
+  </si>
+  <si>
+    <t>CL21A226MAQNNNE</t>
+  </si>
+  <si>
     <t>D:\Cadence_LIB\Datasheet\Samsung 电容.pdf</t>
   </si>
   <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>CL05A105KA5NQNC</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>2.2uF/6.3V</t>
-  </si>
-  <si>
-    <t>2.2uF ±20% 6.3V X5R</t>
-  </si>
-  <si>
-    <t>CL05A225MQ5NSNC</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>2.2uF/16V</t>
-  </si>
-  <si>
-    <t>2.2uF ±10% 16V X5R</t>
-  </si>
-  <si>
-    <t>CL10A225KO8NNNC</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>4.7uF/16V</t>
-  </si>
-  <si>
-    <t>4.7uF ±10% 16V X5R</t>
-  </si>
-  <si>
-    <t>CL10A475KO8NNNC</t>
-  </si>
-  <si>
-    <t>C13</t>
-  </si>
-  <si>
-    <t>4.7uF/25V</t>
-  </si>
-  <si>
-    <t>4.7uF ±10% 25V X5R</t>
-  </si>
-  <si>
-    <t>CL10A475KA8NQNC</t>
-  </si>
-  <si>
-    <t>C14</t>
-  </si>
-  <si>
-    <t>10uF/6.3V</t>
-  </si>
-  <si>
-    <t>10uF ±10% 6.3V X5R</t>
-  </si>
-  <si>
-    <t>CL10A106KQ8NNNC</t>
-  </si>
-  <si>
-    <t>C15</t>
-  </si>
-  <si>
-    <t>22uF/25V</t>
-  </si>
-  <si>
-    <t>22uF ±10% 25V X5R</t>
-  </si>
-  <si>
-    <t>C0805</t>
-  </si>
-  <si>
-    <t>CL21A226MAQNNNE</t>
-  </si>
-  <si>
     <t>PN1</t>
   </si>
   <si>
@@ -1708,6 +1772,81 @@
   </si>
   <si>
     <t>https://atta.szlcsc.com/upload/public/pdf/source/20200618/C668623_A4B260DED7AC1949BAC6AE39E9F4CD80.pdf</t>
+  </si>
+  <si>
+    <t>Connector</t>
+  </si>
+  <si>
+    <t>1x2 2p0</t>
+  </si>
+  <si>
+    <t>2mm，1x2P，方针，针长度：3.9mm，塑高：2mm，端接针长度：2.8mm，黄铜，-40℃~+105℃ ，黑色</t>
+  </si>
+  <si>
+    <t>CON1x2</t>
+  </si>
+  <si>
+    <t>con1x2_2.0</t>
+  </si>
+  <si>
+    <t>2x2 2p0</t>
+  </si>
+  <si>
+    <t>2mm，2x2P，方针，针长度：3.9mm，塑高：2mm，端接针长度：2.8mm，黄铜，-40℃~+105℃ ，黑色</t>
+  </si>
+  <si>
+    <t>CON2x2</t>
+  </si>
+  <si>
+    <t>con2x2_2.0</t>
+  </si>
+  <si>
+    <t>1x3 2p54</t>
+  </si>
+  <si>
+    <t>2.54mm，1x3P，方针，针长度：3.9mm，塑高：2mm，端接针长度：2.8mm，黄铜，-40℃~+105℃ ，黑色</t>
+  </si>
+  <si>
+    <t>CON1x3</t>
+  </si>
+  <si>
+    <t>con1x3_2.54</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>2*4*3.5mm</t>
+  </si>
+  <si>
+    <t>12V 50mA 0.6W 卧贴 160gf 3万次 轻触开关</t>
+  </si>
+  <si>
+    <t>Switch_4legs</t>
+  </si>
+  <si>
+    <t>YXDZ</t>
+  </si>
+  <si>
+    <t>https://atta.szlcsc.com/upload/public/pdf/source/20230321/913029B0FB0CD391AF5EFD51697D8EC4.pdf</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>ANT</t>
+  </si>
+  <si>
+    <t>CA-C03</t>
+  </si>
+  <si>
+    <t>CA-C03 2.4G单极贴片天线，尺寸仅为 5.5*2.0*1.0mm，支持蓝牙、wifi (仅2.4G)、ZigBee等各种工作于2.4G的频段。</t>
+  </si>
+  <si>
+    <t>CrossAir</t>
+  </si>
+  <si>
+    <t>http://gzhwjdz.com/DownLoad/45858.html</t>
   </si>
 </sst>
 </file>
@@ -2419,29 +2558,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2451,6 +2590,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2469,26 +2611,41 @@
     <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2812,22 +2969,22 @@
   <dimension ref="A1:J113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="6" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="22.375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="50.625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="18" style="6" customWidth="1"/>
-    <col min="6" max="6" width="13.25" style="6" customWidth="1"/>
-    <col min="7" max="7" width="17" style="6" customWidth="1"/>
-    <col min="8" max="8" width="15.375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="9.375" style="6" customWidth="1"/>
-    <col min="10" max="10" width="50.625" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="16.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="50.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="50.625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1" spans="1:10">
@@ -2872,7 +3029,7 @@
       <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -2890,7 +3047,7 @@
       <c r="I2" s="3">
         <v>0.1</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2904,7 +3061,7 @@
       <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -2922,7 +3079,7 @@
       <c r="I3" s="3">
         <v>0.2</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2936,7 +3093,7 @@
       <c r="C4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -2954,7 +3111,7 @@
       <c r="I4" s="3">
         <v>0.22</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2968,7 +3125,7 @@
       <c r="C5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -2986,7 +3143,7 @@
       <c r="I5" s="3">
         <v>0.1</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3000,7 +3157,7 @@
       <c r="C6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -3018,7 +3175,7 @@
       <c r="I6" s="3">
         <v>0.3</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3032,7 +3189,7 @@
       <c r="C7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -3050,7 +3207,7 @@
       <c r="I7" s="3">
         <v>0.13</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3064,7 +3221,7 @@
       <c r="C8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -3082,7 +3239,7 @@
       <c r="I8" s="3">
         <v>0.2</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="7" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3096,7 +3253,7 @@
       <c r="C9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>46</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -3114,7 +3271,7 @@
       <c r="I9" s="3">
         <v>0.15</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3128,7 +3285,7 @@
       <c r="C10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -3146,7 +3303,7 @@
       <c r="I10" s="3">
         <v>0.11</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="7" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3160,7 +3317,7 @@
       <c r="C11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -3178,7 +3335,7 @@
       <c r="I11" s="3">
         <v>0.14</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3192,7 +3349,7 @@
       <c r="C12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -3210,7 +3367,7 @@
       <c r="I12" s="3">
         <v>0.18</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="7" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3224,7 +3381,7 @@
       <c r="C13" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="4" t="s">
         <v>62</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -3242,7 +3399,7 @@
       <c r="I13" s="3">
         <v>0.15</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3256,7 +3413,7 @@
       <c r="C14" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="4" t="s">
         <v>66</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -3274,7 +3431,7 @@
       <c r="I14" s="3">
         <v>0.2</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="5" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3288,7 +3445,7 @@
       <c r="C15" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="4" t="s">
         <v>70</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -3306,7 +3463,7 @@
       <c r="I15" s="3">
         <v>0.26</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="5" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3414,13 +3571,109 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="16.25" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="50.625" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="15.375" customWidth="1"/>
+    <col min="9" max="9" width="9.375" customWidth="1"/>
+    <col min="10" max="10" width="50.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="33" spans="1:10">
+      <c r="A2" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>607</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1" display="http://gzhwjdz.com/DownLoad/45858.html" tooltip="http://gzhwjdz.com/DownLoad/45858.html"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3437,7 +3690,7 @@
     <col min="10" max="10" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" ht="15" spans="1:10">
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3469,729 +3722,798 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="1" ht="49.5" spans="1:10">
+    <row r="2" s="1" customFormat="1" ht="49.5" spans="1:10">
       <c r="A2" s="10" t="s">
         <v>75</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="18"/>
+      <c r="G2" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="J2" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I2" s="10">
-        <v>0.45</v>
-      </c>
-      <c r="J2" s="21" t="s">
+    </row>
+    <row r="3" s="1" customFormat="1" ht="33" spans="1:10">
+      <c r="A3" s="10" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="3" s="6" customFormat="1" ht="49.5" spans="1:10">
-      <c r="A3" s="10" t="s">
-        <v>83</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="E3" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="G3" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>84</v>
+      <c r="H3" s="18" t="s">
+        <v>87</v>
       </c>
       <c r="I3" s="10">
-        <v>1.15</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" s="6" customFormat="1" ht="33" spans="1:10">
+        <v>2</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="33" spans="1:10">
       <c r="A4" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="17" t="s">
+      <c r="C4" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="E4" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>89</v>
+      <c r="H4" s="18" t="s">
+        <v>90</v>
       </c>
       <c r="I4" s="10">
-        <v>0.33</v>
-      </c>
-      <c r="J4" s="21" t="s">
+        <v>0.23</v>
+      </c>
+      <c r="J4" s="25" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="5" s="6" customFormat="1" ht="33" spans="1:10">
+    <row r="5" s="1" customFormat="1" ht="49.5" spans="1:10">
       <c r="A5" s="10" t="s">
         <v>95</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="C5" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="49.5" spans="1:10">
+      <c r="A6" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="H5" s="10" t="s">
+      <c r="C6" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="I6" s="10">
+        <v>1.15</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="33" spans="1:10">
+      <c r="A7" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="I5" s="10">
+      <c r="C7" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0.33</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="33" spans="1:10">
+      <c r="A8" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="I8" s="10">
         <v>1.1</v>
       </c>
-      <c r="J5" s="22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" s="6" customFormat="1" ht="33" spans="1:10">
-      <c r="A6" s="10" t="s">
+      <c r="J8" s="26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="33" spans="1:10">
+      <c r="A9" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="I6" s="10">
+      <c r="G9" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="I9" s="21">
         <v>0.57</v>
       </c>
-      <c r="J6" s="22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" s="6" customFormat="1" ht="33" spans="1:10">
-      <c r="A7" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="I7" s="10">
+      <c r="J9" s="26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="33" spans="1:10">
+      <c r="A10" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="I10" s="21">
         <v>0.75</v>
       </c>
-      <c r="J7" s="21" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" s="6" customFormat="1" ht="33" spans="1:10">
-      <c r="A8" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" s="17" t="s">
+      <c r="J10" s="25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="33" spans="1:10">
+      <c r="A11" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="I8" s="10">
+      <c r="H11" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="I11" s="21">
         <v>0.55</v>
       </c>
-      <c r="J8" s="21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" s="6" customFormat="1" ht="49.5" spans="1:10">
-      <c r="A9" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="I9" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="J9" s="22" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" s="6" customFormat="1" ht="33" spans="1:10">
-      <c r="A10" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="I10" s="18">
-        <v>2.2</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" s="6" customFormat="1" ht="66" spans="1:10">
-      <c r="A11" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="I11" s="18">
-        <v>1.2</v>
-      </c>
-      <c r="J11" s="21" t="s">
+      <c r="J11" s="25" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="12" s="6" customFormat="1" ht="49.5" spans="1:10">
+    <row r="12" s="1" customFormat="1" ht="33" spans="1:10">
       <c r="A12" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>124</v>
+      <c r="B12" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="4" t="s">
         <v>136</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="H12" s="3" t="s">
+    </row>
+    <row r="13" s="1" customFormat="1" ht="49.5" spans="1:10">
+      <c r="A13" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="I12" s="18">
+      <c r="B13" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="I13" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="J13" s="25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="66" spans="1:10">
+      <c r="A14" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I14" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="J14" s="25" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="82.5" spans="1:10">
+      <c r="A15" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="I15" s="3">
+        <v>20</v>
+      </c>
+      <c r="J15" s="28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="33" spans="1:10">
+      <c r="A16" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="I16" s="11">
+        <v>2.2</v>
+      </c>
+      <c r="J16" s="26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="66" spans="1:10">
+      <c r="A17" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I17" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="J17" s="25" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="49.5" spans="1:10">
+      <c r="A18" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I18" s="11">
         <v>5.3</v>
       </c>
-      <c r="J12" s="21" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" s="6" customFormat="1" ht="49.5" spans="1:10">
-      <c r="A13" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="I13" s="18">
+      <c r="J18" s="25" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="82.5" spans="1:10">
+      <c r="A19" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="I19" s="11">
+        <v>6</v>
+      </c>
+      <c r="J19" s="29" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="49.5" spans="1:10">
+      <c r="A20" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="I20" s="11">
         <v>1.95</v>
       </c>
-      <c r="J13" s="21" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="14" s="6" customFormat="1" ht="49.5" spans="1:10">
-      <c r="A14" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="J20" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="49.5" spans="1:10">
+      <c r="A21" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="I21" s="3">
         <v>3.2</v>
       </c>
-      <c r="J14" s="21" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" s="6" customFormat="1" ht="33" spans="1:10">
-      <c r="A15" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="I15" s="18">
+      <c r="J21" s="25" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="33" spans="1:10">
+      <c r="A22" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J22" s="26" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="33" spans="1:10">
+      <c r="A23" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J23" s="26" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24" ht="49.5" spans="1:10">
+      <c r="A24" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="I24" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="J24" s="26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" ht="33" spans="1:10">
+      <c r="A25" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="I25" s="11">
         <v>0.6</v>
       </c>
-      <c r="J15" s="21" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="16" s="6" customFormat="1" ht="49.5" spans="1:10">
-      <c r="A16" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="I16" s="18">
-        <v>5.1</v>
-      </c>
-      <c r="J16" s="21" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="17" s="6" customFormat="1" ht="33" spans="1:10">
-      <c r="A17" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="I17" s="18">
-        <v>2</v>
-      </c>
-      <c r="J17" s="21" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="18" s="6" customFormat="1" ht="33" spans="1:10">
-      <c r="A18" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="23" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="19" s="6" customFormat="1" ht="33" spans="1:10">
-      <c r="A19" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="I19" s="18">
-        <v>0.23</v>
-      </c>
-      <c r="J19" s="21" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="20" s="6" customFormat="1" ht="33" spans="1:10">
-      <c r="A20" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="J20" s="22" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="21" s="6" customFormat="1" ht="33" spans="1:10">
-      <c r="A21" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="J21" s="22" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="22" ht="49.5" spans="1:10">
-      <c r="A22" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="I22" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="J22" s="21" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="23" ht="66" spans="1:10">
-      <c r="A23" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="I23" s="3">
-        <v>2.9</v>
-      </c>
-      <c r="J23" s="21" t="s">
-        <v>206</v>
+      <c r="J25" s="25" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:J23">
+    <sortCondition ref="B2"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="J4" r:id="rId1" display="https://www.semiee.com/file/SILERGY/SILERGY-SY8088.pdf" tooltip="https://www.semiee.com/file/SILERGY/SILERGY-SY8088.pdf"/>
-    <hyperlink ref="J7" r:id="rId2" display="https://www.semiee.com/file/SILERGY/SILERGY-SY8113BADC.pdf" tooltip="https://www.semiee.com/file/SILERGY/SILERGY-SY8113BADC.pdf"/>
-    <hyperlink ref="J5" r:id="rId3" display="https://www.semiee.com/file/SILERGY/SILERGY-SY8201ABC.pdf" tooltip="https://www.semiee.com/file/SILERGY/SILERGY-SY8201ABC.pdf"/>
-    <hyperlink ref="J6" r:id="rId4" display="https://www.semiee.com/file/SILERGY/SILERGY-SY8120B1.pdf" tooltip="https://www.semiee.com/file/SILERGY/SILERGY-SY8120B1.pdf"/>
-    <hyperlink ref="J8" r:id="rId5" display="https://www.semiee.com/file/Source10/silergy-SY8089AAAC.pdf" tooltip="https://www.semiee.com/file/Source10/silergy-SY8089AAAC.pdf"/>
-    <hyperlink ref="J2" r:id="rId6" display="https://www.semiee.com/file/TI/TI-TPS563201.pdf" tooltip="https://www.semiee.com/file/TI/TI-TPS563201.pdf"/>
-    <hyperlink ref="J3" r:id="rId7" display="https://www.semiee.com/file/TI/TI-TPS562200.pdf" tooltip="https://www.semiee.com/file/TI/TI-TPS562200.pdf"/>
-    <hyperlink ref="J9" r:id="rId8" display="https://www.richtek.com/assets/product_file/RT9193/DS9193-18.pdf"/>
-    <hyperlink ref="J11" r:id="rId9" display="https://www.semiee.com/file/WCH/WCH-CH224.pdf"/>
-    <hyperlink ref="J12" r:id="rId10" display="https://www.semiee.com/file/EOL2/Realtek-ALC5616-CGT.pdf"/>
-    <hyperlink ref="J13" r:id="rId11" display="https://www.semiee.com/file/TI/TI-TXB0108.pdf"/>
-    <hyperlink ref="J14" r:id="rId12" display="https://www.semiee.com/file/Hynetek/Hynetek-HUSB238.pdf"/>
-    <hyperlink ref="J15" r:id="rId13" display="https://www.semiee.com/file/TI/TI-LM358.pdf"/>
-    <hyperlink ref="J16" r:id="rId14" display="https://www.semiee.com/file/SouthChip/SouthChip-SC8906.pdf"/>
-    <hyperlink ref="J17" r:id="rId15" display="https://www.semiee.com/file/SGMICRO/SGMICRO-SGM40561.pdf"/>
-    <hyperlink ref="J20" r:id="rId16" display="https://www.semiee.com/file/TI/TI-INA180.pdf"/>
-    <hyperlink ref="J21" r:id="rId16" display="https://www.semiee.com/file/TI/TI-INA180.pdf"/>
-    <hyperlink ref="J22" r:id="rId17" display="https://www.semiee.com/file/FREQCHIP/FREQCHIP-FR8016HA.pdf"/>
-    <hyperlink ref="J23" r:id="rId18" display="https://www.semiee.com/file/Silan/Silan-SC7A20.pdf"/>
-    <hyperlink ref="J19" r:id="rId19" display="https://atta.szlcsc.com/upload/public/pdf/source/20211011/DD9DB39E30D67DDF115F79B4376A27FF.pdf"/>
-    <hyperlink ref="J18" r:id="rId20" display="https://www.semiee.com/file/SILERGY/SILERGY-SY9701ADPC.pdf"/>
+    <hyperlink ref="J7" r:id="rId1" display="https://www.semiee.com/file/SILERGY/SILERGY-SY8088.pdf" tooltip="https://www.semiee.com/file/SILERGY/SILERGY-SY8088.pdf"/>
+    <hyperlink ref="J10" r:id="rId2" display="https://www.semiee.com/file/SILERGY/SILERGY-SY8113BADC.pdf" tooltip="https://www.semiee.com/file/SILERGY/SILERGY-SY8113BADC.pdf"/>
+    <hyperlink ref="J8" r:id="rId3" display="https://www.semiee.com/file/SILERGY/SILERGY-SY8201ABC.pdf" tooltip="https://www.semiee.com/file/SILERGY/SILERGY-SY8201ABC.pdf"/>
+    <hyperlink ref="J9" r:id="rId4" display="https://www.semiee.com/file/SILERGY/SILERGY-SY8120B1.pdf" tooltip="https://www.semiee.com/file/SILERGY/SILERGY-SY8120B1.pdf"/>
+    <hyperlink ref="J11" r:id="rId5" display="https://www.semiee.com/file/Source10/silergy-SY8089AAAC.pdf" tooltip="https://www.semiee.com/file/Source10/silergy-SY8089AAAC.pdf"/>
+    <hyperlink ref="J5" r:id="rId6" display="https://www.semiee.com/file/TI/TI-TPS563201.pdf" tooltip="https://www.semiee.com/file/TI/TI-TPS563201.pdf"/>
+    <hyperlink ref="J6" r:id="rId7" display="https://www.semiee.com/file/TI/TI-TPS562200.pdf" tooltip="https://www.semiee.com/file/TI/TI-TPS562200.pdf"/>
+    <hyperlink ref="J24" r:id="rId8" display="https://www.richtek.com/assets/product_file/RT9193/DS9193-18.pdf"/>
+    <hyperlink ref="J17" r:id="rId9" display="https://www.semiee.com/file/WCH/WCH-CH224.pdf"/>
+    <hyperlink ref="J18" r:id="rId10" display="https://www.semiee.com/file/EOL2/Realtek-ALC5616-CGT.pdf"/>
+    <hyperlink ref="J20" r:id="rId11" display="https://www.semiee.com/file/TI/TI-TXB0108.pdf"/>
+    <hyperlink ref="J21" r:id="rId12" display="https://www.semiee.com/file/Hynetek/Hynetek-HUSB238.pdf"/>
+    <hyperlink ref="J25" r:id="rId13" display="https://www.semiee.com/file/TI/TI-LM358.pdf"/>
+    <hyperlink ref="J2" r:id="rId14" display="https://www.semiee.com/file/SouthChip/SouthChip-SC8906.pdf"/>
+    <hyperlink ref="J3" r:id="rId15" display="https://www.semiee.com/file/SGMICRO/SGMICRO-SGM40561.pdf"/>
+    <hyperlink ref="J22" r:id="rId16" display="https://www.semiee.com/file/TI/TI-INA180.pdf"/>
+    <hyperlink ref="J23" r:id="rId16" display="https://www.semiee.com/file/TI/TI-INA180.pdf"/>
+    <hyperlink ref="J13" r:id="rId17" display="https://www.semiee.com/file/FREQCHIP/FREQCHIP-FR8016HA.pdf"/>
+    <hyperlink ref="J14" r:id="rId18" display="https://www.semiee.com/file/Silan/Silan-SC7A20.pdf"/>
+    <hyperlink ref="J4" r:id="rId19" display="https://atta.szlcsc.com/upload/public/pdf/source/20211011/DD9DB39E30D67DDF115F79B4376A27FF.pdf"/>
+    <hyperlink ref="J12" r:id="rId20" display="https://www.semiee.com/file/SILERGY/SILERGY-SY9701ADPC.pdf"/>
+    <hyperlink ref="J15" r:id="rId21" display="https://www.semiee.com/file/Espressif/Espressif-ESP32-PICO-D4.pdf" tooltip="https://www.semiee.com/file/Espressif/Espressif-ESP32-PICO-D4.pdf"/>
+    <hyperlink ref="J19" r:id="rId22" display="https://www.ti.com/lit/ds/symlink/tlv320aic3101.pdf?ts=1698998478028&amp;ref_url=https%253A%252F%252Fwww.ti.com%252Fproduct%252FTLV320AIC3101%253FkeyMatch%253DTLV320AIC3101IRHBR%2526tisearch%253DSearch-EN-Everything" tooltip="https://www.ti.com/lit/ds/symlink/tlv320aic3101.pdf?ts=1698998478028&amp;ref_url=https%253A%252F%252Fwww.ti.com%252Fproduct%252FTLV320AIC3101%253FkeyMatch%253DTLV320AIC3101IRHBR%2526tisearch%253DSearch-EN-Everything"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4221,53 +4543,53 @@
     <col min="10" max="10" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A1" s="13" t="s">
+    <row r="1" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
-      <c r="A2" s="16" t="s">
-        <v>207</v>
+    <row r="2" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
+      <c r="A2" s="17" t="s">
+        <v>217</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>210</v>
+        <v>219</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>220</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>14</v>
@@ -4276,30 +4598,30 @@
         <v>15</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="I2" s="3">
         <v>0.23</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="3" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
-      <c r="A3" s="16" t="s">
-        <v>213</v>
+      <c r="J2" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
+      <c r="A3" s="17" t="s">
+        <v>223</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>215</v>
+        <v>224</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>225</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>14</v>
@@ -4308,94 +4630,94 @@
         <v>15</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="I3" s="3">
         <v>0.23</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="4" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
-      <c r="A4" s="16" t="s">
-        <v>217</v>
+      <c r="J3" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
+      <c r="A4" s="17" t="s">
+        <v>227</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>219</v>
+        <v>228</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>229</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="I4" s="3">
         <v>0.18</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="5" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
-      <c r="A5" s="16" t="s">
-        <v>222</v>
+      <c r="J4" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
+      <c r="A5" s="17" t="s">
+        <v>232</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>224</v>
+        <v>233</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="I5" s="3">
         <v>0.18</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
+      <c r="A6" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="6" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
-      <c r="A6" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>14</v>
@@ -4404,30 +4726,30 @@
         <v>15</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="I6" s="3">
         <v>0.23</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="7" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
-      <c r="A7" s="16" t="s">
-        <v>228</v>
+      <c r="J6" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
+      <c r="A7" s="17" t="s">
+        <v>238</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>230</v>
+        <v>239</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>240</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>14</v>
@@ -4436,94 +4758,94 @@
         <v>15</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="I7" s="3">
         <v>0.23</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="8" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
-      <c r="A8" s="16" t="s">
-        <v>231</v>
+      <c r="J7" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
+      <c r="A8" s="17" t="s">
+        <v>241</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>233</v>
+        <v>242</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>243</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="I8" s="3">
         <v>0.18</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="9" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
-      <c r="A9" s="16" t="s">
-        <v>234</v>
+      <c r="J8" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
+      <c r="A9" s="17" t="s">
+        <v>244</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>236</v>
+        <v>245</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>246</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="I9" s="3">
         <v>0.18</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
+      <c r="A10" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="10" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
-      <c r="A10" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>14</v>
@@ -4532,30 +4854,30 @@
         <v>15</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="I10" s="3">
         <v>0.23</v>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="11" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
-      <c r="A11" s="16" t="s">
-        <v>240</v>
+      <c r="J10" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
+      <c r="A11" s="17" t="s">
+        <v>250</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>242</v>
+        <v>251</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>252</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>14</v>
@@ -4564,94 +4886,94 @@
         <v>15</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="I11" s="3">
         <v>0.23</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="12" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
-      <c r="A12" s="16" t="s">
-        <v>243</v>
+      <c r="J11" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
+      <c r="A12" s="17" t="s">
+        <v>253</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>245</v>
+        <v>254</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>255</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="I12" s="3">
         <v>0.18</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="13" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
-      <c r="A13" s="16" t="s">
-        <v>246</v>
+      <c r="J12" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
+      <c r="A13" s="17" t="s">
+        <v>256</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>248</v>
+        <v>257</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>258</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="I13" s="3">
         <v>0.18</v>
       </c>
-      <c r="J13" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="14" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
-      <c r="A14" s="16" t="s">
-        <v>249</v>
+      <c r="J13" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
+      <c r="A14" s="17" t="s">
+        <v>259</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>252</v>
+        <v>261</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>262</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>71</v>
@@ -4660,30 +4982,30 @@
         <v>36</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="I14" s="3">
         <v>0.14</v>
       </c>
-      <c r="J14" s="4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="15" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
-      <c r="A15" s="16" t="s">
-        <v>256</v>
+      <c r="J14" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
+      <c r="A15" s="17" t="s">
+        <v>266</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>258</v>
+        <v>267</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>268</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>71</v>
@@ -4692,397 +5014,397 @@
         <v>36</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="I15" s="3">
         <v>0.14</v>
       </c>
-      <c r="J15" s="5" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="16" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
-      <c r="A16" s="16" t="s">
-        <v>261</v>
+      <c r="J15" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
+      <c r="A16" s="17" t="s">
+        <v>271</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>264</v>
+        <v>273</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>274</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="I16" s="3">
         <v>0.74</v>
       </c>
-      <c r="J16" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="17" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
-      <c r="A17" s="16" t="s">
-        <v>269</v>
+      <c r="J16" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
+      <c r="A17" s="17" t="s">
+        <v>279</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>271</v>
+        <v>280</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>281</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="I17" s="3">
         <v>0.35</v>
       </c>
-      <c r="J17" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="18" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
-      <c r="A18" s="16" t="s">
-        <v>273</v>
+      <c r="J17" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
+      <c r="A18" s="17" t="s">
+        <v>283</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D18" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>265</v>
-      </c>
       <c r="G18" s="3" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="I18" s="3">
         <v>0.26</v>
       </c>
-      <c r="J18" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="19" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
-      <c r="A19" s="16" t="s">
-        <v>277</v>
+      <c r="J18" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
+      <c r="A19" s="17" t="s">
+        <v>287</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>279</v>
+        <v>288</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>289</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="I19" s="3">
         <v>0.35</v>
       </c>
-      <c r="J19" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="20" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
-      <c r="A20" s="16" t="s">
-        <v>281</v>
+      <c r="J19" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
+      <c r="A20" s="17" t="s">
+        <v>291</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>283</v>
+        <v>292</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>293</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="I20" s="3">
         <v>0.24</v>
       </c>
-      <c r="J20" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="21" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
-      <c r="A21" s="16" t="s">
-        <v>285</v>
+      <c r="J20" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
+      <c r="A21" s="17" t="s">
+        <v>295</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>287</v>
+        <v>296</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>297</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="I21" s="3">
         <v>0.4</v>
       </c>
-      <c r="J21" s="4" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="22" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
-      <c r="A22" s="16" t="s">
-        <v>289</v>
+      <c r="J21" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
+      <c r="A22" s="17" t="s">
+        <v>299</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>291</v>
+        <v>300</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>301</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="I22" s="3">
         <v>0.3</v>
       </c>
-      <c r="J22" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="23" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
-      <c r="A23" s="16" t="s">
-        <v>293</v>
+      <c r="J22" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
+      <c r="A23" s="17" t="s">
+        <v>303</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>295</v>
+        <v>304</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>305</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="I23" s="3">
         <v>0.39</v>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="24" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
-      <c r="A24" s="16" t="s">
-        <v>299</v>
+      <c r="J23" s="5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
+      <c r="A24" s="17" t="s">
+        <v>309</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>301</v>
+        <v>310</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>311</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="I24" s="3">
         <v>0.39</v>
       </c>
-      <c r="J24" s="5" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="25" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
-      <c r="A25" s="16" t="s">
-        <v>303</v>
+      <c r="J24" s="7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
+      <c r="A25" s="17" t="s">
+        <v>313</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>315</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="I25" s="3">
         <v>0.41</v>
       </c>
-      <c r="J25" s="4" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="26" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
-      <c r="A26" s="16" t="s">
-        <v>309</v>
+      <c r="J25" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
+      <c r="A26" s="17" t="s">
+        <v>319</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>311</v>
+        <v>320</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>321</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="I26" s="3">
         <v>0.38</v>
       </c>
-      <c r="J26" s="5" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="27" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
-      <c r="A27" s="16" t="s">
-        <v>313</v>
+      <c r="J26" s="7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
+      <c r="A27" s="17" t="s">
+        <v>323</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>315</v>
+        <v>324</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>325</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="I27" s="3">
         <v>0.31</v>
       </c>
-      <c r="J27" s="5" t="s">
-        <v>308</v>
+      <c r="J27" s="7" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -5155,356 +5477,356 @@
     <col min="10" max="10" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A1" s="13" t="s">
+    <row r="1" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
+    <row r="2" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>320</v>
+        <v>329</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>330</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="I2" s="3">
         <v>0.23</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="3" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
+      <c r="J2" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>329</v>
+        <v>338</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>339</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="I3" s="3">
         <v>0.47</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="4" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
+      <c r="J3" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>336</v>
+        <v>345</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>346</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="I4" s="3">
         <v>0.47</v>
       </c>
-      <c r="J4" s="15" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="5" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
+      <c r="J4" s="16" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A5" s="3" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="D5" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>330</v>
-      </c>
       <c r="G5" s="3" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="I5" s="3">
         <v>0.47</v>
       </c>
-      <c r="J5" s="15" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="6" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
+      <c r="J5" s="16" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>344</v>
+        <v>353</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>354</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="I6" s="3">
         <v>0.42</v>
       </c>
-      <c r="J6" s="15" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="7" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
+      <c r="J6" s="16" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A7" s="3" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>349</v>
+        <v>358</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>359</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="I7" s="3">
         <v>0.42</v>
       </c>
-      <c r="J7" s="15" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="8" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
+      <c r="J7" s="16" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A8" s="3" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>353</v>
+        <v>362</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>363</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="I8" s="3">
         <v>0.04</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="9" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
+      <c r="J8" s="5" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A9" s="3" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>360</v>
+        <v>369</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>370</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="I9" s="3">
         <v>0.47</v>
       </c>
-      <c r="J9" s="15" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="10" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
+      <c r="J9" s="16" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>364</v>
+        <v>373</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>374</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="I10" s="3">
         <v>0.9</v>
       </c>
-      <c r="J10" s="15" t="s">
-        <v>333</v>
+      <c r="J10" s="16" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="11" ht="28.5" spans="1:10">
       <c r="A11" s="3" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>370</v>
+        <v>379</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>380</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="I11" s="3">
         <v>0.031</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>374</v>
+      <c r="J11" s="5" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -5548,7 +5870,7 @@
     <col min="10" max="10" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+    <row r="1" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5580,420 +5902,420 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+    <row r="2" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A2" s="10" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="I2" s="10">
         <v>0.002</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="3" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A3" s="10" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="I3" s="10">
         <v>0.002</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="4" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A4" s="10" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>379</v>
-      </c>
       <c r="G4" s="10" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="I4" s="10">
         <v>0.002</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="5" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A5" s="10" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="I5" s="10">
         <v>0.002</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="6" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A6" s="10" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="I6" s="10">
         <v>0.002</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="7" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A7" s="10" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="I7" s="10">
         <v>0.002</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="8" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A8" s="10" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="I8" s="10">
         <v>0.002</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="9" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A9" s="10" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="I9" s="10">
         <v>0.002</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="10" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A10" s="10" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="I10" s="10">
         <v>0.002</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="11" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A11" s="10" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="I11" s="10">
         <v>0.002</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="12" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A12" s="10" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="I12" s="10">
         <v>0.002</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="13" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A13" s="10" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="I13" s="10">
         <v>0.002</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="14" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A14" s="10" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="I14" s="10">
         <v>0.1</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -6008,10 +6330,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6028,7 +6350,7 @@
     <col min="10" max="10" width="45.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+    <row r="1" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6060,491 +6382,558 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+    <row r="2" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A2" s="10" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="I2" s="10">
         <v>0.005</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="3" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A3" s="10" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="I3" s="10">
         <v>0.035</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="12" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A4" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="4" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>438</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>439</v>
-      </c>
       <c r="H4" s="10" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="I4" s="10">
         <v>0.02</v>
       </c>
-      <c r="J4" s="11" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="5" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+      <c r="J4" s="12" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A5" s="10" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="I5" s="10">
         <v>0.004</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="6" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A6" s="10" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="I6" s="12">
+        <v>469</v>
+      </c>
+      <c r="I6" s="13">
         <v>0.017</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="7" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A7" s="10" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="I7" s="10">
         <v>0.018</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="8" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A8" s="10" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="I8" s="10">
         <v>0.234</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="9" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A9" s="10" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="I9" s="12">
+        <v>481</v>
+      </c>
+      <c r="I9" s="13">
         <v>0.02</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="10" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A10" s="10" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="I10" s="12">
+        <v>484</v>
+      </c>
+      <c r="I10" s="13">
         <v>0.02</v>
       </c>
-      <c r="J10" s="10" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="11" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+      <c r="J10" s="12" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A11" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A12" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>477</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>438</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="I11" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="12" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A12" s="10" t="s">
-        <v>479</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="C12" s="10" t="s">
+      <c r="G12" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>481</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>470</v>
-      </c>
       <c r="H12" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="I12" s="13">
+        <v>0.03</v>
+      </c>
+      <c r="J12" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="I12" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="13" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+    </row>
+    <row r="13" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A13" s="10" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="I13" s="12">
+        <v>496</v>
+      </c>
+      <c r="I13" s="13">
         <v>0.05</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="14" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A14" s="10" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="I14" s="12">
+        <v>500</v>
+      </c>
+      <c r="I14" s="13">
         <v>0.1</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="15" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A15" s="10" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="I15" s="10">
         <v>0.036</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="16" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A16" s="10" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>498</v>
+        <v>475</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="I16" s="12">
+        <v>508</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="I16" s="13">
+        <v>0.07</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A17" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="I17" s="13">
+        <v>0.08</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A18" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="I18" s="13">
         <v>0.16</v>
       </c>
-      <c r="J16" s="10" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="17" s="6" customFormat="1"/>
+      <c r="J18" s="10" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J3" r:id="rId1" display="https://item.szlcsc.com/270576.html"/>
     <hyperlink ref="J4" r:id="rId2" display="https://atta.szlcsc.com/upload/public/pdf/source/20200415/C513681_5027FF1861A780E76D33CC24CC34CA99.pdf"/>
+    <hyperlink ref="J16" r:id="rId3" display="https://atta.szlcsc.com/upload/public/pdf/source/20200305/C490387_23319AE8C154DEB24C505E6C82A8106A.pdf"/>
+    <hyperlink ref="J17" r:id="rId4" display="https://atta.szlcsc.com/upload/public/pdf/source/20160218/1457707763339.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20160218/1457707763339.pdf"/>
+    <hyperlink ref="J10" r:id="rId4" display="https://atta.szlcsc.com/upload/public/pdf/source/20160218/1457707763339.pdf"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -6574,7 +6963,7 @@
     <col min="10" max="10" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+    <row r="1" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6606,164 +6995,164 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
+    <row r="2" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>500</v>
+        <v>521</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>501</v>
+        <v>522</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>503</v>
+        <v>523</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>524</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>501</v>
+        <v>522</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>504</v>
+        <v>525</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>505</v>
+        <v>526</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>502</v>
+        <v>523</v>
       </c>
       <c r="I2" s="3">
         <v>0.1</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="3" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>507</v>
+        <v>528</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>508</v>
+        <v>529</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>510</v>
+        <v>530</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>531</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>511</v>
+        <v>532</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>504</v>
+        <v>525</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>36</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>509</v>
+        <v>530</v>
       </c>
       <c r="I3" s="3">
         <v>0.1</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="4" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>513</v>
+        <v>534</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>508</v>
+        <v>529</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>515</v>
+        <v>535</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>536</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>508</v>
+        <v>529</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>504</v>
+        <v>525</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>505</v>
+        <v>526</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>514</v>
+        <v>535</v>
       </c>
       <c r="I4" s="3">
         <v>0.1</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="5" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A5" s="3" t="s">
-        <v>517</v>
+        <v>538</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>518</v>
+        <v>539</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>520</v>
+        <v>540</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>541</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>521</v>
+        <v>542</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>504</v>
+        <v>525</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>36</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>519</v>
+        <v>540</v>
       </c>
       <c r="I5" s="3">
         <v>0.1</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="6" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>523</v>
+        <v>544</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>524</v>
+        <v>545</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>525</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>504</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>36</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>525</v>
+        <v>546</v>
       </c>
       <c r="I6" s="3">
         <v>0.1</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>528</v>
+        <v>549</v>
       </c>
     </row>
   </sheetData>
@@ -6802,7 +7191,7 @@
     <col min="10" max="10" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+    <row r="1" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6836,66 +7225,66 @@
     </row>
     <row r="2" ht="33" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>529</v>
+        <v>550</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>530</v>
+        <v>551</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>532</v>
+        <v>552</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>553</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>533</v>
+        <v>554</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>534</v>
+        <v>555</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>535</v>
+        <v>556</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>536</v>
+        <v>557</v>
       </c>
       <c r="I2" s="3">
         <v>1.5</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>537</v>
+        <v>558</v>
       </c>
     </row>
     <row r="3" ht="33" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>538</v>
+        <v>559</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>530</v>
+        <v>551</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>540</v>
+        <v>560</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>561</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>541</v>
+        <v>562</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>542</v>
+        <v>563</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>543</v>
+        <v>564</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>544</v>
+        <v>565</v>
       </c>
       <c r="I3" s="3">
         <v>0.5</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>545</v>
+        <v>566</v>
       </c>
     </row>
   </sheetData>
@@ -6911,13 +7300,13 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="16.25" customWidth="1"/>
     <col min="2" max="2" width="13.25" customWidth="1"/>
@@ -6931,7 +7320,7 @@
     <col min="10" max="10" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+    <row r="1" s="6" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6963,74 +7352,175 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
+    <row r="2" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>546</v>
+        <v>567</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>547</v>
+        <v>568</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>548</v>
+        <v>569</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>549</v>
+        <v>570</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>550</v>
+        <v>571</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>551</v>
+        <v>572</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>552</v>
+        <v>573</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>553</v>
+        <v>574</v>
       </c>
       <c r="I2" s="3">
         <v>0.34</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
+      <c r="J2" s="5" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="3" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>555</v>
+        <v>576</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>547</v>
+        <v>568</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>556</v>
+        <v>577</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>557</v>
+        <v>578</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>558</v>
+        <v>579</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>559</v>
+        <v>580</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>552</v>
+        <v>573</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>560</v>
+        <v>581</v>
       </c>
       <c r="I3" s="3">
         <v>0.22</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>561</v>
+      <c r="J3" s="7" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="4" s="6" customFormat="1" ht="33" spans="1:10">
+      <c r="A4" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" s="6" customFormat="1" ht="33" spans="1:10">
+      <c r="A5" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" s="6" customFormat="1" ht="49.5" spans="1:10">
+      <c r="A6" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" s="6" customFormat="1" ht="28.5" spans="1:10">
+      <c r="A7" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>601</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" display="https://atta.szlcsc.com/upload/public/pdf/source/20211123/39B17C16241EAC15C5E277BDA434118E.pdf"/>
     <hyperlink ref="J3" r:id="rId2" display="https://atta.szlcsc.com/upload/public/pdf/source/20200618/C668623_A4B260DED7AC1949BAC6AE39E9F4CD80.pdf"/>
+    <hyperlink ref="J7" r:id="rId3" display="https://atta.szlcsc.com/upload/public/pdf/source/20230321/913029B0FB0CD391AF5EFD51697D8EC4.pdf"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Excel_CIS.xlsx
+++ b/Excel_CIS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12525" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12525" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="DIODE" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="658">
   <si>
     <t>Part Number</t>
   </si>
@@ -559,7 +559,7 @@
     <t>QFN33P50_500X500X100L40X25T345</t>
   </si>
   <si>
-    <t xml:space="preserve">TLV320AIC3101IRHBR </t>
+    <t>TLV320AIC3101IRHBR</t>
   </si>
   <si>
     <t>https://www.ti.com/lit/ds/symlink/tlv320aic3101.pdf?ts=1698998478028&amp;ref_url=https%253A%252F%252Fwww.ti.com%252Fproduct%252FTLV320AIC3101%253FkeyMatch%253DTLV320AIC3101IRHBR%2526tisearch%253DSearch-EN-Everything</t>
@@ -640,7 +640,7 @@
     <t>RT9193-1.8</t>
   </si>
   <si>
-    <t>低压超低噪声差线性稳压器,2.5-5.5Vin,Vdrop=0.22V@0.3A, 带使能引脚，过热保护，限流保护，停机模式时&lt;0.01μA 待机电流，-40_120℃</t>
+    <t>低压超低噪声差线性稳压器,2.5-5.5Vin,1.8Vout,Vdrop=0.22V@0.3A, 带使能引脚，过热保护，限流保护，停机模式时&lt;0.01μA 待机电流，-40-85℃</t>
   </si>
   <si>
     <t>RT9193</t>
@@ -658,6 +658,36 @@
     <t>IC22</t>
   </si>
   <si>
+    <t>RT9193-3.3</t>
+  </si>
+  <si>
+    <t>低压超低噪声差线性稳压器,2.5-5.5Vin,3.3Vout,Vdrop=0.22V@0.3A, 带使能引脚，过热保护，限流保护，停机模式时&lt;0.01μA 待机电流，-40-85℃</t>
+  </si>
+  <si>
+    <t>RT9193-33GB</t>
+  </si>
+  <si>
+    <t>https://atta.szlcsc.com/upload/public/pdf/source/20130730/1457706628575.pdf</t>
+  </si>
+  <si>
+    <t>AMS1117-3.3</t>
+  </si>
+  <si>
+    <t>低压超低噪声差线性稳压器,12Vin,3.3Vout,Vdrop=1.2V@１A, ，5-10ｍＡ静态电流，-40-125℃</t>
+  </si>
+  <si>
+    <t>AMS1117</t>
+  </si>
+  <si>
+    <t>SOT-223</t>
+  </si>
+  <si>
+    <t>UMW AMS1117-3.3</t>
+  </si>
+  <si>
+    <t>IC23</t>
+  </si>
+  <si>
     <t>OPA</t>
   </si>
   <si>
@@ -784,6 +814,15 @@
     <t>VRWM=12.0V,VBR=13.3-14.7V@1mA,Vc=19.9V,(10/1000μs)Ipp=20.1A、Pppm=400W,IR=1uA,Cj=100pF,Code=XE</t>
   </si>
   <si>
+    <t>SMCJ12CA</t>
+  </si>
+  <si>
+    <t>VRWM=12.0V,VBR=13.3-14.7V@1mA,Vc=19.9V,(10/1000μs)Ipp=75.4A、Pppm=1500W,IR=1uA</t>
+  </si>
+  <si>
+    <t>https://atta.szlcsc.com/upload/public/pdf/source/20230314/F34DF519F5F449A83723D8F8A566B99C.pdf</t>
+  </si>
+  <si>
     <t>S11</t>
   </si>
   <si>
@@ -1207,6 +1246,30 @@
     <t>R2</t>
   </si>
   <si>
+    <t>0Ω 0805</t>
+  </si>
+  <si>
+    <t>0Ω ±5% 125mW 150V -55℃~+155℃</t>
+  </si>
+  <si>
+    <t>R0805</t>
+  </si>
+  <si>
+    <t>0805W8J0000T5E</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>33Ω ±1% 62.5mW 50V -55℃~+155℃</t>
+  </si>
+  <si>
+    <t>0402WGF330JTCE</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
     <t>1k</t>
   </si>
   <si>
@@ -1216,7 +1279,7 @@
     <t>0402WGF1001TCE</t>
   </si>
   <si>
-    <t>R3</t>
+    <t>R5</t>
   </si>
   <si>
     <t>2k</t>
@@ -1228,7 +1291,7 @@
     <t>0402WGF2001TCE</t>
   </si>
   <si>
-    <t>R4</t>
+    <t>R6</t>
   </si>
   <si>
     <t>4.7k</t>
@@ -1240,7 +1303,7 @@
     <t>0402WGF4701TCE</t>
   </si>
   <si>
-    <t>R5</t>
+    <t>R7</t>
   </si>
   <si>
     <t>10k</t>
@@ -1252,7 +1315,7 @@
     <t>0402WGF1002TCE</t>
   </si>
   <si>
-    <t>R6</t>
+    <t>R8</t>
   </si>
   <si>
     <t>22k</t>
@@ -1264,7 +1327,7 @@
     <t>0402WGF2202TCE</t>
   </si>
   <si>
-    <t>R7</t>
+    <t>R9</t>
   </si>
   <si>
     <t>40.2k</t>
@@ -1276,7 +1339,7 @@
     <t>0402WGF4022TCE</t>
   </si>
   <si>
-    <t>R8</t>
+    <t>R10</t>
   </si>
   <si>
     <t>47k</t>
@@ -1288,7 +1351,7 @@
     <t>0402WGF4702TCE</t>
   </si>
   <si>
-    <t>R9</t>
+    <t>R11</t>
   </si>
   <si>
     <t>68k</t>
@@ -1300,7 +1363,7 @@
     <t>0402WGF6803TCE</t>
   </si>
   <si>
-    <t>R10</t>
+    <t>R12</t>
   </si>
   <si>
     <t>100k</t>
@@ -1312,7 +1375,7 @@
     <t>0402WGF1003TCE</t>
   </si>
   <si>
-    <t>R11</t>
+    <t>R13</t>
   </si>
   <si>
     <t>124k</t>
@@ -1324,7 +1387,7 @@
     <t>0402WGF1243TCE</t>
   </si>
   <si>
-    <t>R12</t>
+    <t>R14</t>
   </si>
   <si>
     <t>200k</t>
@@ -1336,10 +1399,10 @@
     <t>0402WGF2003TCE</t>
   </si>
   <si>
-    <t>R13</t>
-  </si>
-  <si>
-    <t>10m 1% 250mW</t>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>10m 1206</t>
   </si>
   <si>
     <t>10mΩ ±1% 250mW 200V -55℃~+155℃</t>
@@ -1360,7 +1423,7 @@
     <t>Ceramic</t>
   </si>
   <si>
-    <t>1nF</t>
+    <t>1n</t>
   </si>
   <si>
     <t>10nF ±10% 50V X7R</t>
@@ -1384,7 +1447,7 @@
     <t>C2</t>
   </si>
   <si>
-    <t>15pF</t>
+    <t>15p</t>
   </si>
   <si>
     <t>15pF ±1% 50V C0G</t>
@@ -1402,7 +1465,7 @@
     <t>C3</t>
   </si>
   <si>
-    <t>10pF</t>
+    <t>10p</t>
   </si>
   <si>
     <t>10pF ±1% 50V NP0</t>
@@ -1414,10 +1477,19 @@
     <t>https://atta.szlcsc.com/upload/public/pdf/source/20200415/C513681_5027FF1861A780E76D33CC24CC34CA99.pdf</t>
   </si>
   <si>
+    <t>22p</t>
+  </si>
+  <si>
+    <t>22pF ±1% 50V C0G</t>
+  </si>
+  <si>
+    <t>0402CG220J500NT</t>
+  </si>
+  <si>
     <t>C4</t>
   </si>
   <si>
-    <t>10nF</t>
+    <t>10n</t>
   </si>
   <si>
     <t>CC0402KRX7R9BB103</t>
@@ -1426,7 +1498,7 @@
     <t>C5</t>
   </si>
   <si>
-    <t>22nF</t>
+    <t>22n</t>
   </si>
   <si>
     <t>22nF ±10% 50V X7R</t>
@@ -1438,7 +1510,7 @@
     <t>C6</t>
   </si>
   <si>
-    <t>100nF</t>
+    <t>100n</t>
   </si>
   <si>
     <t>100nF ±10% 50V X7R</t>
@@ -1459,7 +1531,7 @@
     <t>C8</t>
   </si>
   <si>
-    <t>1uF/25V</t>
+    <t>1u 25V</t>
   </si>
   <si>
     <t>1uF ±10% 25V X5R</t>
@@ -1483,7 +1555,7 @@
     <t>C10</t>
   </si>
   <si>
-    <t>2.2uF/6.3V</t>
+    <t>2.2u 6.3V</t>
   </si>
   <si>
     <t>2.2uF ±20% 6.3V X5R</t>
@@ -1495,7 +1567,7 @@
     <t>C11</t>
   </si>
   <si>
-    <t>2.2uF/16V</t>
+    <t>2.2u 16V</t>
   </si>
   <si>
     <t>2.2uF ±10% 16V X5R</t>
@@ -1507,7 +1579,7 @@
     <t>C12</t>
   </si>
   <si>
-    <t>4.7uF/16V</t>
+    <t>4.7u 16V</t>
   </si>
   <si>
     <t>4.7uF ±10% 16V X5R</t>
@@ -1519,7 +1591,7 @@
     <t>C13</t>
   </si>
   <si>
-    <t>4.7uF/25V</t>
+    <t>4.7u 25V</t>
   </si>
   <si>
     <t>4.7uF ±10% 25V X5R</t>
@@ -1531,7 +1603,7 @@
     <t>C14</t>
   </si>
   <si>
-    <t>10uF/6.3V</t>
+    <t>10u 6.3V</t>
   </si>
   <si>
     <t>10uF ±10% 6.3V X5R</t>
@@ -1543,7 +1615,7 @@
     <t>C15</t>
   </si>
   <si>
-    <t>22uF/6.3V</t>
+    <t>22u 6.3V</t>
   </si>
   <si>
     <t>22uF ±20% 6.3V X5R</t>
@@ -1561,7 +1633,7 @@
     <t>C16</t>
   </si>
   <si>
-    <t>22uF/10V</t>
+    <t>22u 10V</t>
   </si>
   <si>
     <t>22uF ±20% 10V X5R</t>
@@ -1573,7 +1645,7 @@
     <t>C17</t>
   </si>
   <si>
-    <t>22uF/25V</t>
+    <t>22u 25V 0805</t>
   </si>
   <si>
     <t>22uF ±10% 25V X5R</t>
@@ -1588,54 +1660,90 @@
     <t>D:\Cadence_LIB\Datasheet\Samsung 电容.pdf</t>
   </si>
   <si>
+    <t>100u 6.3V 1206</t>
+  </si>
+  <si>
+    <t>100uF ±20% 6.3V  X5R</t>
+  </si>
+  <si>
+    <t>C1206</t>
+  </si>
+  <si>
+    <t>CL31A107MQHNNNE</t>
+  </si>
+  <si>
+    <t>Aluminum</t>
+  </si>
+  <si>
+    <t>220u 35V</t>
+  </si>
+  <si>
+    <t>220uF ±20% 35V</t>
+  </si>
+  <si>
+    <t>CAP POL</t>
+  </si>
+  <si>
+    <t>D8xL12mm</t>
+  </si>
+  <si>
+    <t>JWC</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z10.3-c-s.w4002-24706531953.14.4b286a4bfk14Y2&amp;id=564811144267</t>
+  </si>
+  <si>
     <t>PN1</t>
   </si>
   <si>
     <t>P-MOS</t>
   </si>
   <si>
-    <t>AO3401</t>
-  </si>
-  <si>
-    <t>Vdsmax=-30V,Idmax=-4A,Vgs=±12V,Vgs(th)=-0.5~-1.3V,Ciss=645pF,Rds(on)&lt;85mΩ@Vgs=-2.5V</t>
+    <t>AO3401A</t>
+  </si>
+  <si>
+    <t>Vdsmax=-30V,Idmax=-4.2A,Vgs=±12V,Vgs(th)=-0.4~-1.3V,Ciss=954pF,Rds(on)&lt;120mΩ@Vgs=-2.5V</t>
   </si>
   <si>
     <t>SOT23</t>
   </si>
   <si>
+    <t>UMW AO3401A</t>
+  </si>
+  <si>
+    <t>https://atta.szlcsc.com/upload/public/pdf/source/20220920/1D2884B4030841D334A38D0CCA0C1153.pdf</t>
+  </si>
+  <si>
+    <t>PN2</t>
+  </si>
+  <si>
+    <t>N-MOS</t>
+  </si>
+  <si>
+    <t>2N7002</t>
+  </si>
+  <si>
+    <t>Vdsmax=60V,Idmax=0.115A,Vgs=±20V,Vgs(th)=1~2.5V,Ciss=50pF,Rds(on)&lt;3Ω</t>
+  </si>
+  <si>
+    <t>NMOS</t>
+  </si>
+  <si>
+    <t>https://www.semiee.com/file/JSCJ/JSCJ-2N7002.pdf</t>
+  </si>
+  <si>
+    <t>PN3</t>
+  </si>
+  <si>
+    <t>AO3402</t>
+  </si>
+  <si>
+    <t>Vdsmax=30V,Idmax=4A,Vgs=±12V,Vgs(th)=0.5~1.5V,Ciss=235pF,Rds(on)&lt;85mΩ@Vgs=2.5V</t>
+  </si>
+  <si>
     <t>AOS</t>
   </si>
   <si>
-    <t>https://www.semiee.com/file/AOS/AOS-AO3401.pdf</t>
-  </si>
-  <si>
-    <t>PN2</t>
-  </si>
-  <si>
-    <t>N-MOS</t>
-  </si>
-  <si>
-    <t>2N7002</t>
-  </si>
-  <si>
-    <t>Vdsmax=60V,Idmax=0.115A,Vgs=±20V,Vgs(th)=1~2.5V,Ciss=50pF,Rds(on)&lt;3Ω</t>
-  </si>
-  <si>
-    <t>NMOS</t>
-  </si>
-  <si>
-    <t>https://www.semiee.com/file/JSCJ/JSCJ-2N7002.pdf</t>
-  </si>
-  <si>
-    <t>PN3</t>
-  </si>
-  <si>
-    <t>AO3402</t>
-  </si>
-  <si>
-    <t>Vdsmax=30V,Idmax=4A,Vgs=±12V,Vgs(th)=0.5~1.5V,Ciss=235pF,Rds(on)&lt;85mΩ@Vgs=2.5V</t>
-  </si>
-  <si>
     <t>https://www.semiee.com/file/AOS/AOS-AO3402.pdf</t>
   </si>
   <si>
@@ -1774,6 +1882,39 @@
     <t>https://atta.szlcsc.com/upload/public/pdf/source/20200618/C668623_A4B260DED7AC1949BAC6AE39E9F4CD80.pdf</t>
   </si>
   <si>
+    <t>2P-3.5mm</t>
+  </si>
+  <si>
+    <t>2P 3.5mm插拔式接线端子(焊板端)，弯针，300V 8A，绿色，-40-105℃</t>
+  </si>
+  <si>
+    <t>CON2P</t>
+  </si>
+  <si>
+    <t>KEFA</t>
+  </si>
+  <si>
+    <t>KF2EDGR-3.5-2P</t>
+  </si>
+  <si>
+    <t>https://www.semiee.com/d82ec360-fd00-4aa6-b4b3-4503eeea05cf.html</t>
+  </si>
+  <si>
+    <t>3P-2.54mm</t>
+  </si>
+  <si>
+    <t>3P 2.54mm插拔式接线端子(焊板端)，弯针，130V 5A，绿色，-40-105℃</t>
+  </si>
+  <si>
+    <t>CON3P</t>
+  </si>
+  <si>
+    <t>KF2EDGR-2.54-3P</t>
+  </si>
+  <si>
+    <t>https://atta.szlcsc.com/upload/public/pdf/source/20230331/9E5D7F75DED95C1BE5FD2D397BA2A54B.pdf</t>
+  </si>
+  <si>
     <t>Connector</t>
   </si>
   <si>
@@ -1829,6 +1970,15 @@
   </si>
   <si>
     <t>https://atta.szlcsc.com/upload/public/pdf/source/20230321/913029B0FB0CD391AF5EFD51697D8EC4.pdf</t>
+  </si>
+  <si>
+    <t>PJ-327A</t>
+  </si>
+  <si>
+    <t>3.5mm耳机座 500mA 30V 工作温度范围：-30℃~+70℃ 5脚贴片金</t>
+  </si>
+  <si>
+    <t>https://atta.szlcsc.com/upload/public/pdf/source/20200618/C668605_9C1065207AFEF8C715B1238987CF5F80.pdf</t>
   </si>
   <si>
     <t>A1</t>
@@ -1854,10 +2004,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -2413,19 +2563,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2578,6 +2728,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2640,9 +2793,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2968,7 +3118,7 @@
   <sheetPr/>
   <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
@@ -3239,7 +3389,7 @@
       <c r="I8" s="3">
         <v>0.2</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="8" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3271,7 +3421,7 @@
       <c r="I9" s="3">
         <v>0.15</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="8" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3303,7 +3453,7 @@
       <c r="I10" s="3">
         <v>0.11</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="8" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3335,7 +3485,7 @@
       <c r="I11" s="3">
         <v>0.14</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="8" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3367,7 +3517,7 @@
       <c r="I12" s="3">
         <v>0.18</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="8" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3399,7 +3549,7 @@
       <c r="I13" s="3">
         <v>0.15</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="8" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3628,34 +3778,34 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="33" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>602</v>
+        <v>652</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>603</v>
+        <v>653</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>604</v>
+        <v>654</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>605</v>
+        <v>655</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>604</v>
+        <v>654</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>604</v>
+        <v>654</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>606</v>
+        <v>656</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>604</v>
+        <v>654</v>
       </c>
       <c r="I2" s="3">
         <v>0.5</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>607</v>
+        <v>657</v>
       </c>
     </row>
   </sheetData>
@@ -3670,10 +3820,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3723,328 +3873,328 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="49.5" spans="1:10">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18" t="s">
+      <c r="F2" s="19"/>
+      <c r="G2" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="11">
         <v>5.1</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="26" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="33" spans="1:10">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="11">
         <v>2</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="26" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="33" spans="1:10">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="11">
         <v>0.23</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="26" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="49.5" spans="1:10">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="11">
         <v>0.45</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="26" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="49.5" spans="1:10">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="11">
         <v>1.15</v>
       </c>
-      <c r="J6" s="26" t="s">
+      <c r="J6" s="27" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="33" spans="1:10">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="11">
         <v>0.33</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="26" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="33" spans="1:10">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="11">
         <v>1.1</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="27" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="33" spans="1:10">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="22">
         <v>0.57</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="J9" s="27" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="33" spans="1:10">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="H10" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="22">
         <v>0.75</v>
       </c>
-      <c r="J10" s="25" t="s">
+      <c r="J10" s="26" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="33" spans="1:10">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="22">
         <v>0.55</v>
       </c>
-      <c r="J11" s="25" t="s">
+      <c r="J11" s="26" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="33" spans="1:10">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="12" t="s">
         <v>96</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -4065,13 +4215,13 @@
       <c r="H12" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="27" t="s">
+      <c r="I12" s="12"/>
+      <c r="J12" s="28" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="49.5" spans="1:10">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="11" t="s">
         <v>139</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -4098,12 +4248,12 @@
       <c r="I13" s="3">
         <v>4.5</v>
       </c>
-      <c r="J13" s="25" t="s">
+      <c r="J13" s="26" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="66" spans="1:10">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="11" t="s">
         <v>146</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -4130,12 +4280,12 @@
       <c r="I14" s="3">
         <v>2.9</v>
       </c>
-      <c r="J14" s="25" t="s">
+      <c r="J14" s="26" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="82.5" spans="1:10">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="11" t="s">
         <v>153</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -4162,79 +4312,79 @@
       <c r="I15" s="3">
         <v>20</v>
       </c>
-      <c r="J15" s="28" t="s">
+      <c r="J15" s="29" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="33" spans="1:10">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="12">
         <v>2.2</v>
       </c>
-      <c r="J16" s="26" t="s">
+      <c r="J16" s="27" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="66" spans="1:10">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="12">
         <v>1.2</v>
       </c>
-      <c r="J17" s="25" t="s">
+      <c r="J17" s="26" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="49.5" spans="1:10">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="24" t="s">
         <v>159</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -4246,27 +4396,27 @@
       <c r="E18" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="12" t="s">
         <v>172</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="12">
         <v>5.3</v>
       </c>
-      <c r="J18" s="25" t="s">
+      <c r="J18" s="26" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="82.5" spans="1:10">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="24" t="s">
         <v>159</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -4278,16 +4428,16 @@
       <c r="E19" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="12" t="s">
         <v>101</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="12">
         <v>6</v>
       </c>
       <c r="J19" s="29" t="s">
@@ -4295,10 +4445,10 @@
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="49.5" spans="1:10">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="12" t="s">
         <v>159</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -4307,19 +4457,19 @@
       <c r="D20" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="12" t="s">
         <v>183</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="12" t="s">
         <v>101</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="12">
         <v>1.95</v>
       </c>
       <c r="J20" s="5" t="s">
@@ -4327,7 +4477,7 @@
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="49.5" spans="1:10">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="11" t="s">
         <v>186</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -4354,12 +4504,12 @@
       <c r="I21" s="3">
         <v>3.2</v>
       </c>
-      <c r="J21" s="25" t="s">
+      <c r="J21" s="26" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="33" spans="1:10">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="11" t="s">
         <v>193</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -4380,18 +4530,18 @@
       <c r="G22" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="12" t="s">
         <v>195</v>
       </c>
       <c r="I22" s="3">
         <v>0.8</v>
       </c>
-      <c r="J22" s="26" t="s">
+      <c r="J22" s="27" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="33" spans="1:10">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="11" t="s">
         <v>199</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -4412,78 +4562,142 @@
       <c r="G23" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="H23" s="12" t="s">
         <v>200</v>
       </c>
       <c r="I23" s="3">
         <v>0.8</v>
       </c>
-      <c r="J23" s="26" t="s">
+      <c r="J23" s="27" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="24" ht="49.5" spans="1:10">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="H24" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="12">
         <v>0.5</v>
       </c>
-      <c r="J24" s="26" t="s">
+      <c r="J24" s="27" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="25" ht="33" spans="1:10">
-      <c r="A25" s="10" t="s">
+    <row r="25" ht="49.5" spans="1:10">
+      <c r="A25" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="D25" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="H25" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="I25" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="J25" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="F25" s="11" t="s">
+    </row>
+    <row r="26" ht="33" spans="1:10">
+      <c r="A26" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="D26" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="I26" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="J26" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="27" ht="33" spans="1:10">
+      <c r="A27" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="G27" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="H25" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="I25" s="11">
+      <c r="H27" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="I27" s="12">
         <v>0.6</v>
       </c>
-      <c r="J25" s="25" t="s">
-        <v>216</v>
+      <c r="J27" s="26" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -4503,7 +4717,7 @@
     <hyperlink ref="J18" r:id="rId10" display="https://www.semiee.com/file/EOL2/Realtek-ALC5616-CGT.pdf"/>
     <hyperlink ref="J20" r:id="rId11" display="https://www.semiee.com/file/TI/TI-TXB0108.pdf"/>
     <hyperlink ref="J21" r:id="rId12" display="https://www.semiee.com/file/Hynetek/Hynetek-HUSB238.pdf"/>
-    <hyperlink ref="J25" r:id="rId13" display="https://www.semiee.com/file/TI/TI-LM358.pdf"/>
+    <hyperlink ref="J27" r:id="rId13" display="https://www.semiee.com/file/TI/TI-LM358.pdf"/>
     <hyperlink ref="J2" r:id="rId14" display="https://www.semiee.com/file/SouthChip/SouthChip-SC8906.pdf"/>
     <hyperlink ref="J3" r:id="rId15" display="https://www.semiee.com/file/SGMICRO/SGMICRO-SGM40561.pdf"/>
     <hyperlink ref="J22" r:id="rId16" display="https://www.semiee.com/file/TI/TI-INA180.pdf"/>
@@ -4514,6 +4728,8 @@
     <hyperlink ref="J12" r:id="rId20" display="https://www.semiee.com/file/SILERGY/SILERGY-SY9701ADPC.pdf"/>
     <hyperlink ref="J15" r:id="rId21" display="https://www.semiee.com/file/Espressif/Espressif-ESP32-PICO-D4.pdf" tooltip="https://www.semiee.com/file/Espressif/Espressif-ESP32-PICO-D4.pdf"/>
     <hyperlink ref="J19" r:id="rId22" display="https://www.ti.com/lit/ds/symlink/tlv320aic3101.pdf?ts=1698998478028&amp;ref_url=https%253A%252F%252Fwww.ti.com%252Fproduct%252FTLV320AIC3101%253FkeyMatch%253DTLV320AIC3101IRHBR%2526tisearch%253DSearch-EN-Everything" tooltip="https://www.ti.com/lit/ds/symlink/tlv320aic3101.pdf?ts=1698998478028&amp;ref_url=https%253A%252F%252Fwww.ti.com%252Fproduct%252FTLV320AIC3101%253FkeyMatch%253DTLV320AIC3101IRHBR%2526tisearch%253DSearch-EN-Everything"/>
+    <hyperlink ref="J25" r:id="rId23" display="https://atta.szlcsc.com/upload/public/pdf/source/20130730/1457706628575.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20130730/1457706628575.pdf"/>
+    <hyperlink ref="J26" r:id="rId23" display="https://atta.szlcsc.com/upload/public/pdf/source/20130730/1457706628575.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20130730/1457706628575.pdf"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4523,10 +4739,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A27"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4544,52 +4760,52 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
-      <c r="A2" s="17" t="s">
-        <v>217</v>
+      <c r="A2" s="18" t="s">
+        <v>227</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>14</v>
@@ -4598,30 +4814,30 @@
         <v>15</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="I2" s="3">
         <v>0.23</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
-      <c r="A3" s="17" t="s">
-        <v>223</v>
+      <c r="A3" s="18" t="s">
+        <v>233</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>14</v>
@@ -4630,94 +4846,94 @@
         <v>15</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="I3" s="3">
         <v>0.23</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
-      <c r="A4" s="17" t="s">
-        <v>227</v>
+      <c r="A4" s="18" t="s">
+        <v>237</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="I4" s="3">
         <v>0.18</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
-      <c r="A5" s="17" t="s">
-        <v>232</v>
+      <c r="A5" s="18" t="s">
+        <v>242</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="I5" s="3">
         <v>0.18</v>
       </c>
       <c r="J5" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
+      <c r="A6" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>231</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
-      <c r="A6" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>221</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>14</v>
@@ -4726,30 +4942,30 @@
         <v>15</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="I6" s="3">
         <v>0.23</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
-      <c r="A7" s="17" t="s">
-        <v>238</v>
+      <c r="A7" s="18" t="s">
+        <v>248</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>14</v>
@@ -4758,94 +4974,94 @@
         <v>15</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="I7" s="3">
         <v>0.23</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
-      <c r="A8" s="17" t="s">
-        <v>241</v>
+      <c r="A8" s="18" t="s">
+        <v>251</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="I8" s="3">
         <v>0.18</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
-      <c r="A9" s="17" t="s">
-        <v>244</v>
+      <c r="A9" s="18" t="s">
+        <v>254</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="I9" s="3">
         <v>0.18</v>
       </c>
       <c r="J9" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
+      <c r="A10" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>231</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
-      <c r="A10" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>221</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>14</v>
@@ -4854,30 +5070,30 @@
         <v>15</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="I10" s="3">
         <v>0.23</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
-      <c r="A11" s="17" t="s">
-        <v>250</v>
+      <c r="A11" s="18" t="s">
+        <v>260</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>14</v>
@@ -4886,126 +5102,126 @@
         <v>15</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="I11" s="3">
         <v>0.23</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
-      <c r="A12" s="17" t="s">
-        <v>253</v>
+      <c r="A12" s="18" t="s">
+        <v>260</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>230</v>
+        <v>14</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="I12" s="3">
-        <v>0.18</v>
+        <v>0.6</v>
       </c>
       <c r="J12" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
+      <c r="A13" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
-      <c r="A13" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>226</v>
-      </c>
       <c r="F13" s="3" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="I13" s="3">
         <v>0.18</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
-      <c r="A14" s="17" t="s">
-        <v>259</v>
+      <c r="A14" s="18" t="s">
+        <v>269</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>71</v>
+        <v>240</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="I14" s="3">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
-      <c r="A15" s="17" t="s">
-        <v>266</v>
+      <c r="A15" s="18" t="s">
+        <v>272</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>71</v>
@@ -5014,402 +5230,433 @@
         <v>36</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="I15" s="3">
         <v>0.14</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>270</v>
+      <c r="J15" s="5" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
-      <c r="A16" s="17" t="s">
-        <v>271</v>
+      <c r="A16" s="18" t="s">
+        <v>279</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>275</v>
+        <v>71</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>276</v>
+        <v>36</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="I16" s="3">
+        <v>0.14</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
+      <c r="A17" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="I17" s="3">
         <v>0.74</v>
       </c>
-      <c r="J16" s="7" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
-      <c r="A17" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="J17" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
+      <c r="A18" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="I18" s="3">
         <v>0.35</v>
       </c>
-      <c r="J17" s="7" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
-      <c r="A18" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="J18" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
+      <c r="A19" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="C19" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="I19" s="3">
         <v>0.26</v>
       </c>
-      <c r="J18" s="7" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
-      <c r="A19" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="J19" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
+      <c r="A20" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="G20" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="I19" s="3">
+      <c r="H20" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="I20" s="3">
         <v>0.35</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
-      <c r="A20" s="17" t="s">
+      <c r="J20" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="I20" s="3">
+    </row>
+    <row r="21" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
+      <c r="A21" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I21" s="3">
         <v>0.24</v>
       </c>
-      <c r="J20" s="7" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
-      <c r="A21" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="J21" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
+      <c r="A22" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="I22" s="3">
         <v>0.4</v>
       </c>
-      <c r="J21" s="5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
-      <c r="A22" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="J22" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
+      <c r="A23" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="I23" s="3">
         <v>0.3</v>
       </c>
-      <c r="J22" s="7" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
-      <c r="A23" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0.39</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>308</v>
+      <c r="J23" s="8" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
-      <c r="A24" s="17" t="s">
-        <v>309</v>
+      <c r="A24" s="18" t="s">
+        <v>316</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="I24" s="3">
         <v>0.39</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>308</v>
+      <c r="J24" s="5" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
-      <c r="A25" s="17" t="s">
-        <v>313</v>
+      <c r="A25" s="18" t="s">
+        <v>322</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="I25" s="3">
+        <v>0.39</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
+      <c r="A26" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="I26" s="3">
         <v>0.41</v>
       </c>
-      <c r="J25" s="5" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
-      <c r="A26" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="J26" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
+      <c r="A27" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="I27" s="3">
         <v>0.38</v>
       </c>
-      <c r="J26" s="7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
-      <c r="A27" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="J27" s="8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
+      <c r="A28" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="I28" s="3">
         <v>0.31</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>318</v>
+      <c r="J28" s="8" t="s">
+        <v>331</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G16" r:id="rId1" display="佰宏" tooltip="https://list.szlcsc.com/brand/12424.html"/>
     <hyperlink ref="G17" r:id="rId1" display="佰宏" tooltip="https://list.szlcsc.com/brand/12424.html"/>
     <hyperlink ref="G18" r:id="rId1" display="佰宏" tooltip="https://list.szlcsc.com/brand/12424.html"/>
     <hyperlink ref="G19" r:id="rId1" display="佰宏" tooltip="https://list.szlcsc.com/brand/12424.html"/>
@@ -5421,32 +5668,34 @@
     <hyperlink ref="G25" r:id="rId1" display="佰宏" tooltip="https://list.szlcsc.com/brand/12424.html"/>
     <hyperlink ref="G26" r:id="rId1" display="佰宏" tooltip="https://list.szlcsc.com/brand/12424.html"/>
     <hyperlink ref="G27" r:id="rId1" display="佰宏" tooltip="https://list.szlcsc.com/brand/12424.html"/>
+    <hyperlink ref="G28" r:id="rId1" display="佰宏" tooltip="https://list.szlcsc.com/brand/12424.html"/>
     <hyperlink ref="J4" r:id="rId2" display="https://atta.szlcsc.com/upload/public/pdf/source/20230823/46DC63B2A09D9D06F4FC5ACC8B9FF97C.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20230823/46DC63B2A09D9D06F4FC5ACC8B9FF97C.pdf"/>
-    <hyperlink ref="J14" r:id="rId3" display="https://www.semiee.com/file/JSCJ/JSCJ-CESD3V3D5.pdf" tooltip="https://www.semiee.com/file/JSCJ/JSCJ-CESD3V3D5.pdf"/>
-    <hyperlink ref="J27" r:id="rId4" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD0603-050-12V.pdf" tooltip="https://www.semiee.com/file/Source10/BHFUSE-BSMD0603-050-12V.pdf"/>
-    <hyperlink ref="J24" r:id="rId5" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD0805-100-12V.pdf" tooltip="https://www.semiee.com/file/Source10/BHFUSE-BSMD0805-100-12V.pdf"/>
-    <hyperlink ref="J22" r:id="rId6" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD1206-200-16V.pdf" tooltip="https://www.semiee.com/file/Source10/BHFUSE-BSMD1206-200-16V.pdf"/>
+    <hyperlink ref="J15" r:id="rId3" display="https://www.semiee.com/file/JSCJ/JSCJ-CESD3V3D5.pdf" tooltip="https://www.semiee.com/file/JSCJ/JSCJ-CESD3V3D5.pdf"/>
+    <hyperlink ref="J28" r:id="rId4" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD0603-050-12V.pdf" tooltip="https://www.semiee.com/file/Source10/BHFUSE-BSMD0603-050-12V.pdf"/>
+    <hyperlink ref="J25" r:id="rId5" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD0805-100-12V.pdf" tooltip="https://www.semiee.com/file/Source10/BHFUSE-BSMD0805-100-12V.pdf"/>
+    <hyperlink ref="J23" r:id="rId6" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD1206-200-16V.pdf" tooltip="https://www.semiee.com/file/Source10/BHFUSE-BSMD1206-200-16V.pdf"/>
+    <hyperlink ref="J27" r:id="rId4" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD0603-050-12V.pdf"/>
     <hyperlink ref="J26" r:id="rId4" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD0603-050-12V.pdf"/>
-    <hyperlink ref="J25" r:id="rId4" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD0603-050-12V.pdf"/>
-    <hyperlink ref="J23" r:id="rId5" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD0805-100-12V.pdf"/>
+    <hyperlink ref="J24" r:id="rId5" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD0805-100-12V.pdf"/>
+    <hyperlink ref="J22" r:id="rId6" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD1206-200-16V.pdf"/>
     <hyperlink ref="J21" r:id="rId6" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD1206-200-16V.pdf"/>
     <hyperlink ref="J20" r:id="rId6" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD1206-200-16V.pdf"/>
     <hyperlink ref="J19" r:id="rId6" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD1206-200-16V.pdf"/>
     <hyperlink ref="J18" r:id="rId6" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD1206-200-16V.pdf"/>
     <hyperlink ref="J17" r:id="rId6" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD1206-200-16V.pdf"/>
-    <hyperlink ref="J16" r:id="rId6" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD1206-200-16V.pdf"/>
-    <hyperlink ref="J15" r:id="rId7" display="https://www.semiee.com/file/JSCJ/JSCJ-CESD5V0D5.pdf"/>
+    <hyperlink ref="J16" r:id="rId7" display="https://www.semiee.com/file/JSCJ/JSCJ-CESD5V0D5.pdf"/>
     <hyperlink ref="J5" r:id="rId2" display="https://atta.szlcsc.com/upload/public/pdf/source/20230823/46DC63B2A09D9D06F4FC5ACC8B9FF97C.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20230823/46DC63B2A09D9D06F4FC5ACC8B9FF97C.pdf"/>
     <hyperlink ref="J8" r:id="rId2" display="https://atta.szlcsc.com/upload/public/pdf/source/20230823/46DC63B2A09D9D06F4FC5ACC8B9FF97C.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20230823/46DC63B2A09D9D06F4FC5ACC8B9FF97C.pdf"/>
     <hyperlink ref="J9" r:id="rId2" display="https://atta.szlcsc.com/upload/public/pdf/source/20230823/46DC63B2A09D9D06F4FC5ACC8B9FF97C.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20230823/46DC63B2A09D9D06F4FC5ACC8B9FF97C.pdf"/>
-    <hyperlink ref="J12" r:id="rId2" display="https://atta.szlcsc.com/upload/public/pdf/source/20230823/46DC63B2A09D9D06F4FC5ACC8B9FF97C.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20230823/46DC63B2A09D9D06F4FC5ACC8B9FF97C.pdf"/>
+    <hyperlink ref="J13" r:id="rId2" display="https://atta.szlcsc.com/upload/public/pdf/source/20230823/46DC63B2A09D9D06F4FC5ACC8B9FF97C.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20230823/46DC63B2A09D9D06F4FC5ACC8B9FF97C.pdf"/>
     <hyperlink ref="J2" r:id="rId8" display="https://atta.szlcsc.com/upload/public/pdf/source/20230314/4319D8044EE29783A53F6AC60595AA71.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20230314/4319D8044EE29783A53F6AC60595AA71.pdf"/>
-    <hyperlink ref="J13" r:id="rId2" display="https://atta.szlcsc.com/upload/public/pdf/source/20230823/46DC63B2A09D9D06F4FC5ACC8B9FF97C.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20230823/46DC63B2A09D9D06F4FC5ACC8B9FF97C.pdf"/>
+    <hyperlink ref="J14" r:id="rId2" display="https://atta.szlcsc.com/upload/public/pdf/source/20230823/46DC63B2A09D9D06F4FC5ACC8B9FF97C.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20230823/46DC63B2A09D9D06F4FC5ACC8B9FF97C.pdf"/>
     <hyperlink ref="J3" r:id="rId8" display="https://atta.szlcsc.com/upload/public/pdf/source/20230314/4319D8044EE29783A53F6AC60595AA71.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20230314/4319D8044EE29783A53F6AC60595AA71.pdf"/>
     <hyperlink ref="J6" r:id="rId8" display="https://atta.szlcsc.com/upload/public/pdf/source/20230314/4319D8044EE29783A53F6AC60595AA71.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20230314/4319D8044EE29783A53F6AC60595AA71.pdf"/>
     <hyperlink ref="J7" r:id="rId8" display="https://atta.szlcsc.com/upload/public/pdf/source/20230314/4319D8044EE29783A53F6AC60595AA71.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20230314/4319D8044EE29783A53F6AC60595AA71.pdf"/>
     <hyperlink ref="J10" r:id="rId8" display="https://atta.szlcsc.com/upload/public/pdf/source/20230314/4319D8044EE29783A53F6AC60595AA71.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20230314/4319D8044EE29783A53F6AC60595AA71.pdf"/>
     <hyperlink ref="J11" r:id="rId8" display="https://atta.szlcsc.com/upload/public/pdf/source/20230314/4319D8044EE29783A53F6AC60595AA71.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20230314/4319D8044EE29783A53F6AC60595AA71.pdf"/>
+    <hyperlink ref="J12" r:id="rId9" display="https://atta.szlcsc.com/upload/public/pdf/source/20230314/F34DF519F5F449A83723D8F8A566B99C.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20230314/F34DF519F5F449A83723D8F8A566B99C.pdf"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5478,355 +5727,355 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="I2" s="3">
         <v>0.23</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="I3" s="3">
         <v>0.47</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A4" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>331</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="I4" s="3">
         <v>0.47</v>
       </c>
-      <c r="J4" s="16" t="s">
-        <v>343</v>
+      <c r="J4" s="17" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A5" s="3" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="I5" s="3">
         <v>0.47</v>
       </c>
-      <c r="J5" s="16" t="s">
-        <v>343</v>
+      <c r="J5" s="17" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>341</v>
-      </c>
       <c r="H6" s="3" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="I6" s="3">
         <v>0.42</v>
       </c>
-      <c r="J6" s="16" t="s">
-        <v>343</v>
+      <c r="J6" s="17" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A7" s="3" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="I7" s="3">
         <v>0.42</v>
       </c>
-      <c r="J7" s="16" t="s">
-        <v>343</v>
+      <c r="J7" s="17" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A8" s="3" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="I8" s="3">
         <v>0.04</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A9" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>355</v>
-      </c>
       <c r="G9" s="3" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="I9" s="3">
         <v>0.47</v>
       </c>
-      <c r="J9" s="16" t="s">
-        <v>343</v>
+      <c r="J9" s="17" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="I10" s="3">
         <v>0.9</v>
       </c>
-      <c r="J10" s="16" t="s">
-        <v>343</v>
+      <c r="J10" s="17" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="11" ht="28.5" spans="1:10">
       <c r="A11" s="3" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="I11" s="3">
         <v>0.031</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -5850,10 +6099,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5903,419 +6152,483 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A2" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="I2" s="10">
+      <c r="A2" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="I2" s="11">
         <v>0.002</v>
       </c>
-      <c r="J2" s="10" t="s">
-        <v>392</v>
+      <c r="J2" s="11" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A3" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="I3" s="10">
+      <c r="A3" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="I3" s="11">
         <v>0.002</v>
       </c>
-      <c r="J3" s="10" t="s">
-        <v>392</v>
+      <c r="J3" s="11" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A4" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="I4" s="10">
+      <c r="A4" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C4" s="11">
+        <v>33</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="I4" s="11">
         <v>0.002</v>
       </c>
-      <c r="J4" s="10" t="s">
-        <v>392</v>
+      <c r="J4" s="11" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="F5" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="G5" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="I5" s="10">
+      <c r="H5" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="I5" s="11">
         <v>0.002</v>
       </c>
-      <c r="J5" s="10" t="s">
-        <v>392</v>
+      <c r="J5" s="11" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0.002</v>
+      </c>
+      <c r="J6" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="I6" s="10">
+    </row>
+    <row r="7" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A7" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="I7" s="11">
         <v>0.002</v>
       </c>
-      <c r="J6" s="10" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A7" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="I7" s="10">
+      <c r="J7" s="11" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A8" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="I8" s="11">
         <v>0.002</v>
       </c>
-      <c r="J7" s="10" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A8" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="I8" s="10">
+      <c r="J8" s="11" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A9" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="I9" s="11">
         <v>0.002</v>
       </c>
-      <c r="J8" s="10" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A9" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="I9" s="10">
+      <c r="J9" s="11" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A10" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="I10" s="11">
         <v>0.002</v>
       </c>
-      <c r="J9" s="10" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A10" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="I10" s="10">
+      <c r="J10" s="11" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A11" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="I11" s="11">
         <v>0.002</v>
       </c>
-      <c r="J10" s="10" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A11" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>426</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="I11" s="10">
+      <c r="J11" s="11" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A12" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="I12" s="11">
         <v>0.002</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A12" s="10" t="s">
-        <v>429</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>430</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="I12" s="10">
+      <c r="J12" s="11" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A13" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="I13" s="11">
         <v>0.002</v>
       </c>
-      <c r="J12" s="10" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A13" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>435</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="I13" s="10">
+      <c r="J13" s="11" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A14" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="I14" s="11">
         <v>0.002</v>
       </c>
-      <c r="J13" s="10" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A14" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>438</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>439</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="I14" s="10">
+      <c r="J14" s="11" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A15" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="I15" s="11">
+        <v>0.002</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A16" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="I16" s="11">
         <v>0.1</v>
       </c>
-      <c r="J14" s="10" t="s">
-        <v>442</v>
+      <c r="J16" s="11" t="s">
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -6330,10 +6643,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6383,557 +6696,649 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A2" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>446</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="I2" s="10">
+      <c r="A2" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="I2" s="11">
         <v>0.005</v>
       </c>
-      <c r="J2" s="10" t="s">
-        <v>451</v>
+      <c r="J2" s="11" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A3" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>454</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="I3" s="10">
+      <c r="A3" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="I3" s="11">
         <v>0.035</v>
       </c>
-      <c r="J3" s="12" t="s">
-        <v>457</v>
+      <c r="J3" s="13" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A4" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="I4" s="10">
+      <c r="A4" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="I4" s="11">
         <v>0.02</v>
       </c>
-      <c r="J4" s="12" t="s">
-        <v>462</v>
+      <c r="J4" s="13" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A5" s="10" t="s">
-        <v>463</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>464</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>446</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="H5" s="10" t="s">
+      <c r="A5" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="I5" s="10">
+      <c r="C5" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A6" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="I6" s="11">
         <v>0.004</v>
       </c>
-      <c r="J5" s="10" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A6" s="10" t="s">
-        <v>466</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>467</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="J6" s="11" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A7" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="F7" s="11" t="s">
         <v>469</v>
       </c>
-      <c r="I6" s="13">
+      <c r="G7" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="I7" s="14">
         <v>0.017</v>
       </c>
-      <c r="J6" s="10" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A7" s="10" t="s">
+      <c r="J7" s="11" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A8" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="H8" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0.018</v>
+      </c>
+      <c r="J8" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>473</v>
-      </c>
-      <c r="I7" s="10">
-        <v>0.018</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A8" s="10" t="s">
-        <v>474</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="D8" s="10" t="s">
+    </row>
+    <row r="9" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A9" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0.234</v>
+      </c>
+      <c r="J9" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>475</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="I8" s="10">
-        <v>0.234</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A9" s="10" t="s">
-        <v>477</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>478</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>479</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>475</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="I9" s="13">
+    </row>
+    <row r="10" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A10" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="I10" s="14">
         <v>0.02</v>
       </c>
-      <c r="J9" s="10" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A10" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>478</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>479</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="I10" s="13">
+      <c r="J10" s="11" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A11" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="I11" s="14">
         <v>0.02</v>
       </c>
-      <c r="J10" s="12" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A11" s="10" t="s">
-        <v>485</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>486</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>487</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="I11" s="13">
+      <c r="J11" s="13" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A12" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="I12" s="14">
         <v>0.01</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A12" s="10" t="s">
-        <v>489</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>490</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>491</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>475</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="I12" s="13">
+      <c r="J12" s="11" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A13" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="I13" s="14">
         <v>0.03</v>
       </c>
-      <c r="J12" s="10" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A13" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>475</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="I13" s="13">
+      <c r="J13" s="11" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A14" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="I14" s="14">
         <v>0.05</v>
       </c>
-      <c r="J13" s="10" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A14" s="10" t="s">
-        <v>497</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="J14" s="11" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A15" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>499</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>475</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="I14" s="13">
+      <c r="G15" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="I15" s="14">
         <v>0.1</v>
       </c>
-      <c r="J14" s="10" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A15" s="10" t="s">
-        <v>501</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>475</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="H15" s="10" t="s">
+      <c r="J15" s="11" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A16" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>504</v>
       </c>
-      <c r="I15" s="10">
+      <c r="H16" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="I16" s="11">
         <v>0.036</v>
       </c>
-      <c r="J15" s="10" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A16" s="10" t="s">
-        <v>505</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="C16" s="10" t="s">
+      <c r="J16" s="11" t="s">
         <v>506</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>507</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>475</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>508</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>509</v>
-      </c>
-      <c r="I16" s="13">
+    </row>
+    <row r="17" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A17" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="I17" s="14">
         <v>0.07</v>
       </c>
-      <c r="J16" s="12" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A17" s="10" t="s">
-        <v>511</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>512</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>513</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>475</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>514</v>
-      </c>
-      <c r="I17" s="13">
+      <c r="J17" s="13" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A18" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="I18" s="14">
         <v>0.08</v>
       </c>
-      <c r="J17" s="12" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A18" s="10" t="s">
-        <v>515</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>516</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>517</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>518</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="I18" s="13">
+      <c r="J18" s="13" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A19" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="I19" s="14">
         <v>0.16</v>
       </c>
-      <c r="J18" s="10" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1"/>
+      <c r="J19" s="11" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A20" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="I20" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A21" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>552</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>553</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="14">
+        <v>0.11</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>555</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J3" r:id="rId1" display="https://item.szlcsc.com/270576.html"/>
     <hyperlink ref="J4" r:id="rId2" display="https://atta.szlcsc.com/upload/public/pdf/source/20200415/C513681_5027FF1861A780E76D33CC24CC34CA99.pdf"/>
-    <hyperlink ref="J16" r:id="rId3" display="https://atta.szlcsc.com/upload/public/pdf/source/20200305/C490387_23319AE8C154DEB24C505E6C82A8106A.pdf"/>
-    <hyperlink ref="J17" r:id="rId4" display="https://atta.szlcsc.com/upload/public/pdf/source/20160218/1457707763339.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20160218/1457707763339.pdf"/>
-    <hyperlink ref="J10" r:id="rId4" display="https://atta.szlcsc.com/upload/public/pdf/source/20160218/1457707763339.pdf"/>
+    <hyperlink ref="J17" r:id="rId3" display="https://atta.szlcsc.com/upload/public/pdf/source/20200305/C490387_23319AE8C154DEB24C505E6C82A8106A.pdf"/>
+    <hyperlink ref="J18" r:id="rId4" display="https://atta.szlcsc.com/upload/public/pdf/source/20160218/1457707763339.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20160218/1457707763339.pdf"/>
+    <hyperlink ref="J11" r:id="rId4" display="https://atta.szlcsc.com/upload/public/pdf/source/20160218/1457707763339.pdf"/>
+    <hyperlink ref="J21" r:id="rId5" display="https://item.taobao.com/item.htm?spm=a1z10.3-c-s.w4002-24706531953.14.4b286a4bfk14Y2&amp;id=564811144267"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -6946,7 +7351,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
@@ -6997,162 +7402,162 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>521</v>
+        <v>556</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>522</v>
+        <v>557</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>523</v>
+        <v>558</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>524</v>
+        <v>559</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>522</v>
+        <v>557</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>526</v>
+        <v>93</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>523</v>
+        <v>561</v>
       </c>
       <c r="I2" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>527</v>
+        <v>0.14</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>36</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
       <c r="I3" s="3">
         <v>0.1</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>533</v>
+      <c r="J3" s="9" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>534</v>
+        <v>569</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>535</v>
+        <v>570</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>536</v>
+        <v>571</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>526</v>
+        <v>572</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>535</v>
+        <v>570</v>
       </c>
       <c r="I4" s="3">
         <v>0.1</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>537</v>
+      <c r="J4" s="9" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A5" s="3" t="s">
-        <v>538</v>
+        <v>574</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>539</v>
+        <v>575</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>540</v>
+        <v>576</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>541</v>
+        <v>577</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>542</v>
+        <v>578</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>36</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>540</v>
+        <v>576</v>
       </c>
       <c r="I5" s="3">
         <v>0.1</v>
       </c>
-      <c r="J5" s="8" t="s">
-        <v>543</v>
+      <c r="J5" s="9" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>544</v>
+        <v>580</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>545</v>
+        <v>581</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>546</v>
+        <v>582</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>547</v>
+        <v>583</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>548</v>
+        <v>584</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>36</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>546</v>
+        <v>582</v>
       </c>
       <c r="I6" s="3">
         <v>0.1</v>
       </c>
-      <c r="J6" s="9" t="s">
-        <v>549</v>
+      <c r="J6" s="10" t="s">
+        <v>585</v>
       </c>
     </row>
   </sheetData>
@@ -7160,7 +7565,7 @@
     <hyperlink ref="J3" r:id="rId1" display="https://www.semiee.com/file/JSCJ/JSCJ-2N7002.pdf" tooltip="https://www.semiee.com/file/JSCJ/JSCJ-2N7002.pdf"/>
     <hyperlink ref="J6" r:id="rId2" display="https://www.semiee.com/file/JSCJ/JSCJ-DTC144ECA.pdf" tooltip="https://www.semiee.com/file/JSCJ/JSCJ-DTC144ECA.pdf"/>
     <hyperlink ref="J5" r:id="rId3" display="https://www.semiee.com/file/JSCJ/JSCJ-DTA144ECA.pdf" tooltip="https://www.semiee.com/file/JSCJ/JSCJ-DTA144ECA.pdf"/>
-    <hyperlink ref="J2" r:id="rId4" display="https://www.semiee.com/file/AOS/AOS-AO3401.pdf"/>
+    <hyperlink ref="J2" r:id="rId4" display="https://atta.szlcsc.com/upload/public/pdf/source/20220920/1D2884B4030841D334A38D0CCA0C1153.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20220920/1D2884B4030841D334A38D0CCA0C1153.pdf"/>
     <hyperlink ref="J4" r:id="rId5" display="https://www.semiee.com/file/AOS/AOS-AO3402.pdf"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7225,66 +7630,66 @@
     </row>
     <row r="2" ht="33" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>550</v>
+        <v>586</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>551</v>
+        <v>587</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>552</v>
+        <v>588</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>553</v>
+        <v>589</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>554</v>
+        <v>590</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>555</v>
+        <v>591</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>556</v>
+        <v>592</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>557</v>
+        <v>593</v>
       </c>
       <c r="I2" s="3">
         <v>1.5</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>558</v>
+      <c r="J2" s="9" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="3" ht="33" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>559</v>
+        <v>595</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>551</v>
+        <v>587</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>560</v>
+        <v>596</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>561</v>
+        <v>597</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>562</v>
+        <v>598</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>564</v>
+        <v>600</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>565</v>
+        <v>601</v>
       </c>
       <c r="I3" s="3">
         <v>0.5</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>566</v>
+      <c r="J3" s="9" t="s">
+        <v>602</v>
       </c>
     </row>
   </sheetData>
@@ -7300,13 +7705,13 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="16.25" customWidth="1"/>
     <col min="2" max="2" width="13.25" customWidth="1"/>
@@ -7354,173 +7759,268 @@
     </row>
     <row r="2" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>567</v>
+        <v>603</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>568</v>
+        <v>604</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>570</v>
+        <v>605</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>606</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>571</v>
+        <v>607</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>572</v>
+        <v>608</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>573</v>
+        <v>609</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>574</v>
+        <v>610</v>
       </c>
       <c r="I2" s="3">
         <v>0.34</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>575</v>
+      <c r="J2" s="8" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>576</v>
+        <v>612</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>568</v>
+        <v>604</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>578</v>
+        <v>613</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>614</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>579</v>
+        <v>615</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>580</v>
+        <v>616</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>573</v>
+        <v>609</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>581</v>
+        <v>617</v>
       </c>
       <c r="I3" s="3">
         <v>0.22</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="4" s="6" customFormat="1" ht="33" spans="1:10">
+      <c r="J3" s="8" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="4" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>447</v>
+        <v>612</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>583</v>
+        <v>604</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>585</v>
+        <v>619</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>620</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" s="6" customFormat="1" ht="33" spans="1:10">
+        <v>621</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="5" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A5" s="3" t="s">
-        <v>447</v>
+        <v>612</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>583</v>
+        <v>604</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>589</v>
+        <v>625</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>626</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" s="6" customFormat="1" ht="49.5" spans="1:10">
+        <v>627</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.56</v>
+      </c>
+      <c r="J5" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="6" s="6" customFormat="1" ht="33" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>583</v>
+        <v>630</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>593</v>
+        <v>631</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>632</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>594</v>
+        <v>633</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>595</v>
+        <v>634</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" s="6" customFormat="1" ht="28.5" spans="1:10">
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" s="6" customFormat="1" ht="33" spans="1:10">
       <c r="A7" s="3" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>596</v>
+        <v>630</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>598</v>
+        <v>635</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>636</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
-        <v>600</v>
-      </c>
+        <v>637</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="3">
+      <c r="I7" s="3"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" s="6" customFormat="1" ht="49.5" spans="1:10">
+      <c r="A8" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" s="6" customFormat="1" ht="28.5" spans="1:10">
+      <c r="A9" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3">
         <v>0.2</v>
       </c>
-      <c r="J7" s="7" t="s">
-        <v>601</v>
+      <c r="J9" s="8" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="10" s="6" customFormat="1" ht="33" spans="1:10">
+      <c r="A10" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.28</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>651</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" display="https://atta.szlcsc.com/upload/public/pdf/source/20211123/39B17C16241EAC15C5E277BDA434118E.pdf"/>
     <hyperlink ref="J3" r:id="rId2" display="https://atta.szlcsc.com/upload/public/pdf/source/20200618/C668623_A4B260DED7AC1949BAC6AE39E9F4CD80.pdf"/>
-    <hyperlink ref="J7" r:id="rId3" display="https://atta.szlcsc.com/upload/public/pdf/source/20230321/913029B0FB0CD391AF5EFD51697D8EC4.pdf"/>
+    <hyperlink ref="J9" r:id="rId3" display="https://atta.szlcsc.com/upload/public/pdf/source/20230321/913029B0FB0CD391AF5EFD51697D8EC4.pdf"/>
+    <hyperlink ref="J4" r:id="rId4" display="https://www.semiee.com/d82ec360-fd00-4aa6-b4b3-4503eeea05cf.html" tooltip="https://www.semiee.com/d82ec360-fd00-4aa6-b4b3-4503eeea05cf.html"/>
+    <hyperlink ref="J5" r:id="rId5" display="https://atta.szlcsc.com/upload/public/pdf/source/20230331/9E5D7F75DED95C1BE5FD2D397BA2A54B.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20230331/9E5D7F75DED95C1BE5FD2D397BA2A54B.pdf"/>
+    <hyperlink ref="J10" r:id="rId6" display="https://atta.szlcsc.com/upload/public/pdf/source/20200618/C668605_9C1065207AFEF8C715B1238987CF5F80.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20200618/C668605_9C1065207AFEF8C715B1238987CF5F80.pdf"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Excel_CIS.xlsx
+++ b/Excel_CIS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12525" activeTab="5"/>
+    <workbookView windowWidth="27945" windowHeight="12525" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="DIODE" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="晶振" sheetId="8" r:id="rId8"/>
     <sheet name="连接器" sheetId="9" r:id="rId9"/>
     <sheet name="ANT" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="711">
   <si>
     <t>Part Number</t>
   </si>
@@ -502,6 +503,18 @@
     <t>https://www.semiee.com/file/Espressif/Espressif-ESP32-PICO-D4.pdf</t>
   </si>
   <si>
+    <t>STM32G070CBT6</t>
+  </si>
+  <si>
+    <t>STM32G070CB/KB/RB 主流微控制器基于高性能 Arm® Cortex-M0®+ 32 位 RISC 内核，工作频率高达 64 MHz。可在 -40°C 至 85°C 的环境温度下运行。 它们可在 2.0 V 至 3.6 V 的电源电压下工作，优化的动态功耗与一整套省电模式相结合，可实现低功耗应用的设计。VBAT直接电池输入允许保持RTC和备用寄存器供电。</t>
+  </si>
+  <si>
+    <t>LQFP-48</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
     <t>Interface</t>
   </si>
   <si>
@@ -523,12 +536,15 @@
     <t>IC15</t>
   </si>
   <si>
-    <t>CH224K</t>
+    <t>CH224D</t>
   </si>
   <si>
     <t>4V至22V 输入电压,支持 PD3.0/2.0，BC1.2等快充协议,支持 USB Type-C PD，支持正反插检测与自动切换,支持 E-Mark 模拟，自动检测 VCONN，支持 100W 功率的 PD 请求,内置过压保护模块OVA、超温保护模块OTA</t>
   </si>
   <si>
+    <t>QFN20-3*3</t>
+  </si>
+  <si>
     <t>https://www.semiee.com/file/WCH/WCH-CH224.pdf</t>
   </si>
   <si>
@@ -841,12 +857,43 @@
     <t>VRWM=12.0V,VBR=13.3-14.7V@1mA,Vc=19.9V,(10/1000μs)Ipp=10.1A、Pppm=200W,IR=1uA，Code=12CA</t>
   </si>
   <si>
+    <t>SMBJ22CA</t>
+  </si>
+  <si>
+    <t>VRWM=22.0V,VBR=24.4-26.9V@1mA,Vc=35.5V,(10/1000μs)Ipp=16.9A、Pppm=600W,IR=1uA，Code=BX</t>
+  </si>
+  <si>
+    <t>SMB</t>
+  </si>
+  <si>
+    <t>https://atta.szlcsc.com/upload/public/pdf/source/20230314/C8F66EF07395B88C11214ABD10019202.pdf</t>
+  </si>
+  <si>
+    <t>ESD</t>
+  </si>
+  <si>
+    <t>TPD4E05U06</t>
+  </si>
+  <si>
+    <t>VRWM=5.0V,VBR=6.8-8.5V@1mA,CL=0.5pF, 4级ESD保护,典型应用包括 HDMI 1.4b 、HDMI 2.0、USB 3.0、MHL、LVDS、DisplayPort、PCI-Express®、eSata 和 V-by-One® HS 中的高速信
+号线。</t>
+  </si>
+  <si>
+    <t>ESD-4</t>
+  </si>
+  <si>
+    <t>USON-10_1x2d5</t>
+  </si>
+  <si>
+    <t>TPD4E05U06DQAR</t>
+  </si>
+  <si>
+    <t>https://www.ti.com/cn/lit/ds/symlink/tpd4e05u06.pdf?ts=1707202011553&amp;ref_url=https%253A%252F%252Fso.szlcsc.com%252F</t>
+  </si>
+  <si>
     <t>S13</t>
   </si>
   <si>
-    <t>ESD</t>
-  </si>
-  <si>
     <t>3.3V</t>
   </si>
   <si>
@@ -1045,6 +1092,39 @@
     <t>BSMD0603-050-6V</t>
   </si>
   <si>
+    <t>3A 24V</t>
+  </si>
+  <si>
+    <t>Ihold=3A,Itrip=6A,Vmax=24V,Imax=40A,Pd=1.4W,Ttrip=4s,Ri=0.06Ω，Ihold@60℃=2.01A，Ihold@85℃=1.33A</t>
+  </si>
+  <si>
+    <t>F1812</t>
+  </si>
+  <si>
+    <t>BSMD1812-300-24V</t>
+  </si>
+  <si>
+    <t>https://atta.szlcsc.com/upload/public/pdf/source/20231116/B17D78E2F7235F890FF617F29F76F627.pdf</t>
+  </si>
+  <si>
+    <t>FUSE</t>
+  </si>
+  <si>
+    <t>5A 32V</t>
+  </si>
+  <si>
+    <t>温度&lt;75度时，额定电流5A，32V，I^2t=2.533</t>
+  </si>
+  <si>
+    <t>大毅科技</t>
+  </si>
+  <si>
+    <t>CFS12V3T5R0</t>
+  </si>
+  <si>
+    <t>https://atta.szlcsc.com/upload/public/pdf/source/20180126/C163128_15169515180301308268.pdf</t>
+  </si>
+  <si>
     <t>IN1</t>
   </si>
   <si>
@@ -1246,7 +1326,7 @@
     <t>R2</t>
   </si>
   <si>
-    <t>0Ω 0805</t>
+    <t>0/0805</t>
   </si>
   <si>
     <t>0Ω ±5% 125mW 150V -55℃~+155℃</t>
@@ -1261,6 +1341,15 @@
     <t>R3</t>
   </si>
   <si>
+    <t>10/0603</t>
+  </si>
+  <si>
+    <t>10Ω ±1% 100mW 75V -55℃~+155℃</t>
+  </si>
+  <si>
+    <t>0603WAF100JT5E</t>
+  </si>
+  <si>
     <t>33Ω ±1% 62.5mW 50V -55℃~+155℃</t>
   </si>
   <si>
@@ -1303,6 +1392,15 @@
     <t>0402WGF4701TCE</t>
   </si>
   <si>
+    <t>5.1k</t>
+  </si>
+  <si>
+    <t>5.1k ±1% 62.5mW 50V -55℃~+155℃</t>
+  </si>
+  <si>
+    <t>0402WGF5101TCE</t>
+  </si>
+  <si>
     <t>R7</t>
   </si>
   <si>
@@ -1354,6 +1452,15 @@
     <t>R11</t>
   </si>
   <si>
+    <t>53.6k</t>
+  </si>
+  <si>
+    <t>53.6k ±1% 62.5mW 50V -55℃~+155℃</t>
+  </si>
+  <si>
+    <t>0402WGF5363TCE</t>
+  </si>
+  <si>
     <t>68k</t>
   </si>
   <si>
@@ -1402,7 +1509,7 @@
     <t>R15</t>
   </si>
   <si>
-    <t>10m 1206</t>
+    <t>10m/1206</t>
   </si>
   <si>
     <t>10mΩ ±1% 250mW 200V -55℃~+155℃</t>
@@ -1714,6 +1821,21 @@
     <t>https://atta.szlcsc.com/upload/public/pdf/source/20220920/1D2884B4030841D334A38D0CCA0C1153.pdf</t>
   </si>
   <si>
+    <t>AP30P30Q</t>
+  </si>
+  <si>
+    <t>Vdsmax=-30V,Idmax=-30A,Vgs=±20V,Vgs(th)=-0.8~-2.0V,Ciss=2150pF,Rds(on=10mΩ@Vgs=-10V</t>
+  </si>
+  <si>
+    <t>PDFN3333-8</t>
+  </si>
+  <si>
+    <t>ALLPOWER</t>
+  </si>
+  <si>
+    <t>https://atta.szlcsc.com/upload/public/pdf/source/20191223/C471913_B184247E1DAE5CB75F6A4AD676FC3726.pdf</t>
+  </si>
+  <si>
     <t>PN2</t>
   </si>
   <si>
@@ -1828,12 +1950,27 @@
     <t>YXC(扬兴晶振)</t>
   </si>
   <si>
-    <t>X201624MMB4SI,X201624MMB4SI</t>
+    <t>X201624MMB4SI</t>
   </si>
   <si>
     <t>https://atta.szlcsc.com/upload/public/pdf/source/20210329/C108154_97241DDF47B5B71D7D93F8906D63DA2F.pdf</t>
   </si>
   <si>
+    <t>8M 12p</t>
+  </si>
+  <si>
+    <t>频率：8MHz 负载：12pF 频率公差：±30ppm 工作温度：-40~85℃</t>
+  </si>
+  <si>
+    <t>SMD3225-4P</t>
+  </si>
+  <si>
+    <t>X32258MOB4SI</t>
+  </si>
+  <si>
+    <t>https://atta.szlcsc.com/upload/public/pdf/source/20210106/C2682774_0CD4FDA5D9DA3FBEEC23BD607A48E4B0.pdf</t>
+  </si>
+  <si>
     <t>H1</t>
   </si>
   <si>
@@ -1927,7 +2064,7 @@
     <t>CON1x2</t>
   </si>
   <si>
-    <t>con1x2_2.0</t>
+    <t>con1x2_2d0</t>
   </si>
   <si>
     <t>2x2 2p0</t>
@@ -1939,7 +2076,7 @@
     <t>CON2x2</t>
   </si>
   <si>
-    <t>con2x2_2.0</t>
+    <t>con2x2_2d0</t>
   </si>
   <si>
     <t>1x3 2p54</t>
@@ -1951,7 +2088,19 @@
     <t>CON1x3</t>
   </si>
   <si>
-    <t>con1x3_2.54</t>
+    <t>con1x3_2d54</t>
+  </si>
+  <si>
+    <t>1x4 2p54</t>
+  </si>
+  <si>
+    <t>2.54mm，1x4P，方针，针长度：3.9mm，塑高：2mm，端接针长度：2.8mm，黄铜，-40℃~+105℃ ，黑色</t>
+  </si>
+  <si>
+    <t>CON1x4</t>
+  </si>
+  <si>
+    <t>con1x4_2d54</t>
   </si>
   <si>
     <t>Switch</t>
@@ -1979,6 +2128,18 @@
   </si>
   <si>
     <t>https://atta.szlcsc.com/upload/public/pdf/source/20200618/C668605_9C1065207AFEF8C715B1238987CF5F80.pdf</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>测试点1.5mm</t>
+  </si>
+  <si>
+    <t>TP1.5</t>
   </si>
   <si>
     <t>A1</t>
@@ -2004,10 +2165,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -2563,19 +2724,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3118,7 +3279,7 @@
   <sheetPr/>
   <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
@@ -3778,34 +3939,34 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="33" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>652</v>
+        <v>705</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>653</v>
+        <v>706</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>654</v>
+        <v>707</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>655</v>
+        <v>708</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>654</v>
+        <v>707</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>654</v>
+        <v>707</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>656</v>
+        <v>709</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>654</v>
+        <v>707</v>
       </c>
       <c r="I2" s="3">
         <v>0.5</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>657</v>
+        <v>710</v>
       </c>
     </row>
   </sheetData>
@@ -3817,13 +3978,29 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4316,108 +4493,104 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="33" spans="1:10">
+    <row r="16" s="1" customFormat="1" ht="82.5" spans="1:10">
       <c r="A16" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="D16" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="E16" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="F16" s="12" t="s">
+      <c r="G16" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="H16" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="29"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="33" spans="1:10">
+      <c r="A17" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B17" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="H16" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="I16" s="12">
+      <c r="C17" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="I17" s="12">
         <v>2.2</v>
       </c>
-      <c r="J16" s="27" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="66" spans="1:10">
-      <c r="A17" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="I17" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="J17" s="26" t="s">
+      <c r="J17" s="27" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="49.5" spans="1:10">
+    <row r="18" s="1" customFormat="1" ht="66" spans="1:10">
       <c r="A18" s="11" t="s">
         <v>169</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="C18" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="12" t="s">
         <v>170</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="H18" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="I18" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="J18" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="I18" s="12">
-        <v>5.3</v>
-      </c>
-      <c r="J18" s="26" t="s">
+    </row>
+    <row r="19" s="1" customFormat="1" ht="49.5" spans="1:10">
+      <c r="A19" s="11" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="82.5" spans="1:10">
-      <c r="A19" s="11" t="s">
-        <v>169</v>
-      </c>
       <c r="B19" s="24" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>175</v>
@@ -4429,123 +4602,123 @@
         <v>175</v>
       </c>
       <c r="F19" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="G19" s="12" t="s">
         <v>177</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>101</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>178</v>
       </c>
       <c r="I19" s="12">
-        <v>6</v>
-      </c>
-      <c r="J19" s="29" t="s">
+        <v>5.3</v>
+      </c>
+      <c r="J19" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="49.5" spans="1:10">
+    <row r="20" s="1" customFormat="1" ht="82.5" spans="1:10">
       <c r="A20" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F20" s="12" t="s">
         <v>182</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>101</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I20" s="12">
-        <v>1.95</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>185</v>
+        <v>6</v>
+      </c>
+      <c r="J20" s="29" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="49.5" spans="1:10">
       <c r="A21" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="12" t="s">
         <v>188</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="I21" s="12">
+        <v>1.95</v>
+      </c>
+      <c r="J21" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="H21" s="3" t="s">
+    </row>
+    <row r="22" s="1" customFormat="1" ht="49.5" spans="1:10">
+      <c r="A22" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="I21" s="3">
+      <c r="B22" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="I22" s="3">
         <v>3.2</v>
       </c>
-      <c r="J21" s="26" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="33" spans="1:10">
-      <c r="A22" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="J22" s="26" t="s">
         <v>197</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="J22" s="27" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="33" spans="1:10">
       <c r="A23" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>194</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>200</v>
@@ -4554,7 +4727,7 @@
         <v>201</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>92</v>
@@ -4569,62 +4742,62 @@
         <v>0.8</v>
       </c>
       <c r="J23" s="27" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="24" ht="49.5" spans="1:10">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="33" spans="1:10">
       <c r="A24" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="F24" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J24" s="27" t="s">
         <v>203</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="I24" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="J24" s="27" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="25" ht="49.5" spans="1:10">
       <c r="A25" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="D25" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="C25" s="12" t="s">
+      <c r="E25" s="12" t="s">
         <v>211</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>212</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>206</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>92</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="H25" s="12" t="s">
         <v>213</v>
@@ -4632,72 +4805,104 @@
       <c r="I25" s="12">
         <v>0.5</v>
       </c>
-      <c r="J25" s="26" t="s">
+      <c r="J25" s="27" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="26" ht="33" spans="1:10">
+    <row r="26" ht="49.5" spans="1:10">
       <c r="A26" s="11" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F26" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="H26" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="G26" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="H26" s="19" t="s">
+      <c r="I26" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="J26" s="26" t="s">
         <v>219</v>
-      </c>
-      <c r="I26" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="J26" s="26" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="27" ht="33" spans="1:10">
       <c r="A27" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C27" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="D27" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="E27" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="F27" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="G27" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="H27" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="I27" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="J27" s="26" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="28" ht="33" spans="1:10">
+      <c r="A28" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="B28" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="G28" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="H27" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="I27" s="12">
+      <c r="H28" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="I28" s="12">
         <v>0.6</v>
       </c>
-      <c r="J27" s="26" t="s">
-        <v>226</v>
+      <c r="J28" s="26" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -4712,24 +4917,24 @@
     <hyperlink ref="J11" r:id="rId5" display="https://www.semiee.com/file/Source10/silergy-SY8089AAAC.pdf" tooltip="https://www.semiee.com/file/Source10/silergy-SY8089AAAC.pdf"/>
     <hyperlink ref="J5" r:id="rId6" display="https://www.semiee.com/file/TI/TI-TPS563201.pdf" tooltip="https://www.semiee.com/file/TI/TI-TPS563201.pdf"/>
     <hyperlink ref="J6" r:id="rId7" display="https://www.semiee.com/file/TI/TI-TPS562200.pdf" tooltip="https://www.semiee.com/file/TI/TI-TPS562200.pdf"/>
-    <hyperlink ref="J24" r:id="rId8" display="https://www.richtek.com/assets/product_file/RT9193/DS9193-18.pdf"/>
-    <hyperlink ref="J17" r:id="rId9" display="https://www.semiee.com/file/WCH/WCH-CH224.pdf"/>
-    <hyperlink ref="J18" r:id="rId10" display="https://www.semiee.com/file/EOL2/Realtek-ALC5616-CGT.pdf"/>
-    <hyperlink ref="J20" r:id="rId11" display="https://www.semiee.com/file/TI/TI-TXB0108.pdf"/>
-    <hyperlink ref="J21" r:id="rId12" display="https://www.semiee.com/file/Hynetek/Hynetek-HUSB238.pdf"/>
-    <hyperlink ref="J27" r:id="rId13" display="https://www.semiee.com/file/TI/TI-LM358.pdf"/>
+    <hyperlink ref="J25" r:id="rId8" display="https://www.richtek.com/assets/product_file/RT9193/DS9193-18.pdf"/>
+    <hyperlink ref="J18" r:id="rId9" display="https://www.semiee.com/file/WCH/WCH-CH224.pdf"/>
+    <hyperlink ref="J19" r:id="rId10" display="https://www.semiee.com/file/EOL2/Realtek-ALC5616-CGT.pdf"/>
+    <hyperlink ref="J21" r:id="rId11" display="https://www.semiee.com/file/TI/TI-TXB0108.pdf"/>
+    <hyperlink ref="J22" r:id="rId12" display="https://www.semiee.com/file/Hynetek/Hynetek-HUSB238.pdf"/>
+    <hyperlink ref="J28" r:id="rId13" display="https://www.semiee.com/file/TI/TI-LM358.pdf"/>
     <hyperlink ref="J2" r:id="rId14" display="https://www.semiee.com/file/SouthChip/SouthChip-SC8906.pdf"/>
     <hyperlink ref="J3" r:id="rId15" display="https://www.semiee.com/file/SGMICRO/SGMICRO-SGM40561.pdf"/>
-    <hyperlink ref="J22" r:id="rId16" display="https://www.semiee.com/file/TI/TI-INA180.pdf"/>
     <hyperlink ref="J23" r:id="rId16" display="https://www.semiee.com/file/TI/TI-INA180.pdf"/>
+    <hyperlink ref="J24" r:id="rId16" display="https://www.semiee.com/file/TI/TI-INA180.pdf"/>
     <hyperlink ref="J13" r:id="rId17" display="https://www.semiee.com/file/FREQCHIP/FREQCHIP-FR8016HA.pdf"/>
     <hyperlink ref="J14" r:id="rId18" display="https://www.semiee.com/file/Silan/Silan-SC7A20.pdf"/>
     <hyperlink ref="J4" r:id="rId19" display="https://atta.szlcsc.com/upload/public/pdf/source/20211011/DD9DB39E30D67DDF115F79B4376A27FF.pdf"/>
     <hyperlink ref="J12" r:id="rId20" display="https://www.semiee.com/file/SILERGY/SILERGY-SY9701ADPC.pdf"/>
     <hyperlink ref="J15" r:id="rId21" display="https://www.semiee.com/file/Espressif/Espressif-ESP32-PICO-D4.pdf" tooltip="https://www.semiee.com/file/Espressif/Espressif-ESP32-PICO-D4.pdf"/>
-    <hyperlink ref="J19" r:id="rId22" display="https://www.ti.com/lit/ds/symlink/tlv320aic3101.pdf?ts=1698998478028&amp;ref_url=https%253A%252F%252Fwww.ti.com%252Fproduct%252FTLV320AIC3101%253FkeyMatch%253DTLV320AIC3101IRHBR%2526tisearch%253DSearch-EN-Everything" tooltip="https://www.ti.com/lit/ds/symlink/tlv320aic3101.pdf?ts=1698998478028&amp;ref_url=https%253A%252F%252Fwww.ti.com%252Fproduct%252FTLV320AIC3101%253FkeyMatch%253DTLV320AIC3101IRHBR%2526tisearch%253DSearch-EN-Everything"/>
-    <hyperlink ref="J25" r:id="rId23" display="https://atta.szlcsc.com/upload/public/pdf/source/20130730/1457706628575.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20130730/1457706628575.pdf"/>
+    <hyperlink ref="J20" r:id="rId22" display="https://www.ti.com/lit/ds/symlink/tlv320aic3101.pdf?ts=1698998478028&amp;ref_url=https%253A%252F%252Fwww.ti.com%252Fproduct%252FTLV320AIC3101%253FkeyMatch%253DTLV320AIC3101IRHBR%2526tisearch%253DSearch-EN-Everything" tooltip="https://www.ti.com/lit/ds/symlink/tlv320aic3101.pdf?ts=1698998478028&amp;ref_url=https%253A%252F%252Fwww.ti.com%252Fproduct%252FTLV320AIC3101%253FkeyMatch%253DTLV320AIC3101IRHBR%2526tisearch%253DSearch-EN-Everything"/>
     <hyperlink ref="J26" r:id="rId23" display="https://atta.szlcsc.com/upload/public/pdf/source/20130730/1457706628575.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20130730/1457706628575.pdf"/>
+    <hyperlink ref="J27" r:id="rId23" display="https://atta.szlcsc.com/upload/public/pdf/source/20130730/1457706628575.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20130730/1457706628575.pdf"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4739,10 +4944,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4756,7 +4961,7 @@
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="23.5" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="50.625" customWidth="1"/>
+    <col min="10" max="10" width="50.625" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
@@ -4787,25 +4992,25 @@
       <c r="I1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A2" s="18" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>14</v>
@@ -4814,30 +5019,30 @@
         <v>15</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="I2" s="3">
         <v>0.23</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>232</v>
+      <c r="J2" s="17" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A3" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>228</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>14</v>
@@ -4846,94 +5051,94 @@
         <v>15</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="I3" s="3">
         <v>0.23</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>232</v>
+      <c r="J3" s="17" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A4" s="18" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="I4" s="3">
         <v>0.18</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>241</v>
+      <c r="J4" s="17" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A5" s="18" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="I5" s="3">
         <v>0.18</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>241</v>
+      <c r="J5" s="17" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A6" s="18" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>14</v>
@@ -4942,30 +5147,30 @@
         <v>15</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="I6" s="3">
         <v>0.23</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>232</v>
+      <c r="J6" s="17" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A7" s="18" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>14</v>
@@ -4974,94 +5179,94 @@
         <v>15</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="I7" s="3">
         <v>0.23</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>232</v>
+      <c r="J7" s="17" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A8" s="18" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="I8" s="3">
         <v>0.18</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>241</v>
+      <c r="J8" s="17" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A9" s="18" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="I9" s="3">
         <v>0.18</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>241</v>
+      <c r="J9" s="17" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A10" s="18" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>14</v>
@@ -5070,30 +5275,30 @@
         <v>15</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="I10" s="3">
         <v>0.23</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>232</v>
+      <c r="J10" s="17" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A11" s="18" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>14</v>
@@ -5102,30 +5307,30 @@
         <v>15</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="I11" s="3">
         <v>0.23</v>
       </c>
-      <c r="J11" s="5" t="s">
-        <v>232</v>
+      <c r="J11" s="17" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A12" s="18" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>14</v>
@@ -5134,531 +5339,657 @@
         <v>15</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="I12" s="3">
         <v>0.6</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>265</v>
+      <c r="J12" s="17" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A13" s="18" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="I13" s="3">
         <v>0.18</v>
       </c>
-      <c r="J13" s="5" t="s">
-        <v>241</v>
+      <c r="J13" s="17" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A14" s="18" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="I14" s="3">
         <v>0.18</v>
       </c>
-      <c r="J14" s="5" t="s">
-        <v>241</v>
+      <c r="J14" s="17" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A15" s="18" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>71</v>
+        <v>279</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>277</v>
       </c>
       <c r="I15" s="3">
-        <v>0.14</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>278</v>
+        <v>0.28</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A16" s="18" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>71</v>
+        <v>285</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="I16" s="3">
-        <v>0.14</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>283</v>
+        <v>0.5</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A17" s="18" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>288</v>
+        <v>71</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>289</v>
+        <v>36</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="I17" s="3">
-        <v>0.74</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>291</v>
+        <v>0.14</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A18" s="18" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>288</v>
+        <v>71</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>289</v>
+        <v>36</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I18" s="3">
-        <v>0.35</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>291</v>
+        <v>0.14</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A19" s="18" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="I19" s="3">
-        <v>0.26</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>291</v>
+        <v>0.74</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A20" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>285</v>
-      </c>
       <c r="C20" s="3" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="I20" s="3">
         <v>0.35</v>
       </c>
-      <c r="J20" s="8" t="s">
-        <v>291</v>
+      <c r="J20" s="17" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A21" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="H21" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="J21" s="17" t="s">
         <v>306</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0.24</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A22" s="18" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="I22" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>291</v>
+        <v>0.35</v>
+      </c>
+      <c r="J22" s="17" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A23" s="18" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="I23" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>291</v>
+        <v>0.24</v>
+      </c>
+      <c r="J23" s="17" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A24" s="18" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="I24" s="3">
-        <v>0.39</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>321</v>
+        <v>0.4</v>
+      </c>
+      <c r="J24" s="17" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A25" s="18" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="I25" s="3">
-        <v>0.39</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>321</v>
+        <v>0.3</v>
+      </c>
+      <c r="J25" s="17" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A26" s="18" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="I26" s="3">
-        <v>0.41</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>331</v>
+        <v>0.39</v>
+      </c>
+      <c r="J26" s="17" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A27" s="18" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="D27" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>329</v>
-      </c>
       <c r="G27" s="3" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="I27" s="3">
-        <v>0.38</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>331</v>
+        <v>0.39</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A28" s="18" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="I28" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="J28" s="17" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
+      <c r="A29" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="J29" s="17" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
+      <c r="A30" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="I30" s="3">
         <v>0.31</v>
       </c>
-      <c r="J28" s="8" t="s">
-        <v>331</v>
+      <c r="J30" s="17" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
+      <c r="A31" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="I31" s="3">
+        <v>1.1</v>
+      </c>
+      <c r="J31" s="17" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
+      <c r="A32" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J32" s="17" t="s">
+        <v>365</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G17" r:id="rId1" display="佰宏" tooltip="https://list.szlcsc.com/brand/12424.html"/>
-    <hyperlink ref="G18" r:id="rId1" display="佰宏" tooltip="https://list.szlcsc.com/brand/12424.html"/>
     <hyperlink ref="G19" r:id="rId1" display="佰宏" tooltip="https://list.szlcsc.com/brand/12424.html"/>
     <hyperlink ref="G20" r:id="rId1" display="佰宏" tooltip="https://list.szlcsc.com/brand/12424.html"/>
     <hyperlink ref="G21" r:id="rId1" display="佰宏" tooltip="https://list.szlcsc.com/brand/12424.html"/>
@@ -5669,21 +6000,23 @@
     <hyperlink ref="G26" r:id="rId1" display="佰宏" tooltip="https://list.szlcsc.com/brand/12424.html"/>
     <hyperlink ref="G27" r:id="rId1" display="佰宏" tooltip="https://list.szlcsc.com/brand/12424.html"/>
     <hyperlink ref="G28" r:id="rId1" display="佰宏" tooltip="https://list.szlcsc.com/brand/12424.html"/>
+    <hyperlink ref="G29" r:id="rId1" display="佰宏" tooltip="https://list.szlcsc.com/brand/12424.html"/>
+    <hyperlink ref="G30" r:id="rId1" display="佰宏" tooltip="https://list.szlcsc.com/brand/12424.html"/>
     <hyperlink ref="J4" r:id="rId2" display="https://atta.szlcsc.com/upload/public/pdf/source/20230823/46DC63B2A09D9D06F4FC5ACC8B9FF97C.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20230823/46DC63B2A09D9D06F4FC5ACC8B9FF97C.pdf"/>
-    <hyperlink ref="J15" r:id="rId3" display="https://www.semiee.com/file/JSCJ/JSCJ-CESD3V3D5.pdf" tooltip="https://www.semiee.com/file/JSCJ/JSCJ-CESD3V3D5.pdf"/>
-    <hyperlink ref="J28" r:id="rId4" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD0603-050-12V.pdf" tooltip="https://www.semiee.com/file/Source10/BHFUSE-BSMD0603-050-12V.pdf"/>
-    <hyperlink ref="J25" r:id="rId5" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD0805-100-12V.pdf" tooltip="https://www.semiee.com/file/Source10/BHFUSE-BSMD0805-100-12V.pdf"/>
-    <hyperlink ref="J23" r:id="rId6" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD1206-200-16V.pdf" tooltip="https://www.semiee.com/file/Source10/BHFUSE-BSMD1206-200-16V.pdf"/>
-    <hyperlink ref="J27" r:id="rId4" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD0603-050-12V.pdf"/>
-    <hyperlink ref="J26" r:id="rId4" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD0603-050-12V.pdf"/>
-    <hyperlink ref="J24" r:id="rId5" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD0805-100-12V.pdf"/>
+    <hyperlink ref="J17" r:id="rId3" display="https://www.semiee.com/file/JSCJ/JSCJ-CESD3V3D5.pdf" tooltip="https://www.semiee.com/file/JSCJ/JSCJ-CESD3V3D5.pdf"/>
+    <hyperlink ref="J30" r:id="rId4" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD0603-050-12V.pdf" tooltip="https://www.semiee.com/file/Source10/BHFUSE-BSMD0603-050-12V.pdf"/>
+    <hyperlink ref="J27" r:id="rId5" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD0805-100-12V.pdf" tooltip="https://www.semiee.com/file/Source10/BHFUSE-BSMD0805-100-12V.pdf"/>
+    <hyperlink ref="J25" r:id="rId6" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD1206-200-16V.pdf" tooltip="https://www.semiee.com/file/Source10/BHFUSE-BSMD1206-200-16V.pdf"/>
+    <hyperlink ref="J29" r:id="rId4" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD0603-050-12V.pdf"/>
+    <hyperlink ref="J28" r:id="rId4" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD0603-050-12V.pdf"/>
+    <hyperlink ref="J26" r:id="rId5" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD0805-100-12V.pdf"/>
+    <hyperlink ref="J24" r:id="rId6" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD1206-200-16V.pdf"/>
+    <hyperlink ref="J23" r:id="rId6" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD1206-200-16V.pdf"/>
     <hyperlink ref="J22" r:id="rId6" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD1206-200-16V.pdf"/>
     <hyperlink ref="J21" r:id="rId6" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD1206-200-16V.pdf"/>
     <hyperlink ref="J20" r:id="rId6" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD1206-200-16V.pdf"/>
     <hyperlink ref="J19" r:id="rId6" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD1206-200-16V.pdf"/>
-    <hyperlink ref="J18" r:id="rId6" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD1206-200-16V.pdf"/>
-    <hyperlink ref="J17" r:id="rId6" display="https://www.semiee.com/file/Source10/BHFUSE-BSMD1206-200-16V.pdf"/>
-    <hyperlink ref="J16" r:id="rId7" display="https://www.semiee.com/file/JSCJ/JSCJ-CESD5V0D5.pdf"/>
+    <hyperlink ref="J18" r:id="rId7" display="https://www.semiee.com/file/JSCJ/JSCJ-CESD5V0D5.pdf"/>
     <hyperlink ref="J5" r:id="rId2" display="https://atta.szlcsc.com/upload/public/pdf/source/20230823/46DC63B2A09D9D06F4FC5ACC8B9FF97C.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20230823/46DC63B2A09D9D06F4FC5ACC8B9FF97C.pdf"/>
     <hyperlink ref="J8" r:id="rId2" display="https://atta.szlcsc.com/upload/public/pdf/source/20230823/46DC63B2A09D9D06F4FC5ACC8B9FF97C.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20230823/46DC63B2A09D9D06F4FC5ACC8B9FF97C.pdf"/>
     <hyperlink ref="J9" r:id="rId2" display="https://atta.szlcsc.com/upload/public/pdf/source/20230823/46DC63B2A09D9D06F4FC5ACC8B9FF97C.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20230823/46DC63B2A09D9D06F4FC5ACC8B9FF97C.pdf"/>
@@ -5696,6 +6029,12 @@
     <hyperlink ref="J10" r:id="rId8" display="https://atta.szlcsc.com/upload/public/pdf/source/20230314/4319D8044EE29783A53F6AC60595AA71.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20230314/4319D8044EE29783A53F6AC60595AA71.pdf"/>
     <hyperlink ref="J11" r:id="rId8" display="https://atta.szlcsc.com/upload/public/pdf/source/20230314/4319D8044EE29783A53F6AC60595AA71.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20230314/4319D8044EE29783A53F6AC60595AA71.pdf"/>
     <hyperlink ref="J12" r:id="rId9" display="https://atta.szlcsc.com/upload/public/pdf/source/20230314/F34DF519F5F449A83723D8F8A566B99C.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20230314/F34DF519F5F449A83723D8F8A566B99C.pdf"/>
+    <hyperlink ref="G31" r:id="rId1" display="佰宏" tooltip="https://list.szlcsc.com/brand/12424.html"/>
+    <hyperlink ref="J31" r:id="rId10" display="https://atta.szlcsc.com/upload/public/pdf/source/20231116/B17D78E2F7235F890FF617F29F76F627.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20231116/B17D78E2F7235F890FF617F29F76F627.pdf"/>
+    <hyperlink ref="G32" r:id="rId1" display="大毅科技" tooltip="https://list.szlcsc.com/brand/12424.html"/>
+    <hyperlink ref="J32" r:id="rId11" display="https://atta.szlcsc.com/upload/public/pdf/source/20180126/C163128_15169515180301308268.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20180126/C163128_15169515180301308268.pdf"/>
+    <hyperlink ref="J15" r:id="rId12" display="https://atta.szlcsc.com/upload/public/pdf/source/20230314/C8F66EF07395B88C11214ABD10019202.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20230314/C8F66EF07395B88C11214ABD10019202.pdf"/>
+    <hyperlink ref="J16" r:id="rId13" display="https://www.ti.com/cn/lit/ds/symlink/tpd4e05u06.pdf?ts=1707202011553&amp;ref_url=https%253A%252F%252Fso.szlcsc.com%252F" tooltip="https://www.ti.com/cn/lit/ds/symlink/tpd4e05u06.pdf?ts=1707202011553&amp;ref_url=https%253A%252F%252Fso.szlcsc.com%252F"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5760,322 +6099,322 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>340</v>
+        <v>366</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>345</v>
+        <v>371</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>347</v>
+        <v>373</v>
       </c>
       <c r="I2" s="3">
         <v>0.23</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>348</v>
+        <v>374</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>349</v>
+        <v>375</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>353</v>
+        <v>379</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="I3" s="3">
         <v>0.47</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>353</v>
+        <v>379</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>360</v>
+        <v>386</v>
       </c>
       <c r="I4" s="3">
         <v>0.47</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A5" s="3" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>353</v>
+        <v>379</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>364</v>
+        <v>390</v>
       </c>
       <c r="I5" s="3">
         <v>0.47</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>365</v>
+        <v>391</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>366</v>
+        <v>392</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="I6" s="3">
         <v>0.42</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A7" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>344</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>373</v>
+        <v>399</v>
       </c>
       <c r="I7" s="3">
         <v>0.42</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A8" s="3" t="s">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>375</v>
+        <v>401</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>376</v>
+        <v>402</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>377</v>
+        <v>403</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>378</v>
+        <v>404</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>379</v>
+        <v>405</v>
       </c>
       <c r="I8" s="3">
         <v>0.04</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>380</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A9" s="3" t="s">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>384</v>
+        <v>410</v>
       </c>
       <c r="I9" s="3">
         <v>0.47</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>385</v>
+        <v>411</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>386</v>
+        <v>412</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>387</v>
+        <v>413</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>388</v>
+        <v>414</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="I10" s="3">
         <v>0.9</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
     </row>
     <row r="11" ht="28.5" spans="1:10">
       <c r="A11" s="3" t="s">
-        <v>390</v>
+        <v>416</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>391</v>
+        <v>417</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>392</v>
+        <v>418</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>393</v>
+        <v>419</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>391</v>
+        <v>417</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>394</v>
+        <v>420</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>395</v>
+        <v>421</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>396</v>
+        <v>422</v>
       </c>
       <c r="I11" s="3">
         <v>0.031</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>397</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -6099,10 +6438,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6153,482 +6492,578 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A2" s="11" t="s">
-        <v>398</v>
+        <v>424</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>400</v>
+        <v>426</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>403</v>
+        <v>429</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
       <c r="I2" s="11">
         <v>0.002</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A3" s="11" t="s">
-        <v>406</v>
+        <v>432</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>403</v>
+        <v>429</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="I3" s="11">
         <v>0.002</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A4" s="11" t="s">
-        <v>411</v>
+        <v>437</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="C4" s="11">
-        <v>33</v>
+        <v>367</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>438</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>412</v>
+        <v>439</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>403</v>
+        <v>429</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>413</v>
+        <v>440</v>
       </c>
       <c r="I4" s="11">
         <v>0.002</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A5" s="11" t="s">
-        <v>414</v>
+        <v>437</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>415</v>
+        <v>367</v>
+      </c>
+      <c r="C5" s="11">
+        <v>33</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>416</v>
+        <v>441</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>403</v>
+        <v>429</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>417</v>
+        <v>442</v>
       </c>
       <c r="I5" s="11">
         <v>0.002</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A6" s="11" t="s">
-        <v>418</v>
+        <v>443</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>419</v>
+        <v>444</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>420</v>
+        <v>445</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>403</v>
+        <v>429</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="I6" s="11">
         <v>0.002</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A7" s="11" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>423</v>
+        <v>448</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>403</v>
+        <v>429</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>425</v>
+        <v>450</v>
       </c>
       <c r="I7" s="11">
         <v>0.002</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A8" s="11" t="s">
-        <v>426</v>
+        <v>451</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="C8" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="F8" s="11" t="s">
         <v>428</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>402</v>
-      </c>
       <c r="G8" s="11" t="s">
-        <v>403</v>
+        <v>429</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>429</v>
+        <v>454</v>
       </c>
       <c r="I8" s="11">
         <v>0.002</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A9" s="11" t="s">
-        <v>430</v>
+        <v>451</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>431</v>
+        <v>455</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>432</v>
+        <v>456</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>403</v>
+        <v>429</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>433</v>
+        <v>457</v>
       </c>
       <c r="I9" s="11">
         <v>0.002</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A10" s="11" t="s">
-        <v>434</v>
+        <v>458</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>435</v>
+        <v>459</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>436</v>
+        <v>460</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>403</v>
+        <v>429</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>437</v>
+        <v>461</v>
       </c>
       <c r="I10" s="11">
         <v>0.002</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A11" s="11" t="s">
-        <v>438</v>
+        <v>462</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>439</v>
+        <v>463</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>403</v>
+        <v>429</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>441</v>
+        <v>465</v>
       </c>
       <c r="I11" s="11">
         <v>0.002</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A12" s="11" t="s">
-        <v>442</v>
+        <v>466</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>444</v>
+        <v>468</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>403</v>
+        <v>429</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>445</v>
+        <v>469</v>
       </c>
       <c r="I12" s="11">
         <v>0.002</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A13" s="11" t="s">
-        <v>446</v>
+        <v>470</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>447</v>
+        <v>471</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>448</v>
+        <v>472</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>403</v>
+        <v>429</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>449</v>
+        <v>473</v>
       </c>
       <c r="I13" s="11">
         <v>0.002</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A14" s="11" t="s">
-        <v>450</v>
+        <v>474</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>451</v>
+        <v>475</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>452</v>
+        <v>476</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>403</v>
+        <v>429</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="I14" s="11">
         <v>0.002</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A15" s="11" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>455</v>
+        <v>478</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>456</v>
+        <v>479</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>403</v>
+        <v>429</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>457</v>
+        <v>480</v>
       </c>
       <c r="I15" s="11">
         <v>0.002</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A16" s="11" t="s">
-        <v>458</v>
+        <v>481</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>459</v>
+        <v>482</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>460</v>
+        <v>483</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>461</v>
+        <v>428</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>403</v>
+        <v>429</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>462</v>
+        <v>484</v>
       </c>
       <c r="I16" s="11">
+        <v>0.002</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A17" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0.002</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A18" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="I18" s="11">
+        <v>0.002</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A19" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="I19" s="11">
         <v>0.1</v>
       </c>
-      <c r="J16" s="11" t="s">
-        <v>463</v>
+      <c r="J19" s="11" t="s">
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -6645,8 +7080,8 @@
   <sheetPr/>
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6697,124 +7132,124 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A2" s="11" t="s">
-        <v>464</v>
+        <v>499</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>465</v>
+        <v>500</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>466</v>
+        <v>501</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>467</v>
+        <v>502</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>468</v>
+        <v>503</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>469</v>
+        <v>504</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>470</v>
+        <v>505</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>471</v>
+        <v>506</v>
       </c>
       <c r="I2" s="11">
         <v>0.005</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>472</v>
+        <v>507</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A3" s="11" t="s">
-        <v>473</v>
+        <v>508</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>465</v>
+        <v>500</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>474</v>
+        <v>509</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>475</v>
+        <v>510</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>468</v>
+        <v>503</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>469</v>
+        <v>504</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>476</v>
+        <v>511</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>477</v>
+        <v>512</v>
       </c>
       <c r="I3" s="11">
         <v>0.035</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>478</v>
+        <v>513</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A4" s="11" t="s">
-        <v>479</v>
+        <v>514</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>465</v>
+        <v>500</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>480</v>
+        <v>515</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>481</v>
+        <v>516</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>468</v>
+        <v>503</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>469</v>
+        <v>504</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>470</v>
+        <v>505</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>482</v>
+        <v>517</v>
       </c>
       <c r="I4" s="11">
         <v>0.02</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>483</v>
+        <v>518</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A5" s="11" t="s">
-        <v>479</v>
+        <v>514</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>465</v>
+        <v>500</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>484</v>
+        <v>519</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>485</v>
+        <v>520</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>468</v>
+        <v>503</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>469</v>
+        <v>504</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>476</v>
+        <v>511</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>486</v>
+        <v>521</v>
       </c>
       <c r="I5" s="11">
         <v>0.02</v>
@@ -6823,512 +7258,512 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A6" s="11" t="s">
-        <v>487</v>
+        <v>522</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>465</v>
+        <v>500</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>488</v>
+        <v>523</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>467</v>
+        <v>502</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>468</v>
+        <v>503</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>469</v>
+        <v>504</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>470</v>
+        <v>505</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>489</v>
+        <v>524</v>
       </c>
       <c r="I6" s="11">
         <v>0.004</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>472</v>
+        <v>507</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A7" s="11" t="s">
-        <v>490</v>
+        <v>525</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>465</v>
+        <v>500</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>491</v>
+        <v>526</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>492</v>
+        <v>527</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>468</v>
+        <v>503</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>469</v>
+        <v>504</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>470</v>
+        <v>505</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>493</v>
+        <v>528</v>
       </c>
       <c r="I7" s="14">
         <v>0.017</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>472</v>
+        <v>507</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A8" s="11" t="s">
-        <v>494</v>
+        <v>529</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>465</v>
+        <v>500</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>495</v>
+        <v>530</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>496</v>
+        <v>531</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>468</v>
+        <v>503</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>469</v>
+        <v>504</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>470</v>
+        <v>505</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>497</v>
+        <v>532</v>
       </c>
       <c r="I8" s="11">
         <v>0.018</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>472</v>
+        <v>507</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A9" s="11" t="s">
-        <v>498</v>
+        <v>533</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>465</v>
+        <v>500</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>495</v>
+        <v>530</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>496</v>
+        <v>531</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>468</v>
+        <v>503</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>499</v>
+        <v>534</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>470</v>
+        <v>505</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>500</v>
+        <v>535</v>
       </c>
       <c r="I9" s="11">
         <v>0.234</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>472</v>
+        <v>507</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A10" s="11" t="s">
-        <v>501</v>
+        <v>536</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>465</v>
+        <v>500</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>502</v>
+        <v>537</v>
       </c>
       <c r="D10" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>503</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>468</v>
-      </c>
       <c r="F10" s="11" t="s">
-        <v>499</v>
+        <v>534</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>504</v>
+        <v>539</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>505</v>
+        <v>540</v>
       </c>
       <c r="I10" s="14">
         <v>0.02</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>506</v>
+        <v>541</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A11" s="11" t="s">
-        <v>507</v>
+        <v>542</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>465</v>
+        <v>500</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>502</v>
+        <v>537</v>
       </c>
       <c r="D11" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>503</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>468</v>
-      </c>
       <c r="F11" s="11" t="s">
-        <v>469</v>
+        <v>504</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>504</v>
+        <v>539</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>508</v>
+        <v>543</v>
       </c>
       <c r="I11" s="14">
         <v>0.02</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>506</v>
+        <v>541</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A12" s="11" t="s">
-        <v>509</v>
+        <v>544</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>465</v>
+        <v>500</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>510</v>
+        <v>545</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>511</v>
+        <v>546</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>468</v>
+        <v>503</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>469</v>
+        <v>504</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>504</v>
+        <v>539</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>512</v>
+        <v>547</v>
       </c>
       <c r="I12" s="14">
         <v>0.01</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>506</v>
+        <v>541</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A13" s="11" t="s">
-        <v>513</v>
+        <v>548</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>465</v>
+        <v>500</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>514</v>
+        <v>549</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>515</v>
+        <v>550</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>468</v>
+        <v>503</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>499</v>
+        <v>534</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>504</v>
+        <v>539</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>516</v>
+        <v>551</v>
       </c>
       <c r="I13" s="14">
         <v>0.03</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>506</v>
+        <v>541</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A14" s="11" t="s">
-        <v>517</v>
+        <v>552</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>465</v>
+        <v>500</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>518</v>
+        <v>553</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>468</v>
+        <v>503</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>499</v>
+        <v>534</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>504</v>
+        <v>539</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>520</v>
+        <v>555</v>
       </c>
       <c r="I14" s="14">
         <v>0.05</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>506</v>
+        <v>541</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A15" s="11" t="s">
-        <v>521</v>
+        <v>556</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>465</v>
+        <v>500</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>522</v>
+        <v>557</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>523</v>
+        <v>558</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>468</v>
+        <v>503</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>499</v>
+        <v>534</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>504</v>
+        <v>539</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>524</v>
+        <v>559</v>
       </c>
       <c r="I15" s="14">
         <v>0.1</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>506</v>
+        <v>541</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A16" s="11" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>465</v>
+        <v>500</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>468</v>
+        <v>503</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>499</v>
+        <v>534</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>504</v>
+        <v>539</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="I16" s="11">
         <v>0.036</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>506</v>
+        <v>541</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A17" s="11" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>465</v>
+        <v>500</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>468</v>
+        <v>503</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>499</v>
+        <v>534</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>533</v>
+        <v>568</v>
       </c>
       <c r="I17" s="14">
         <v>0.07</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>534</v>
+        <v>569</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A18" s="11" t="s">
-        <v>535</v>
+        <v>570</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>465</v>
+        <v>500</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>536</v>
+        <v>571</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>537</v>
+        <v>572</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>468</v>
+        <v>503</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>499</v>
+        <v>534</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>504</v>
+        <v>539</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>538</v>
+        <v>573</v>
       </c>
       <c r="I18" s="14">
         <v>0.08</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>506</v>
+        <v>541</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A19" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>539</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>504</v>
-      </c>
       <c r="H19" s="3" t="s">
-        <v>543</v>
+        <v>578</v>
       </c>
       <c r="I19" s="14">
         <v>0.16</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>544</v>
+        <v>579</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A20" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="G20" s="11" t="s">
         <v>539</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>545</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>547</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>504</v>
-      </c>
       <c r="H20" s="3" t="s">
-        <v>548</v>
+        <v>583</v>
       </c>
       <c r="I20" s="14">
         <v>0.4</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>544</v>
+        <v>579</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A21" s="11" t="s">
-        <v>539</v>
+        <v>574</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>549</v>
+        <v>584</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>550</v>
+        <v>585</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>551</v>
+        <v>586</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>552</v>
+        <v>587</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>553</v>
+        <v>588</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>554</v>
+        <v>589</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="14">
         <v>0.11</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>555</v>
+        <v>590</v>
       </c>
     </row>
   </sheetData>
@@ -7348,13 +7783,13 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="16.25" customWidth="1"/>
     <col min="2" max="2" width="13.25" customWidth="1"/>
@@ -7402,171 +7837,204 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>556</v>
+        <v>591</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>557</v>
+        <v>592</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>558</v>
+        <v>593</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>559</v>
+        <v>594</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>557</v>
+        <v>592</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>560</v>
+        <v>595</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>93</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>561</v>
+        <v>596</v>
       </c>
       <c r="I2" s="3">
         <v>0.14</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>562</v>
+        <v>597</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>563</v>
+        <v>591</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>564</v>
+        <v>592</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>565</v>
+        <v>598</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>566</v>
+        <v>599</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>567</v>
+        <v>592</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>36</v>
+        <v>601</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>565</v>
+        <v>598</v>
       </c>
       <c r="I3" s="3">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>568</v>
+        <v>602</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>569</v>
+        <v>603</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>564</v>
+        <v>604</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>570</v>
+        <v>605</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>571</v>
+        <v>606</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>564</v>
+        <v>607</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>560</v>
+        <v>595</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>572</v>
+        <v>36</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>570</v>
+        <v>605</v>
       </c>
       <c r="I4" s="3">
         <v>0.1</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A5" s="3" t="s">
-        <v>574</v>
+        <v>609</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>575</v>
+        <v>604</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>576</v>
+        <v>610</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>577</v>
+        <v>611</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>560</v>
+        <v>595</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>36</v>
+        <v>612</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>576</v>
+        <v>610</v>
       </c>
       <c r="I5" s="3">
         <v>0.1</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>579</v>
+        <v>613</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>580</v>
+        <v>614</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>581</v>
+        <v>615</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>582</v>
+        <v>616</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>583</v>
+        <v>617</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>584</v>
+        <v>618</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>560</v>
+        <v>595</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>36</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>582</v>
+        <v>616</v>
       </c>
       <c r="I6" s="3">
         <v>0.1</v>
       </c>
-      <c r="J6" s="10" t="s">
-        <v>585</v>
+      <c r="J6" s="9" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A7" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>625</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J3" r:id="rId1" display="https://www.semiee.com/file/JSCJ/JSCJ-2N7002.pdf" tooltip="https://www.semiee.com/file/JSCJ/JSCJ-2N7002.pdf"/>
-    <hyperlink ref="J6" r:id="rId2" display="https://www.semiee.com/file/JSCJ/JSCJ-DTC144ECA.pdf" tooltip="https://www.semiee.com/file/JSCJ/JSCJ-DTC144ECA.pdf"/>
-    <hyperlink ref="J5" r:id="rId3" display="https://www.semiee.com/file/JSCJ/JSCJ-DTA144ECA.pdf" tooltip="https://www.semiee.com/file/JSCJ/JSCJ-DTA144ECA.pdf"/>
+    <hyperlink ref="J4" r:id="rId1" display="https://www.semiee.com/file/JSCJ/JSCJ-2N7002.pdf" tooltip="https://www.semiee.com/file/JSCJ/JSCJ-2N7002.pdf"/>
+    <hyperlink ref="J7" r:id="rId2" display="https://www.semiee.com/file/JSCJ/JSCJ-DTC144ECA.pdf" tooltip="https://www.semiee.com/file/JSCJ/JSCJ-DTC144ECA.pdf"/>
+    <hyperlink ref="J6" r:id="rId3" display="https://www.semiee.com/file/JSCJ/JSCJ-DTA144ECA.pdf" tooltip="https://www.semiee.com/file/JSCJ/JSCJ-DTA144ECA.pdf"/>
     <hyperlink ref="J2" r:id="rId4" display="https://atta.szlcsc.com/upload/public/pdf/source/20220920/1D2884B4030841D334A38D0CCA0C1153.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20220920/1D2884B4030841D334A38D0CCA0C1153.pdf"/>
-    <hyperlink ref="J4" r:id="rId5" display="https://www.semiee.com/file/AOS/AOS-AO3402.pdf"/>
+    <hyperlink ref="J5" r:id="rId5" display="https://www.semiee.com/file/AOS/AOS-AO3402.pdf"/>
+    <hyperlink ref="J3" r:id="rId6" display="https://atta.szlcsc.com/upload/public/pdf/source/20191223/C471913_B184247E1DAE5CB75F6A4AD676FC3726.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20191223/C471913_B184247E1DAE5CB75F6A4AD676FC3726.pdf"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -7576,13 +8044,13 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="16.25" customWidth="1"/>
     <col min="2" max="2" width="13.25" customWidth="1"/>
@@ -7630,72 +8098,105 @@
     </row>
     <row r="2" ht="33" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>586</v>
+        <v>626</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>588</v>
+        <v>628</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>589</v>
+        <v>629</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>590</v>
+        <v>630</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>591</v>
+        <v>631</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>592</v>
+        <v>632</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>593</v>
+        <v>633</v>
       </c>
       <c r="I2" s="3">
         <v>1.5</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>594</v>
+        <v>634</v>
       </c>
     </row>
     <row r="3" ht="33" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>595</v>
+        <v>635</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>596</v>
+        <v>636</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>597</v>
+        <v>637</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>598</v>
+        <v>638</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>599</v>
+        <v>639</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>600</v>
+        <v>640</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>601</v>
+        <v>641</v>
       </c>
       <c r="I3" s="3">
         <v>0.5</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>602</v>
+        <v>642</v>
+      </c>
+    </row>
+    <row r="4" ht="33" spans="1:10">
+      <c r="A4" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>647</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" display="https://atta.szlcsc.com/upload/public/pdf/source/20210303/C1985211_782CA948DE6020BF6ED8D350FE23A121.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20210303/C1985211_782CA948DE6020BF6ED8D350FE23A121.pdf"/>
     <hyperlink ref="J3" r:id="rId2" display="https://atta.szlcsc.com/upload/public/pdf/source/20210329/C108154_97241DDF47B5B71D7D93F8906D63DA2F.pdf"/>
+    <hyperlink ref="J4" r:id="rId3" display="https://atta.szlcsc.com/upload/public/pdf/source/20210106/C2682774_0CD4FDA5D9DA3FBEEC23BD607A48E4B0.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20210106/C2682774_0CD4FDA5D9DA3FBEEC23BD607A48E4B0.pdf"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -7705,10 +8206,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7759,146 +8260,146 @@
     </row>
     <row r="2" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>603</v>
+        <v>648</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>604</v>
+        <v>649</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>605</v>
+        <v>650</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>606</v>
+        <v>651</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>607</v>
+        <v>652</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>608</v>
+        <v>653</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>609</v>
+        <v>654</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>610</v>
+        <v>655</v>
       </c>
       <c r="I2" s="3">
         <v>0.34</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>611</v>
+        <v>656</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>612</v>
+        <v>657</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>604</v>
+        <v>649</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>613</v>
+        <v>658</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>614</v>
+        <v>659</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>615</v>
+        <v>660</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>616</v>
+        <v>661</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>609</v>
+        <v>654</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>617</v>
+        <v>662</v>
       </c>
       <c r="I3" s="3">
         <v>0.22</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>618</v>
+        <v>663</v>
       </c>
     </row>
     <row r="4" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>612</v>
+        <v>657</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>604</v>
+        <v>649</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>619</v>
+        <v>664</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>620</v>
+        <v>665</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>621</v>
+        <v>666</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>622</v>
+        <v>667</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>623</v>
+        <v>668</v>
       </c>
       <c r="I4" s="3">
         <v>0.22</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>624</v>
+        <v>669</v>
       </c>
     </row>
     <row r="5" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A5" s="3" t="s">
-        <v>612</v>
+        <v>657</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>604</v>
+        <v>649</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>625</v>
+        <v>670</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>626</v>
+        <v>671</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>627</v>
+        <v>672</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>622</v>
+        <v>667</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>628</v>
+        <v>673</v>
       </c>
       <c r="I5" s="3">
         <v>0.56</v>
       </c>
       <c r="J5" t="s">
-        <v>629</v>
+        <v>674</v>
       </c>
     </row>
     <row r="6" s="6" customFormat="1" ht="33" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>468</v>
+        <v>503</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>630</v>
+        <v>675</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>631</v>
+        <v>676</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>632</v>
+        <v>677</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>633</v>
+        <v>678</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>634</v>
+        <v>679</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -7907,22 +8408,22 @@
     </row>
     <row r="7" s="6" customFormat="1" ht="33" spans="1:10">
       <c r="A7" s="3" t="s">
-        <v>468</v>
+        <v>503</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>630</v>
+        <v>675</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>635</v>
+        <v>680</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>636</v>
+        <v>681</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>637</v>
+        <v>682</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>638</v>
+        <v>683</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -7931,96 +8432,140 @@
     </row>
     <row r="8" s="6" customFormat="1" ht="49.5" spans="1:10">
       <c r="A8" s="3" t="s">
-        <v>468</v>
+        <v>503</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>630</v>
+        <v>675</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>639</v>
+        <v>684</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>640</v>
+        <v>685</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>641</v>
+        <v>686</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>642</v>
+        <v>687</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" s="6" customFormat="1" ht="28.5" spans="1:10">
+    <row r="9" s="6" customFormat="1" ht="49.5" spans="1:10">
       <c r="A9" s="3" t="s">
-        <v>468</v>
+        <v>503</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>643</v>
+        <v>675</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>644</v>
+        <v>688</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>645</v>
+        <v>689</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3" t="s">
-        <v>647</v>
-      </c>
+        <v>690</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="3">
+      <c r="I9" s="3"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" s="6" customFormat="1" ht="28.5" spans="1:10">
+      <c r="A10" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3">
         <v>0.2</v>
       </c>
-      <c r="J9" s="8" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="10" s="6" customFormat="1" ht="33" spans="1:10">
-      <c r="A10" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="J10" s="8" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="11" s="6" customFormat="1" ht="33" spans="1:10">
+      <c r="A11" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="C11" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="I11" s="3">
         <v>0.28</v>
       </c>
-      <c r="J10" s="8" t="s">
-        <v>651</v>
-      </c>
+      <c r="J11" s="8" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="12" s="6" customFormat="1" ht="16.5" spans="1:10">
+      <c r="A12" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" display="https://atta.szlcsc.com/upload/public/pdf/source/20211123/39B17C16241EAC15C5E277BDA434118E.pdf"/>
     <hyperlink ref="J3" r:id="rId2" display="https://atta.szlcsc.com/upload/public/pdf/source/20200618/C668623_A4B260DED7AC1949BAC6AE39E9F4CD80.pdf"/>
-    <hyperlink ref="J9" r:id="rId3" display="https://atta.szlcsc.com/upload/public/pdf/source/20230321/913029B0FB0CD391AF5EFD51697D8EC4.pdf"/>
+    <hyperlink ref="J10" r:id="rId3" display="https://atta.szlcsc.com/upload/public/pdf/source/20230321/913029B0FB0CD391AF5EFD51697D8EC4.pdf"/>
     <hyperlink ref="J4" r:id="rId4" display="https://www.semiee.com/d82ec360-fd00-4aa6-b4b3-4503eeea05cf.html" tooltip="https://www.semiee.com/d82ec360-fd00-4aa6-b4b3-4503eeea05cf.html"/>
     <hyperlink ref="J5" r:id="rId5" display="https://atta.szlcsc.com/upload/public/pdf/source/20230331/9E5D7F75DED95C1BE5FD2D397BA2A54B.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20230331/9E5D7F75DED95C1BE5FD2D397BA2A54B.pdf"/>
-    <hyperlink ref="J10" r:id="rId6" display="https://atta.szlcsc.com/upload/public/pdf/source/20200618/C668605_9C1065207AFEF8C715B1238987CF5F80.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20200618/C668605_9C1065207AFEF8C715B1238987CF5F80.pdf"/>
+    <hyperlink ref="J11" r:id="rId6" display="https://atta.szlcsc.com/upload/public/pdf/source/20200618/C668605_9C1065207AFEF8C715B1238987CF5F80.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20200618/C668605_9C1065207AFEF8C715B1238987CF5F80.pdf"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Excel_CIS.xlsx
+++ b/Excel_CIS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12525" activeTab="8"/>
+    <workbookView windowWidth="27945" windowHeight="12525" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="DIODE" sheetId="1" r:id="rId1"/>
@@ -17,14 +17,14 @@
     <sheet name="晶振" sheetId="8" r:id="rId8"/>
     <sheet name="连接器" sheetId="9" r:id="rId9"/>
     <sheet name="ANT" sheetId="10" r:id="rId10"/>
-    <sheet name="Sheet1" sheetId="11" r:id="rId11"/>
+    <sheet name="模块" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="720">
   <si>
     <t>Part Number</t>
   </si>
@@ -317,6 +317,120 @@
     <t>DCDC</t>
   </si>
   <si>
+    <t>SY8088AAC</t>
+  </si>
+  <si>
+    <t>1.5MHz同步降压调节器,2.5-5V输入,持续1A,40uA静态,轻载高效率,内部软启动,-40_85°C</t>
+  </si>
+  <si>
+    <t>SY8088</t>
+  </si>
+  <si>
+    <t>Silergy</t>
+  </si>
+  <si>
+    <t>https://www.semiee.com/file/SILERGY/SILERGY-SY8088.pdf</t>
+  </si>
+  <si>
+    <t>IC5</t>
+  </si>
+  <si>
+    <t>SY8089AAAC</t>
+  </si>
+  <si>
+    <t>1MHz同步降压调节器,2.7-5.5V输入,持续2A,55uA静态,轻载高效率,内部软启动,短路打嗝保护,-40_85°C</t>
+  </si>
+  <si>
+    <t>SY8089</t>
+  </si>
+  <si>
+    <t>https://www.semiee.com/file/Source10/silergy-SY8089AAAC.pdf</t>
+  </si>
+  <si>
+    <t>IC6</t>
+  </si>
+  <si>
+    <t>SY8113BADC</t>
+  </si>
+  <si>
+    <t>500KHz同步降压调节器,4.5-18V输入,持续3A,100uA静态,轻载高效率,内部软启动,-40_85°C</t>
+  </si>
+  <si>
+    <t>SY8113B</t>
+  </si>
+  <si>
+    <t>SOT23-6</t>
+  </si>
+  <si>
+    <t>https://www.semiee.com/file/SILERGY/SILERGY-SY8113BADC.pdf</t>
+  </si>
+  <si>
+    <t>IC7</t>
+  </si>
+  <si>
+    <t>SY8120B1ABC</t>
+  </si>
+  <si>
+    <t>500KHz同步降压调节器,4.5-18V输入,持续2A,400uA静态,轻载高效率,内部软启动,-40_85°C</t>
+  </si>
+  <si>
+    <t>SY8120B1</t>
+  </si>
+  <si>
+    <t>https://www.semiee.com/file/SILERGY/SILERGY-SY8120B1.pdf</t>
+  </si>
+  <si>
+    <t>IC8</t>
+  </si>
+  <si>
+    <t>SY8201ABC</t>
+  </si>
+  <si>
+    <t>500KHz同步降压调节器,4.5-27V输入,持续1A,400uA静态,轻载高效率,内部软启动,-40_85°C</t>
+  </si>
+  <si>
+    <t>SY8201</t>
+  </si>
+  <si>
+    <t>https://www.semiee.com/file/SILERGY/SILERGY-SY8201ABC.pdf</t>
+  </si>
+  <si>
+    <t>IC9</t>
+  </si>
+  <si>
+    <t>SY9701ADPC</t>
+  </si>
+  <si>
+    <t>2.6V至5.5V输入，2.6V-3.8V输出，Back-Boost无缝升降压，1MHz，1.2A连续输出电流，内置热关断、短路保护</t>
+  </si>
+  <si>
+    <t>DFN-3x3-14</t>
+  </si>
+  <si>
+    <t>https://www.semiee.com/file/SILERGY/SILERGY-SY9701ADPC.pdf</t>
+  </si>
+  <si>
+    <t>IC10</t>
+  </si>
+  <si>
+    <t>TPS562200DDCR</t>
+  </si>
+  <si>
+    <t>650KHz同步降压调节器,4.5-17V输入,0.76V-7V输出,持续2A,＜10uA静态,轻载脉冲跳跃模式,高效率,内部软启动1ms,-40_85°C,过压、欠压、热关断</t>
+  </si>
+  <si>
+    <t>TPS562200</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>https://www.semiee.com/file/TI/TI-TPS562200.pdf</t>
+  </si>
+  <si>
+    <t>IC11</t>
+  </si>
+  <si>
     <t>TPS563201DDCR</t>
   </si>
   <si>
@@ -326,129 +440,33 @@
     <t>TPS563201</t>
   </si>
   <si>
-    <t>SOT23-6</t>
-  </si>
-  <si>
-    <t>TI</t>
-  </si>
-  <si>
     <t>https://www.semiee.com/file/TI/TI-TPS563201.pdf</t>
   </si>
   <si>
-    <t>IC5</t>
-  </si>
-  <si>
-    <t>TPS562200DDCR</t>
-  </si>
-  <si>
-    <t>650KHz同步降压调节器,4.5-17V输入,0.76V-7V输出,持续2A,＜10uA静态,轻载脉冲跳跃模式,高效率,内部软启动1ms,-40_85°C,过压、欠压、热关断</t>
-  </si>
-  <si>
-    <t>TPS562200</t>
-  </si>
-  <si>
-    <t>https://www.semiee.com/file/TI/TI-TPS562200.pdf</t>
-  </si>
-  <si>
-    <t>IC6</t>
-  </si>
-  <si>
-    <t>SY8088AAC</t>
-  </si>
-  <si>
-    <t>1.5MHz同步降压调节器,2.5-5V输入,持续1A,40uA静态,轻载高效率,内部软启动,-40_85°C</t>
-  </si>
-  <si>
-    <t>SY8088</t>
-  </si>
-  <si>
-    <t>Silergy</t>
-  </si>
-  <si>
-    <t>https://www.semiee.com/file/SILERGY/SILERGY-SY8088.pdf</t>
-  </si>
-  <si>
-    <t>IC7</t>
-  </si>
-  <si>
-    <t>SY8201ABC</t>
-  </si>
-  <si>
-    <t>500KHz同步降压调节器,4.5-27V输入,持续1A,400uA静态,轻载高效率,内部软启动,-40_85°C</t>
-  </si>
-  <si>
-    <t>SY8201</t>
-  </si>
-  <si>
-    <t>https://www.semiee.com/file/SILERGY/SILERGY-SY8201ABC.pdf</t>
-  </si>
-  <si>
-    <t>IC8</t>
-  </si>
-  <si>
-    <t>SY8120B1ABC</t>
-  </si>
-  <si>
-    <t>500KHz同步降压调节器,4.5-18V输入,持续2A,400uA静态,轻载高效率,内部软启动,-40_85°C</t>
-  </si>
-  <si>
-    <t>SY8120B1</t>
-  </si>
-  <si>
-    <t>https://www.semiee.com/file/SILERGY/SILERGY-SY8120B1.pdf</t>
-  </si>
-  <si>
-    <t>IC9</t>
-  </si>
-  <si>
-    <t>SY8113BADC</t>
-  </si>
-  <si>
-    <t>500KHz同步降压调节器,4.5-18V输入,持续3A,100uA静态,轻载高效率,内部软启动,-40_85°C</t>
-  </si>
-  <si>
-    <t>SY8113B</t>
-  </si>
-  <si>
-    <t>https://www.semiee.com/file/SILERGY/SILERGY-SY8113BADC.pdf</t>
-  </si>
-  <si>
-    <t>IC10</t>
-  </si>
-  <si>
-    <t>SY8089AAAC</t>
-  </si>
-  <si>
-    <t>1MHz同步降压调节器,2.7-5.5V输入,持续2A,55uA静态,轻载高效率,内部软启动,短路打嗝保护,-40_85°C</t>
-  </si>
-  <si>
-    <t>SY8089</t>
-  </si>
-  <si>
-    <t>https://www.semiee.com/file/Source10/silergy-SY8089AAAC.pdf</t>
-  </si>
-  <si>
-    <t>IC11</t>
-  </si>
-  <si>
-    <t>SY9701ADPC</t>
-  </si>
-  <si>
-    <t>2.6V至5.5V输入，2.6V-3.8V输出，Back-Boost无缝升降压，1MHz，1.2A连续输出电流，内置热关断、短路保护</t>
-  </si>
-  <si>
-    <t>DFN-3x3-14</t>
-  </si>
-  <si>
-    <t>https://www.semiee.com/file/SILERGY/SILERGY-SY9701ADPC.pdf</t>
-  </si>
-  <si>
     <t>IC12</t>
   </si>
   <si>
     <t>IC</t>
   </si>
   <si>
+    <t>ESP32-PICO-D4</t>
+  </si>
+  <si>
+    <t>ESP32-PICO-D4 是一款基于 ESP32 的系统级封装 (SiP) 模组，可提供完整的Wi-Fi 和蓝牙 ® 功能。该模组的外 观尺寸仅为 (7.000±0.100) mm × (7.000±0.100) mm × (0.940±0.100) mm，整体占用的 PCB 面积最小，已集成 1 个 4 MB 串行外围设备接口 (SPI) flash。</t>
+  </si>
+  <si>
+    <t>PQFN49P50_700X700X105L40X25T450</t>
+  </si>
+  <si>
+    <t>espressif</t>
+  </si>
+  <si>
+    <t>https://www.semiee.com/file/Espressif/Espressif-ESP32-PICO-D4.pdf</t>
+  </si>
+  <si>
+    <t>IC13</t>
+  </si>
+  <si>
     <t>FR8016HA</t>
   </si>
   <si>
@@ -464,7 +482,7 @@
     <t>https://www.semiee.com/file/FREQCHIP/FREQCHIP-FR8016HA.pdf</t>
   </si>
   <si>
-    <t>IC13</t>
+    <t>IC14</t>
   </si>
   <si>
     <t>SC7A20</t>
@@ -485,22 +503,7 @@
     <t>https://www.semiee.com/file/Silan/Silan-SC7A20.pdf</t>
   </si>
   <si>
-    <t>IC14</t>
-  </si>
-  <si>
-    <t>ESP32-PICO-D4</t>
-  </si>
-  <si>
-    <t>ESP32-PICO-D4 是一款基于 ESP32 的系统级封装 (SiP) 模组，可提供完整的Wi-Fi 和蓝牙 ® 功能。该模组的外 观尺寸仅为 (7.000±0.100) mm × (7.000±0.100) mm × (0.940±0.100) mm，整体占用的 PCB 面积最小，已集成 1 个 4 MB 串行外围设备接口 (SPI) flash。</t>
-  </si>
-  <si>
-    <t>PQFN49P50_700X700X105L40X25T450</t>
-  </si>
-  <si>
-    <t>espressif</t>
-  </si>
-  <si>
-    <t>https://www.semiee.com/file/Espressif/Espressif-ESP32-PICO-D4.pdf</t>
+    <t>IC15</t>
   </si>
   <si>
     <t>STM32G070CBT6</t>
@@ -515,9 +518,48 @@
     <t>ST</t>
   </si>
   <si>
+    <t>IC16</t>
+  </si>
+  <si>
     <t>Interface</t>
   </si>
   <si>
+    <t>ALC5616</t>
+  </si>
+  <si>
+    <t>ALC5616 是一款高性能、低功耗、立体声通道 I2S 接口音频编解码器，集成的DRC（动态范围控制器）和7段参数均衡器提供了音频播放路径的进一步数字声音处理能力。</t>
+  </si>
+  <si>
+    <t>Realtek</t>
+  </si>
+  <si>
+    <t>ALC5616-CG</t>
+  </si>
+  <si>
+    <t>https://www.semiee.com/file/EOL2/Realtek-ALC5616-CGT.pdf</t>
+  </si>
+  <si>
+    <t>IC17</t>
+  </si>
+  <si>
+    <t>CH224D</t>
+  </si>
+  <si>
+    <t>4V至22V 输入电压,支持 PD3.0/2.0，BC1.2等快充协议,支持 USB Type-C PD，支持正反插检测与自动切换,支持 E-Mark 模拟，自动检测 VCONN，支持 100W 功率的 PD 请求,内置过压保护模块OVA、超温保护模块OTA</t>
+  </si>
+  <si>
+    <t>QFN20-3*3</t>
+  </si>
+  <si>
+    <t>南京沁恒</t>
+  </si>
+  <si>
+    <t>https://www.semiee.com/file/WCH/WCH-CH224.pdf</t>
+  </si>
+  <si>
+    <t>IC18</t>
+  </si>
+  <si>
     <t>CH340K</t>
   </si>
   <si>
@@ -527,43 +569,31 @@
     <t>ESOP-10-EP</t>
   </si>
   <si>
-    <t>南京沁恒</t>
-  </si>
-  <si>
     <t>D:\Cadence_LIB\Datasheet\USB转串口芯片CH340.pdf</t>
   </si>
   <si>
-    <t>IC15</t>
-  </si>
-  <si>
-    <t>CH224D</t>
-  </si>
-  <si>
-    <t>4V至22V 输入电压,支持 PD3.0/2.0，BC1.2等快充协议,支持 USB Type-C PD，支持正反插检测与自动切换,支持 E-Mark 模拟，自动检测 VCONN，支持 100W 功率的 PD 请求,内置过压保护模块OVA、超温保护模块OTA</t>
-  </si>
-  <si>
-    <t>QFN20-3*3</t>
-  </si>
-  <si>
-    <t>https://www.semiee.com/file/WCH/WCH-CH224.pdf</t>
-  </si>
-  <si>
-    <t>IC16</t>
-  </si>
-  <si>
-    <t>ALC5616</t>
-  </si>
-  <si>
-    <t>ALC5616 是一款高性能、低功耗、立体声通道 I2S 接口音频编解码器，集成的DRC（动态范围控制器）和7段参数均衡器提供了音频播放路径的进一步数字声音处理能力。</t>
-  </si>
-  <si>
-    <t>Realtek</t>
-  </si>
-  <si>
-    <t>ALC5616-CG</t>
-  </si>
-  <si>
-    <t>https://www.semiee.com/file/EOL2/Realtek-ALC5616-CGT.pdf</t>
+    <t>IC19</t>
+  </si>
+  <si>
+    <t>HUSB238</t>
+  </si>
+  <si>
+    <t>PD Sink,VBUS过压和欠压，过流保护,门限可配置,过温保护90℃/75℃,传输的额定功率可达100W。兼容PD3.0 V1.3和Type-C V1.4、BC1.2 DCP、CDP和SDP和Apple 5V2.4A充电协议。</t>
+  </si>
+  <si>
+    <t>DFN-3X3-10L</t>
+  </si>
+  <si>
+    <t>Hynetek</t>
+  </si>
+  <si>
+    <t>HUSB238_003DD</t>
+  </si>
+  <si>
+    <t>https://www.semiee.com/file/Hynetek/Hynetek-HUSB238.pdf</t>
+  </si>
+  <si>
+    <t>IC20</t>
   </si>
   <si>
     <t>TLV320AIC3101</t>
@@ -581,7 +611,7 @@
     <t>https://www.ti.com/lit/ds/symlink/tlv320aic3101.pdf?ts=1698998478028&amp;ref_url=https%253A%252F%252Fwww.ti.com%252Fproduct%252FTLV320AIC3101%253FkeyMatch%253DTLV320AIC3101IRHBR%2526tisearch%253DSearch-EN-Everything</t>
   </si>
   <si>
-    <t>IC17</t>
+    <t>IC21</t>
   </si>
   <si>
     <t>TXB0108DQS</t>
@@ -599,28 +629,7 @@
     <t>https://www.semiee.com/file/TI/TI-TXB0108.pdf</t>
   </si>
   <si>
-    <t>IC18</t>
-  </si>
-  <si>
-    <t>HUSB238</t>
-  </si>
-  <si>
-    <t>PD Sink,VBUS过压和欠压，过流保护,门限可配置,过温保护90℃/75℃,传输的额定功率可达100W。兼容PD3.0 V1.3和Type-C V1.4、BC1.2 DCP、CDP和SDP和Apple 5V2.4A充电协议。</t>
-  </si>
-  <si>
-    <t>DFN-3X3-10L</t>
-  </si>
-  <si>
-    <t>Hynetek</t>
-  </si>
-  <si>
-    <t>HUSB238_003DD</t>
-  </si>
-  <si>
-    <t>https://www.semiee.com/file/Hynetek/Hynetek-HUSB238.pdf</t>
-  </si>
-  <si>
-    <t>IC19</t>
+    <t>IC22</t>
   </si>
   <si>
     <t>I-Sensing</t>
@@ -638,7 +647,7 @@
     <t>https://www.semiee.com/file/TI/TI-INA180.pdf</t>
   </si>
   <si>
-    <t>IC20</t>
+    <t>IC23</t>
   </si>
   <si>
     <t>INA180A2</t>
@@ -647,12 +656,33 @@
     <t>电流检测放大器,Vcm=26V,Vs=2.7-5V,Gain=50,单通道消耗的最大电流为260µA</t>
   </si>
   <si>
-    <t>IC21</t>
+    <t>IC24</t>
   </si>
   <si>
     <t>LDO</t>
   </si>
   <si>
+    <t>AMS1117-3.3</t>
+  </si>
+  <si>
+    <t>低压超低噪声差线性稳压器,12Vin,3.3Vout,Vdrop=1.2V@１A, ，5-10ｍＡ静态电流，-40-125℃</t>
+  </si>
+  <si>
+    <t>AMS1117</t>
+  </si>
+  <si>
+    <t>SOT-223</t>
+  </si>
+  <si>
+    <t>UMW AMS1117-3.3</t>
+  </si>
+  <si>
+    <t>https://atta.szlcsc.com/upload/public/pdf/source/20130730/1457706628575.pdf</t>
+  </si>
+  <si>
+    <t>IC25</t>
+  </si>
+  <si>
     <t>RT9193-1.8</t>
   </si>
   <si>
@@ -671,7 +701,7 @@
     <t>https://www.richtek.com/assets/product_file/RT9193/DS9193-18.pdf</t>
   </si>
   <si>
-    <t>IC22</t>
+    <t>IC26</t>
   </si>
   <si>
     <t>RT9193-3.3</t>
@@ -683,25 +713,7 @@
     <t>RT9193-33GB</t>
   </si>
   <si>
-    <t>https://atta.szlcsc.com/upload/public/pdf/source/20130730/1457706628575.pdf</t>
-  </si>
-  <si>
-    <t>AMS1117-3.3</t>
-  </si>
-  <si>
-    <t>低压超低噪声差线性稳压器,12Vin,3.3Vout,Vdrop=1.2V@１A, ，5-10ｍＡ静态电流，-40-125℃</t>
-  </si>
-  <si>
-    <t>AMS1117</t>
-  </si>
-  <si>
-    <t>SOT-223</t>
-  </si>
-  <si>
-    <t>UMW AMS1117-3.3</t>
-  </si>
-  <si>
-    <t>IC23</t>
+    <t>IC27</t>
   </si>
   <si>
     <t>OPA</t>
@@ -2158,6 +2170,21 @@
   </si>
   <si>
     <t>http://gzhwjdz.com/DownLoad/45858.html</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>AN3034</t>
+  </si>
+  <si>
+    <t>QCC3034 蓝牙5.1音频模块，支持apt-X, apt-X HD, apt-X Low Latency, AAC, SBC解码，发射功率:+9dBm，尺寸:13mm x 18mm x 2.8mm</t>
+  </si>
+  <si>
+    <t>安郎科技</t>
   </si>
 </sst>
 </file>
@@ -2869,7 +2896,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2940,7 +2967,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2954,6 +2990,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3888,7 +3933,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A1" sqref="$A1:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
@@ -3939,34 +3984,34 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="33" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="I2" s="3">
         <v>0.5</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
     </row>
   </sheetData>
@@ -3981,14 +4026,85 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="16.25" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="50.625" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="15.375" customWidth="1"/>
+    <col min="9" max="9" width="9.375" customWidth="1"/>
+    <col min="10" max="10" width="50.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="49.5" spans="1:10">
+      <c r="A2" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="5"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -3999,8 +4115,8 @@
   <sheetPr/>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4075,7 +4191,7 @@
       <c r="I2" s="11">
         <v>5.1</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="29" t="s">
         <v>81</v>
       </c>
     </row>
@@ -4107,7 +4223,7 @@
       <c r="I3" s="11">
         <v>2</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="29" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4139,11 +4255,11 @@
       <c r="I4" s="11">
         <v>0.23</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="29" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="49.5" spans="1:10">
+    <row r="5" s="1" customFormat="1" ht="33" spans="1:10">
       <c r="A5" s="11" t="s">
         <v>95</v>
       </c>
@@ -4160,276 +4276,276 @@
         <v>99</v>
       </c>
       <c r="F5" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>100</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>101</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>97</v>
       </c>
       <c r="I5" s="11">
-        <v>0.45</v>
-      </c>
-      <c r="J5" s="26" t="s">
+        <v>0.33</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="33" spans="1:10">
+      <c r="A6" s="11" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="49.5" spans="1:10">
-      <c r="A6" s="11" t="s">
-        <v>103</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>96</v>
       </c>
       <c r="C6" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="E6" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="F6" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0.55</v>
+      </c>
+      <c r="J6" s="29" t="s">
         <v>106</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="I6" s="11">
-        <v>1.15</v>
-      </c>
-      <c r="J6" s="27" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="33" spans="1:10">
       <c r="A7" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>96</v>
       </c>
       <c r="C7" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="E7" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="F7" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>92</v>
-      </c>
       <c r="G7" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="J7" s="29" t="s">
         <v>112</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="I7" s="11">
-        <v>0.33</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="33" spans="1:10">
       <c r="A8" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>96</v>
       </c>
       <c r="C8" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="E8" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="F8" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0.57</v>
+      </c>
+      <c r="J8" s="30" t="s">
         <v>117</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="I8" s="11">
-        <v>1.1</v>
-      </c>
-      <c r="J8" s="27" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="33" spans="1:10">
       <c r="A9" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>96</v>
       </c>
       <c r="C9" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="E9" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="F9" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="I9" s="22">
+        <v>1.1</v>
+      </c>
+      <c r="J9" s="30" t="s">
         <v>122</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="I9" s="22">
-        <v>0.57</v>
-      </c>
-      <c r="J9" s="27" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="33" spans="1:10">
       <c r="A10" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="E10" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="G10" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="I10" s="22"/>
+      <c r="J10" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="F10" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="I10" s="22">
-        <v>0.75</v>
-      </c>
-      <c r="J10" s="26" t="s">
+    </row>
+    <row r="11" s="1" customFormat="1" ht="49.5" spans="1:10">
+      <c r="A11" s="11" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="33" spans="1:10">
-      <c r="A11" s="11" t="s">
-        <v>129</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>96</v>
       </c>
       <c r="C11" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="E11" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="F11" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="F11" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>112</v>
-      </c>
       <c r="H11" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I11" s="22">
-        <v>0.55</v>
-      </c>
-      <c r="J11" s="26" t="s">
+        <v>1.15</v>
+      </c>
+      <c r="J11" s="30" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="33" spans="1:10">
+    <row r="12" s="1" customFormat="1" ht="49.5" spans="1:10">
       <c r="A12" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H12" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="28" t="s">
+      <c r="I12" s="22">
+        <v>0.45</v>
+      </c>
+      <c r="J12" s="29" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="49.5" spans="1:10">
+    <row r="13" s="1" customFormat="1" ht="82.5" spans="1:10">
       <c r="A13" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="I13" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="J13" s="26" t="s">
+      <c r="I13" s="24">
+        <v>20</v>
+      </c>
+      <c r="J13" s="32" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="66" spans="1:10">
+    <row r="14" s="1" customFormat="1" ht="49.5" spans="1:10">
       <c r="A14" s="11" t="s">
         <v>146</v>
       </c>
@@ -4452,489 +4568,490 @@
         <v>150</v>
       </c>
       <c r="H14" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I14" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="J14" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="I14" s="3">
+    </row>
+    <row r="15" s="1" customFormat="1" ht="66" spans="1:10">
+      <c r="A15" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="I15" s="24">
         <v>2.9</v>
       </c>
-      <c r="J14" s="26" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="82.5" spans="1:10">
-      <c r="A15" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="I15" s="3">
-        <v>20</v>
-      </c>
-      <c r="J15" s="29" t="s">
+      <c r="J15" s="33" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="82.5" spans="1:10">
       <c r="A16" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="B16" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="C16" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="D16" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="E16" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="F16" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="29"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="33" spans="1:10">
+      <c r="G16" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="I16" s="24"/>
+      <c r="J16" s="34"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="49.5" spans="1:10">
       <c r="A17" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="C17" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="B17" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>164</v>
+      <c r="C17" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>164</v>
+        <v>168</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="I17" s="12">
-        <v>2.2</v>
-      </c>
-      <c r="J17" s="27" t="s">
-        <v>168</v>
+        <v>5.3</v>
+      </c>
+      <c r="J17" s="29" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="66" spans="1:10">
       <c r="A18" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="D18" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="E18" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="F18" s="12" t="s">
+      <c r="B18" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="G18" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="I18" s="12">
+      <c r="D18" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="I18" s="22">
         <v>1.2</v>
       </c>
-      <c r="J18" s="26" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="49.5" spans="1:10">
+      <c r="J18" s="29" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="33" spans="1:10">
       <c r="A19" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="C19" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="G19" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="I19" s="12">
-        <v>5.3</v>
-      </c>
-      <c r="J19" s="26" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="82.5" spans="1:10">
+      <c r="I19" s="22">
+        <v>2.2</v>
+      </c>
+      <c r="J19" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="49.5" spans="1:10">
       <c r="A20" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="F20" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="G20" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="H20" s="3" t="s">
+      <c r="B20" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="I20" s="12">
+      <c r="D20" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="I20" s="24">
+        <v>3.2</v>
+      </c>
+      <c r="J20" s="33" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="82.5" spans="1:10">
+      <c r="A21" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="I21" s="12">
         <v>6</v>
       </c>
-      <c r="J20" s="29" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="49.5" spans="1:10">
-      <c r="A21" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="I21" s="12">
-        <v>1.95</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>190</v>
+      <c r="J21" s="35" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="49.5" spans="1:10">
       <c r="A22" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>163</v>
+        <v>195</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>165</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>192</v>
+        <v>197</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>198</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>195</v>
+        <v>199</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>132</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="I22" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="J22" s="26" t="s">
-        <v>197</v>
+      <c r="I22" s="12">
+        <v>1.95</v>
+      </c>
+      <c r="J22" s="29" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="33" spans="1:10">
       <c r="A23" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>202</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>92</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I23" s="3">
         <v>0.8</v>
       </c>
-      <c r="J23" s="27" t="s">
-        <v>203</v>
+      <c r="J23" s="30" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="33" spans="1:10">
       <c r="A24" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>199</v>
+        <v>207</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>202</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>202</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>92</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="I24" s="3">
         <v>0.8</v>
       </c>
-      <c r="J24" s="27" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="25" ht="49.5" spans="1:10">
+      <c r="J24" s="30" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" ht="33" spans="1:10">
       <c r="A25" s="11" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>210</v>
+        <v>212</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>213</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>213</v>
+        <v>215</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>216</v>
       </c>
       <c r="I25" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="J25" s="27" t="s">
-        <v>214</v>
+        <v>0.1</v>
+      </c>
+      <c r="J25" s="29" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="26" ht="49.5" spans="1:10">
       <c r="A26" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>208</v>
+        <v>218</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>211</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>217</v>
+        <v>219</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>220</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>92</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="I26" s="12">
         <v>0.5</v>
       </c>
-      <c r="J26" s="26" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="27" ht="33" spans="1:10">
+      <c r="J26" s="30" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="27" ht="49.5" spans="1:10">
       <c r="A27" s="11" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="D27" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="E27" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="F27" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G27" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="F27" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="H27" s="19" t="s">
-        <v>224</v>
+      <c r="H27" s="11" t="s">
+        <v>228</v>
       </c>
       <c r="I27" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="J27" s="26" t="s">
-        <v>219</v>
+        <v>0.5</v>
+      </c>
+      <c r="J27" s="29" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="28" ht="33" spans="1:10">
       <c r="A28" s="11" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="I28" s="12">
         <v>0.6</v>
       </c>
-      <c r="J28" s="26" t="s">
-        <v>231</v>
+      <c r="J28" s="29" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J23">
-    <sortCondition ref="B2"/>
+  <sortState ref="A2:J28">
+    <sortCondition ref="B2:B28"/>
+    <sortCondition ref="C2:C28"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="J7" r:id="rId1" display="https://www.semiee.com/file/SILERGY/SILERGY-SY8088.pdf" tooltip="https://www.semiee.com/file/SILERGY/SILERGY-SY8088.pdf"/>
-    <hyperlink ref="J10" r:id="rId2" display="https://www.semiee.com/file/SILERGY/SILERGY-SY8113BADC.pdf" tooltip="https://www.semiee.com/file/SILERGY/SILERGY-SY8113BADC.pdf"/>
-    <hyperlink ref="J8" r:id="rId3" display="https://www.semiee.com/file/SILERGY/SILERGY-SY8201ABC.pdf" tooltip="https://www.semiee.com/file/SILERGY/SILERGY-SY8201ABC.pdf"/>
-    <hyperlink ref="J9" r:id="rId4" display="https://www.semiee.com/file/SILERGY/SILERGY-SY8120B1.pdf" tooltip="https://www.semiee.com/file/SILERGY/SILERGY-SY8120B1.pdf"/>
-    <hyperlink ref="J11" r:id="rId5" display="https://www.semiee.com/file/Source10/silergy-SY8089AAAC.pdf" tooltip="https://www.semiee.com/file/Source10/silergy-SY8089AAAC.pdf"/>
-    <hyperlink ref="J5" r:id="rId6" display="https://www.semiee.com/file/TI/TI-TPS563201.pdf" tooltip="https://www.semiee.com/file/TI/TI-TPS563201.pdf"/>
-    <hyperlink ref="J6" r:id="rId7" display="https://www.semiee.com/file/TI/TI-TPS562200.pdf" tooltip="https://www.semiee.com/file/TI/TI-TPS562200.pdf"/>
-    <hyperlink ref="J25" r:id="rId8" display="https://www.richtek.com/assets/product_file/RT9193/DS9193-18.pdf"/>
+    <hyperlink ref="J5" r:id="rId1" display="https://www.semiee.com/file/SILERGY/SILERGY-SY8088.pdf" tooltip="https://www.semiee.com/file/SILERGY/SILERGY-SY8088.pdf"/>
+    <hyperlink ref="J7" r:id="rId2" display="https://www.semiee.com/file/SILERGY/SILERGY-SY8113BADC.pdf" tooltip="https://www.semiee.com/file/SILERGY/SILERGY-SY8113BADC.pdf"/>
+    <hyperlink ref="J9" r:id="rId3" display="https://www.semiee.com/file/SILERGY/SILERGY-SY8201ABC.pdf" tooltip="https://www.semiee.com/file/SILERGY/SILERGY-SY8201ABC.pdf"/>
+    <hyperlink ref="J8" r:id="rId4" display="https://www.semiee.com/file/SILERGY/SILERGY-SY8120B1.pdf" tooltip="https://www.semiee.com/file/SILERGY/SILERGY-SY8120B1.pdf"/>
+    <hyperlink ref="J6" r:id="rId5" display="https://www.semiee.com/file/Source10/silergy-SY8089AAAC.pdf" tooltip="https://www.semiee.com/file/Source10/silergy-SY8089AAAC.pdf"/>
+    <hyperlink ref="J12" r:id="rId6" display="https://www.semiee.com/file/TI/TI-TPS563201.pdf" tooltip="https://www.semiee.com/file/TI/TI-TPS563201.pdf"/>
+    <hyperlink ref="J11" r:id="rId7" display="https://www.semiee.com/file/TI/TI-TPS562200.pdf" tooltip="https://www.semiee.com/file/TI/TI-TPS562200.pdf"/>
+    <hyperlink ref="J26" r:id="rId8" display="https://www.richtek.com/assets/product_file/RT9193/DS9193-18.pdf"/>
     <hyperlink ref="J18" r:id="rId9" display="https://www.semiee.com/file/WCH/WCH-CH224.pdf"/>
-    <hyperlink ref="J19" r:id="rId10" display="https://www.semiee.com/file/EOL2/Realtek-ALC5616-CGT.pdf"/>
-    <hyperlink ref="J21" r:id="rId11" display="https://www.semiee.com/file/TI/TI-TXB0108.pdf"/>
-    <hyperlink ref="J22" r:id="rId12" display="https://www.semiee.com/file/Hynetek/Hynetek-HUSB238.pdf"/>
+    <hyperlink ref="J17" r:id="rId10" display="https://www.semiee.com/file/EOL2/Realtek-ALC5616-CGT.pdf"/>
+    <hyperlink ref="J22" r:id="rId11" display="https://www.semiee.com/file/TI/TI-TXB0108.pdf"/>
+    <hyperlink ref="J20" r:id="rId12" display="https://www.semiee.com/file/Hynetek/Hynetek-HUSB238.pdf"/>
     <hyperlink ref="J28" r:id="rId13" display="https://www.semiee.com/file/TI/TI-LM358.pdf"/>
     <hyperlink ref="J2" r:id="rId14" display="https://www.semiee.com/file/SouthChip/SouthChip-SC8906.pdf"/>
     <hyperlink ref="J3" r:id="rId15" display="https://www.semiee.com/file/SGMICRO/SGMICRO-SGM40561.pdf"/>
     <hyperlink ref="J23" r:id="rId16" display="https://www.semiee.com/file/TI/TI-INA180.pdf"/>
     <hyperlink ref="J24" r:id="rId16" display="https://www.semiee.com/file/TI/TI-INA180.pdf"/>
-    <hyperlink ref="J13" r:id="rId17" display="https://www.semiee.com/file/FREQCHIP/FREQCHIP-FR8016HA.pdf"/>
-    <hyperlink ref="J14" r:id="rId18" display="https://www.semiee.com/file/Silan/Silan-SC7A20.pdf"/>
+    <hyperlink ref="J14" r:id="rId17" display="https://www.semiee.com/file/FREQCHIP/FREQCHIP-FR8016HA.pdf"/>
+    <hyperlink ref="J15" r:id="rId18" display="https://www.semiee.com/file/Silan/Silan-SC7A20.pdf"/>
     <hyperlink ref="J4" r:id="rId19" display="https://atta.szlcsc.com/upload/public/pdf/source/20211011/DD9DB39E30D67DDF115F79B4376A27FF.pdf"/>
-    <hyperlink ref="J12" r:id="rId20" display="https://www.semiee.com/file/SILERGY/SILERGY-SY9701ADPC.pdf"/>
-    <hyperlink ref="J15" r:id="rId21" display="https://www.semiee.com/file/Espressif/Espressif-ESP32-PICO-D4.pdf" tooltip="https://www.semiee.com/file/Espressif/Espressif-ESP32-PICO-D4.pdf"/>
-    <hyperlink ref="J20" r:id="rId22" display="https://www.ti.com/lit/ds/symlink/tlv320aic3101.pdf?ts=1698998478028&amp;ref_url=https%253A%252F%252Fwww.ti.com%252Fproduct%252FTLV320AIC3101%253FkeyMatch%253DTLV320AIC3101IRHBR%2526tisearch%253DSearch-EN-Everything" tooltip="https://www.ti.com/lit/ds/symlink/tlv320aic3101.pdf?ts=1698998478028&amp;ref_url=https%253A%252F%252Fwww.ti.com%252Fproduct%252FTLV320AIC3101%253FkeyMatch%253DTLV320AIC3101IRHBR%2526tisearch%253DSearch-EN-Everything"/>
-    <hyperlink ref="J26" r:id="rId23" display="https://atta.szlcsc.com/upload/public/pdf/source/20130730/1457706628575.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20130730/1457706628575.pdf"/>
+    <hyperlink ref="J10" r:id="rId20" display="https://www.semiee.com/file/SILERGY/SILERGY-SY9701ADPC.pdf"/>
+    <hyperlink ref="J13" r:id="rId21" display="https://www.semiee.com/file/Espressif/Espressif-ESP32-PICO-D4.pdf" tooltip="https://www.semiee.com/file/Espressif/Espressif-ESP32-PICO-D4.pdf"/>
+    <hyperlink ref="J21" r:id="rId22" display="https://www.ti.com/lit/ds/symlink/tlv320aic3101.pdf?ts=1698998478028&amp;ref_url=https%253A%252F%252Fwww.ti.com%252Fproduct%252FTLV320AIC3101%253FkeyMatch%253DTLV320AIC3101IRHBR%2526tisearch%253DSearch-EN-Everything" tooltip="https://www.ti.com/lit/ds/symlink/tlv320aic3101.pdf?ts=1698998478028&amp;ref_url=https%253A%252F%252Fwww.ti.com%252Fproduct%252FTLV320AIC3101%253FkeyMatch%253DTLV320AIC3101IRHBR%2526tisearch%253DSearch-EN-Everything"/>
     <hyperlink ref="J27" r:id="rId23" display="https://atta.szlcsc.com/upload/public/pdf/source/20130730/1457706628575.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20130730/1457706628575.pdf"/>
+    <hyperlink ref="J25" r:id="rId23" display="https://atta.szlcsc.com/upload/public/pdf/source/20130730/1457706628575.pdf" tooltip="https://atta.szlcsc.com/upload/public/pdf/source/20130730/1457706628575.pdf"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4998,19 +5115,19 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A2" s="18" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>14</v>
@@ -5019,30 +5136,30 @@
         <v>15</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="I2" s="3">
         <v>0.23</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A3" s="18" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>14</v>
@@ -5051,94 +5168,94 @@
         <v>15</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="I3" s="3">
         <v>0.23</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A4" s="18" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="I4" s="3">
         <v>0.18</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A5" s="18" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>245</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="I5" s="3">
         <v>0.18</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A6" s="18" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>14</v>
@@ -5147,30 +5264,30 @@
         <v>15</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="I6" s="3">
         <v>0.23</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A7" s="18" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>14</v>
@@ -5179,94 +5296,94 @@
         <v>15</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="I7" s="3">
         <v>0.23</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A8" s="18" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="I8" s="3">
         <v>0.18</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A9" s="18" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="I9" s="3">
         <v>0.18</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A10" s="18" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>14</v>
@@ -5275,30 +5392,30 @@
         <v>15</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="I10" s="3">
         <v>0.23</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A11" s="18" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>14</v>
@@ -5307,30 +5424,30 @@
         <v>15</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="I11" s="3">
         <v>0.23</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A12" s="18" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>14</v>
@@ -5339,158 +5456,158 @@
         <v>15</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="I12" s="3">
         <v>0.6</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A13" s="18" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="I13" s="3">
         <v>0.18</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A14" s="18" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="I14" s="3">
         <v>0.18</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A15" s="18" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="I15" s="3">
         <v>0.28</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A16" s="18" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="I16" s="3">
         <v>0.5</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A17" s="18" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>71</v>
@@ -5499,30 +5616,30 @@
         <v>36</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="I17" s="3">
         <v>0.14</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A18" s="18" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>295</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>291</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>71</v>
@@ -5531,461 +5648,461 @@
         <v>36</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="I18" s="3">
         <v>0.14</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A19" s="18" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="I19" s="3">
         <v>0.74</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A20" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>304</v>
-      </c>
       <c r="H20" s="3" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="I20" s="3">
         <v>0.35</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A21" s="18" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="I21" s="3">
         <v>0.26</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A22" s="18" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="I22" s="3">
         <v>0.35</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A23" s="18" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I23" s="3">
         <v>0.24</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A24" s="18" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="I24" s="3">
         <v>0.4</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A25" s="18" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="I25" s="3">
         <v>0.3</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A26" s="18" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="I26" s="3">
         <v>0.39</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A27" s="18" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>334</v>
-      </c>
       <c r="G27" s="3" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="I27" s="3">
         <v>0.39</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A28" s="18" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="I28" s="3">
         <v>0.41</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A29" s="18" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>344</v>
-      </c>
       <c r="G29" s="3" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="I29" s="3">
         <v>0.38</v>
       </c>
       <c r="J29" s="17" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A30" s="18" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="I30" s="3">
         <v>0.31</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A31" s="18" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="I31" s="3">
         <v>1.1</v>
       </c>
       <c r="J31" s="17" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A32" s="18" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="I32" s="3">
         <v>0.2</v>
       </c>
       <c r="J32" s="17" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -6099,322 +6216,322 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="I2" s="3">
         <v>0.23</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="I3" s="3">
         <v>0.47</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A4" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>380</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="I4" s="3">
         <v>0.47</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A5" s="3" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="I5" s="3">
         <v>0.47</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="I6" s="3">
         <v>0.42</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A7" s="3" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>394</v>
-      </c>
       <c r="G7" s="3" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="I7" s="3">
         <v>0.42</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A8" s="3" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I8" s="3">
         <v>0.04</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A9" s="3" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="I9" s="3">
         <v>0.47</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="I10" s="3">
         <v>0.9</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="11" ht="28.5" spans="1:10">
       <c r="A11" s="3" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="I11" s="3">
         <v>0.031</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -6492,578 +6609,578 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A2" s="11" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="I2" s="11">
         <v>0.002</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A3" s="11" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>429</v>
-      </c>
       <c r="H3" s="11" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="I3" s="11">
         <v>0.002</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A4" s="11" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="I4" s="11">
         <v>0.002</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A5" s="11" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C5" s="11">
         <v>33</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="I5" s="11">
         <v>0.002</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A6" s="11" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="I6" s="11">
         <v>0.002</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A7" s="11" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="I7" s="11">
         <v>0.002</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A8" s="11" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="I8" s="11">
         <v>0.002</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A9" s="11" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="I9" s="11">
         <v>0.002</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A10" s="11" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="I10" s="11">
         <v>0.002</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A11" s="11" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="I11" s="11">
         <v>0.002</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A12" s="11" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="I12" s="11">
         <v>0.002</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A13" s="11" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="I13" s="11">
         <v>0.002</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A14" s="11" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="I14" s="11">
         <v>0.002</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A15" s="11" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="I15" s="11">
         <v>0.002</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A16" s="11" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="I16" s="11">
         <v>0.002</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A17" s="11" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="I17" s="11">
         <v>0.002</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A18" s="11" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="I18" s="11">
         <v>0.002</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A19" s="11" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="I19" s="11">
         <v>0.1</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -7132,124 +7249,124 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A2" s="11" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="I2" s="11">
         <v>0.005</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A3" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>508</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>500</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>509</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>510</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>504</v>
-      </c>
       <c r="G3" s="11" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="I3" s="11">
         <v>0.035</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A4" s="11" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="I4" s="11">
         <v>0.02</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A5" s="11" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="I5" s="11">
         <v>0.02</v>
@@ -7258,512 +7375,512 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A6" s="11" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="I6" s="11">
         <v>0.004</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A7" s="11" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="I7" s="14">
         <v>0.017</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A8" s="11" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="I8" s="11">
         <v>0.018</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A9" s="11" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="I9" s="11">
         <v>0.234</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A10" s="11" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="D10" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>538</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>534</v>
-      </c>
       <c r="G10" s="11" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="I10" s="14">
         <v>0.02</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A11" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>542</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>500</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>537</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>538</v>
-      </c>
       <c r="E11" s="11" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="I11" s="14">
         <v>0.02</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A12" s="11" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="I12" s="14">
         <v>0.01</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A13" s="11" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="I13" s="14">
         <v>0.03</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A14" s="11" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="I14" s="14">
         <v>0.05</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A15" s="11" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="I15" s="14">
         <v>0.1</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A16" s="11" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="I16" s="11">
         <v>0.036</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A17" s="11" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="I17" s="14">
         <v>0.07</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A18" s="11" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="I18" s="14">
         <v>0.08</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A19" s="11" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="I19" s="14">
         <v>0.16</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A20" s="11" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="I20" s="14">
         <v>0.4</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A21" s="11" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="14">
         <v>0.11</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
     </row>
   </sheetData>
@@ -7837,194 +7954,194 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>93</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="I2" s="3">
         <v>0.14</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>36</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="I4" s="3">
         <v>0.1</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A5" s="3" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="I5" s="3">
         <v>0.1</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>36</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="I6" s="3">
         <v>0.1</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A7" s="3" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>36</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="I7" s="3">
         <v>0.1</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
     </row>
   </sheetData>
@@ -8098,98 +8215,98 @@
     </row>
     <row r="2" ht="33" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="I2" s="3">
         <v>1.5</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="3" ht="33" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="I3" s="3">
         <v>0.5</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
     </row>
     <row r="4" ht="33" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>640</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="I4" s="3">
         <v>0.9</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
   </sheetData>
@@ -8208,7 +8325,7 @@
   <sheetPr/>
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -8260,146 +8377,146 @@
     </row>
     <row r="2" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="I2" s="3">
         <v>0.34</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>659</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>654</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="I3" s="3">
         <v>0.22</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
     </row>
     <row r="4" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="I4" s="3">
         <v>0.22</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
     </row>
     <row r="5" s="6" customFormat="1" ht="39" customHeight="1" spans="1:10">
       <c r="A5" s="3" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="I5" s="3">
         <v>0.56</v>
       </c>
       <c r="J5" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
     </row>
     <row r="6" s="6" customFormat="1" ht="33" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -8408,22 +8525,22 @@
     </row>
     <row r="7" s="6" customFormat="1" ht="33" spans="1:10">
       <c r="A7" s="3" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -8432,22 +8549,22 @@
     </row>
     <row r="8" s="6" customFormat="1" ht="49.5" spans="1:10">
       <c r="A8" s="3" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -8456,22 +8573,22 @@
     </row>
     <row r="9" s="6" customFormat="1" ht="49.5" spans="1:10">
       <c r="A9" s="3" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -8480,77 +8597,77 @@
     </row>
     <row r="10" s="6" customFormat="1" ht="28.5" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3">
         <v>0.2</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
     </row>
     <row r="11" s="6" customFormat="1" ht="33" spans="1:10">
       <c r="A11" s="3" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="I11" s="3">
         <v>0.28</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
     </row>
     <row r="12" s="6" customFormat="1" ht="16.5" spans="1:10">
       <c r="A12" s="3" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="7" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
